--- a/FOMC2_bse.xlsx
+++ b/FOMC2_bse.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0004018212218519125</v>
+        <v>0.0004142441254361551</v>
       </c>
       <c r="C2">
-        <v>0.0002930374662139148</v>
+        <v>0.0004149900029253058</v>
       </c>
       <c r="D2">
-        <v>4.108253713451382e-06</v>
+        <v>4.857949755401449e-06</v>
       </c>
       <c r="E2">
-        <v>0.0004202661610511172</v>
+        <v>0.0003358362518084924</v>
       </c>
       <c r="F2">
-        <v>0.0001350145801559872</v>
+        <v>0.0001557296537254889</v>
       </c>
       <c r="G2">
-        <v>4.278462719076192e-07</v>
+        <v>2.970442580046321e-07</v>
       </c>
       <c r="H2">
-        <v>0.0014329575123468</v>
+        <v>0.001975749072179326</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0004459725601708838</v>
+        <v>0.0004307229838726454</v>
       </c>
       <c r="C3">
-        <v>0.0007536121933239989</v>
+        <v>0.000800714728455283</v>
       </c>
       <c r="D3">
-        <v>5.383854522673367e-06</v>
+        <v>4.762237433419489e-06</v>
       </c>
       <c r="E3">
-        <v>0.0004163032939272674</v>
+        <v>0.0004206882801826107</v>
       </c>
       <c r="F3">
-        <v>0.0001793212311371227</v>
+        <v>0.0001780166425648684</v>
       </c>
       <c r="G3">
-        <v>3.691938772722378e-07</v>
+        <v>4.343267616975807e-07</v>
       </c>
       <c r="H3">
-        <v>0.001964480595301263</v>
+        <v>0.001996116689559517</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0004755377673483635</v>
+        <v>0.0005426323661732532</v>
       </c>
       <c r="C4">
-        <v>0.0005880713415437291</v>
+        <v>0.0005220737374882619</v>
       </c>
       <c r="D4">
-        <v>4.287871125579459e-06</v>
+        <v>5.103845685634929e-06</v>
       </c>
       <c r="E4">
-        <v>0.0003235169925317145</v>
+        <v>0.0003293330844994325</v>
       </c>
       <c r="F4">
-        <v>0.0001503749650140594</v>
+        <v>0.0001577069064317994</v>
       </c>
       <c r="G4">
-        <v>7.077465228118968e-07</v>
+        <v>3.513630221700608e-07</v>
       </c>
       <c r="H4">
-        <v>0.001928606431800577</v>
+        <v>0.001738273869197983</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004524983447817093</v>
+        <v>0.0004251985707978713</v>
       </c>
       <c r="C5">
-        <v>0.0005328431470639087</v>
+        <v>0.0005098688922687361</v>
       </c>
       <c r="D5">
-        <v>4.138609762448638e-06</v>
+        <v>4.637245063817416e-06</v>
       </c>
       <c r="E5">
-        <v>0.0003373292518816519</v>
+        <v>0.0004061775336279141</v>
       </c>
       <c r="F5">
-        <v>0.0001576680702598673</v>
+        <v>0.0001544314268771202</v>
       </c>
       <c r="G5">
-        <v>3.974610272118222e-07</v>
+        <v>3.921640543615628e-07</v>
       </c>
       <c r="H5">
-        <v>0.002077427631035649</v>
+        <v>0.001812602853197954</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0004210167038628424</v>
+        <v>0.0003823820963050461</v>
       </c>
       <c r="C6">
-        <v>0.0009368952188056963</v>
+        <v>0.0005661077596906116</v>
       </c>
       <c r="D6">
-        <v>5.294148972341275e-06</v>
+        <v>4.394119390221775e-06</v>
       </c>
       <c r="E6">
-        <v>0.00027753832669506</v>
+        <v>0.0002968738085892267</v>
       </c>
       <c r="F6">
-        <v>0.0001356535584851352</v>
+        <v>0.000164629435294395</v>
       </c>
       <c r="G6">
-        <v>3.998810915694695e-07</v>
+        <v>3.291519641709574e-07</v>
       </c>
       <c r="H6">
-        <v>0.00155462688451669</v>
+        <v>0.001924273739226228</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0004379381531389171</v>
+        <v>0.0004413631763895677</v>
       </c>
       <c r="C7">
-        <v>0.0007033206320498774</v>
+        <v>0.0004933317794929913</v>
       </c>
       <c r="D7">
-        <v>4.886062374706136e-06</v>
+        <v>5.025279346624877e-06</v>
       </c>
       <c r="E7">
-        <v>0.0003769129237805349</v>
+        <v>0.0003885993583649287</v>
       </c>
       <c r="F7">
-        <v>0.000171765713168928</v>
+        <v>0.0001605441063292853</v>
       </c>
       <c r="G7">
-        <v>5.476828900109301e-07</v>
+        <v>7.055087002499721e-07</v>
       </c>
       <c r="H7">
-        <v>0.001928704225806776</v>
+        <v>0.001729874089065707</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.000406455313764583</v>
+        <v>0.0004434760710576206</v>
       </c>
       <c r="C8">
-        <v>0.0004629374149322557</v>
+        <v>0.0007633050822047321</v>
       </c>
       <c r="D8">
-        <v>4.230287540500003e-06</v>
+        <v>5.970820965407682e-06</v>
       </c>
       <c r="E8">
-        <v>0.000301952231962602</v>
+        <v>0.000356589607951253</v>
       </c>
       <c r="F8">
-        <v>0.0001304994626971133</v>
+        <v>0.0001497265381104251</v>
       </c>
       <c r="G8">
-        <v>3.511549116049417e-07</v>
+        <v>3.787118322893112e-07</v>
       </c>
       <c r="H8">
-        <v>0.001463007581565023</v>
+        <v>0.001855570739895034</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0003101646043947947</v>
+        <v>0.0004370167793697274</v>
       </c>
       <c r="C9">
-        <v>0.0003475544015285241</v>
+        <v>0.000387875837982953</v>
       </c>
       <c r="D9">
-        <v>4.657779876463803e-06</v>
+        <v>4.909041478197908e-06</v>
       </c>
       <c r="E9">
-        <v>0.0003045672800753307</v>
+        <v>0.0003571152419022683</v>
       </c>
       <c r="F9">
-        <v>0.0001511780324216411</v>
+        <v>0.0001378912463088414</v>
       </c>
       <c r="G9">
-        <v>3.649857712175083e-07</v>
+        <v>4.090726135796978e-07</v>
       </c>
       <c r="H9">
-        <v>0.001602561194185874</v>
+        <v>0.001473069982076318</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0004951797005325902</v>
+        <v>0.0004528667501795147</v>
       </c>
       <c r="C10">
-        <v>0.0004301092718694877</v>
+        <v>0.0006508139130851206</v>
       </c>
       <c r="D10">
-        <v>6.867480221518316e-06</v>
+        <v>3.68843330346298e-06</v>
       </c>
       <c r="E10">
-        <v>0.0002800130096237864</v>
+        <v>0.0003496358878121467</v>
       </c>
       <c r="F10">
-        <v>0.0001772409057085155</v>
+        <v>0.0001443826975482376</v>
       </c>
       <c r="G10">
-        <v>5.890464471728636e-07</v>
+        <v>4.305509829216121e-07</v>
       </c>
       <c r="H10">
-        <v>0.001697805234868669</v>
+        <v>0.001717617958998537</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0003136165411682755</v>
+        <v>0.0004070538419735882</v>
       </c>
       <c r="C11">
-        <v>0.0002709905424260906</v>
+        <v>0.0005985253765891144</v>
       </c>
       <c r="D11">
-        <v>3.905844022049283e-06</v>
+        <v>4.57826792035839e-06</v>
       </c>
       <c r="E11">
-        <v>0.0003670917306078048</v>
+        <v>0.0004426283305461985</v>
       </c>
       <c r="F11">
-        <v>0.0001326060352412463</v>
+        <v>0.000160734539456705</v>
       </c>
       <c r="G11">
-        <v>4.412612477276255e-07</v>
+        <v>6.419951143786421e-07</v>
       </c>
       <c r="H11">
-        <v>0.001342239463143564</v>
+        <v>0.00194953540440483</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0004111907472275872</v>
+        <v>0.0003339028025304323</v>
       </c>
       <c r="C12">
-        <v>0.0006312191695930472</v>
+        <v>0.0003903496059933487</v>
       </c>
       <c r="D12">
-        <v>4.187108053755318e-06</v>
+        <v>3.855215787617333e-06</v>
       </c>
       <c r="E12">
-        <v>0.0004497279257433588</v>
+        <v>0.0003788941492494162</v>
       </c>
       <c r="F12">
-        <v>0.0001545305718368606</v>
+        <v>0.0001422493481839647</v>
       </c>
       <c r="G12">
-        <v>5.179353629910582e-07</v>
+        <v>5.690664131328685e-07</v>
       </c>
       <c r="H12">
-        <v>0.001731570066860428</v>
+        <v>0.001559291795362651</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0004087371557690776</v>
+        <v>0.0004856600751499427</v>
       </c>
       <c r="C13">
-        <v>0.0004999332886815192</v>
+        <v>0.0006920570098744589</v>
       </c>
       <c r="D13">
-        <v>5.854575185184935e-06</v>
+        <v>4.590454037975759e-06</v>
       </c>
       <c r="E13">
-        <v>0.0003356623430284655</v>
+        <v>0.0004397983935258385</v>
       </c>
       <c r="F13">
-        <v>0.0001741976202035114</v>
+        <v>0.0001588645018337962</v>
       </c>
       <c r="G13">
-        <v>4.317861868441666e-07</v>
+        <v>5.326795797239928e-07</v>
       </c>
       <c r="H13">
-        <v>0.002008682254558093</v>
+        <v>0.001918551116618937</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0003523494836628977</v>
+        <v>0.0003984358077385194</v>
       </c>
       <c r="C14">
-        <v>0.0005637351481489552</v>
+        <v>0.0005389951045523109</v>
       </c>
       <c r="D14">
-        <v>4.192768435997511e-06</v>
+        <v>5.94142602872049e-06</v>
       </c>
       <c r="E14">
-        <v>0.0003475473670306684</v>
+        <v>0.0002686709945857175</v>
       </c>
       <c r="F14">
-        <v>0.0001604628261385956</v>
+        <v>0.0001518809642531043</v>
       </c>
       <c r="G14">
-        <v>4.068446558050595e-07</v>
+        <v>4.582842408872047e-07</v>
       </c>
       <c r="H14">
-        <v>0.001599743729112375</v>
+        <v>0.001965658248662662</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0004794658343069861</v>
+        <v>0.0003306328735665754</v>
       </c>
       <c r="C15">
-        <v>0.0004878401981811015</v>
+        <v>0.0008583838814716399</v>
       </c>
       <c r="D15">
-        <v>4.75736213635586e-06</v>
+        <v>4.092812914606615e-06</v>
       </c>
       <c r="E15">
-        <v>0.0003938598401242414</v>
+        <v>0.0003176986377555751</v>
       </c>
       <c r="F15">
-        <v>0.0001504905757896167</v>
+        <v>0.0001290558841201959</v>
       </c>
       <c r="G15">
-        <v>5.165297499410166e-07</v>
+        <v>3.695302187702832e-07</v>
       </c>
       <c r="H15">
-        <v>0.001833320314546396</v>
+        <v>0.001362391299011084</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0003715031177620903</v>
+        <v>0.0005533205433165248</v>
       </c>
       <c r="C16">
-        <v>0.0004839593409280257</v>
+        <v>0.0004929298297153592</v>
       </c>
       <c r="D16">
-        <v>4.046456714801333e-06</v>
+        <v>5.020881589768603e-06</v>
       </c>
       <c r="E16">
-        <v>0.0003252083536011008</v>
+        <v>0.0002604395656871604</v>
       </c>
       <c r="F16">
-        <v>0.000142968192011901</v>
+        <v>0.0001262836812443164</v>
       </c>
       <c r="G16">
-        <v>3.844155195853837e-07</v>
+        <v>3.992006983037419e-07</v>
       </c>
       <c r="H16">
-        <v>0.00172984195176494</v>
+        <v>0.001552402574134731</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0003512921386857479</v>
+        <v>0.0004852321533537122</v>
       </c>
       <c r="C17">
-        <v>0.0006748727950540915</v>
+        <v>0.0003804331476046142</v>
       </c>
       <c r="D17">
-        <v>5.302975271531534e-06</v>
+        <v>4.443681512232631e-06</v>
       </c>
       <c r="E17">
-        <v>0.0004309482029839558</v>
+        <v>0.0003597451015229006</v>
       </c>
       <c r="F17">
-        <v>0.0001484333103596267</v>
+        <v>0.0001474567669434895</v>
       </c>
       <c r="G17">
-        <v>4.212239731992091e-07</v>
+        <v>3.307894312245517e-07</v>
       </c>
       <c r="H17">
-        <v>0.001498060971616414</v>
+        <v>0.001639384294999159</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0005247417219546413</v>
+        <v>0.0003934285417311997</v>
       </c>
       <c r="C18">
-        <v>0.0004818135079475642</v>
+        <v>0.0006507948648989877</v>
       </c>
       <c r="D18">
-        <v>4.545179343914865e-06</v>
+        <v>5.492078947953049e-06</v>
       </c>
       <c r="E18">
-        <v>0.0003645886432894984</v>
+        <v>0.0002939213127207238</v>
       </c>
       <c r="F18">
-        <v>0.0001742883387240075</v>
+        <v>0.0001229532416078223</v>
       </c>
       <c r="G18">
-        <v>6.119019150068353e-07</v>
+        <v>3.933057018406915e-07</v>
       </c>
       <c r="H18">
-        <v>0.002040084063014853</v>
+        <v>0.001480855263596492</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.000568691683741876</v>
+        <v>0.0003376437509051893</v>
       </c>
       <c r="C19">
-        <v>0.0003954654217054278</v>
+        <v>0.0003154313994057002</v>
       </c>
       <c r="D19">
-        <v>4.621984271245523e-06</v>
+        <v>4.174021448205186e-06</v>
       </c>
       <c r="E19">
-        <v>0.0003770262669118396</v>
+        <v>0.0003144889035186748</v>
       </c>
       <c r="F19">
-        <v>0.000171086486948512</v>
+        <v>0.000139259062298989</v>
       </c>
       <c r="G19">
-        <v>6.679896006599733e-07</v>
+        <v>3.908248302278339e-07</v>
       </c>
       <c r="H19">
-        <v>0.002132218804921376</v>
+        <v>0.001501938759648251</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0004110017715321159</v>
+        <v>0.0003391895763227316</v>
       </c>
       <c r="C20">
-        <v>0.000472502365997768</v>
+        <v>0.000392532030150138</v>
       </c>
       <c r="D20">
-        <v>4.185599056777532e-06</v>
+        <v>3.828717487981746e-06</v>
       </c>
       <c r="E20">
-        <v>0.0004102960299646311</v>
+        <v>0.0003262776602931335</v>
       </c>
       <c r="F20">
-        <v>0.0001389067826184595</v>
+        <v>0.0001081175900852317</v>
       </c>
       <c r="G20">
-        <v>3.504697587003227e-07</v>
+        <v>4.558565534120954e-07</v>
       </c>
       <c r="H20">
-        <v>0.001646930179885873</v>
+        <v>0.001347492814219955</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.000392443572976713</v>
+        <v>0.0003429273212377401</v>
       </c>
       <c r="C21">
-        <v>0.0004336520399266281</v>
+        <v>0.0004786777861989533</v>
       </c>
       <c r="D21">
-        <v>4.54390521918849e-06</v>
+        <v>4.117975557023946e-06</v>
       </c>
       <c r="E21">
-        <v>0.0003233411353610272</v>
+        <v>0.0003161869798988483</v>
       </c>
       <c r="F21">
-        <v>0.0001363730258094963</v>
+        <v>0.0001407942505348464</v>
       </c>
       <c r="G21">
-        <v>4.773361785491889e-07</v>
+        <v>5.008971451570231e-07</v>
       </c>
       <c r="H21">
-        <v>0.001433014108997009</v>
+        <v>0.001670382708185982</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0003683097903895985</v>
+        <v>0.0003036731330043576</v>
       </c>
       <c r="C22">
-        <v>0.0007872453985286042</v>
+        <v>0.0004754379223873945</v>
       </c>
       <c r="D22">
-        <v>3.714464457265138e-06</v>
+        <v>4.281900996454575e-06</v>
       </c>
       <c r="E22">
-        <v>0.0003273053045648198</v>
+        <v>0.0002984303167614155</v>
       </c>
       <c r="F22">
-        <v>0.0001476933131142173</v>
+        <v>0.0001157932610710314</v>
       </c>
       <c r="G22">
-        <v>4.803129615409669e-07</v>
+        <v>4.874827045821362e-07</v>
       </c>
       <c r="H22">
-        <v>0.001774181658694234</v>
+        <v>0.001285562277557943</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0005733219222030834</v>
+        <v>0.0006931545921130384</v>
       </c>
       <c r="C23">
-        <v>0.0006464713241833554</v>
+        <v>0.0008490847748804897</v>
       </c>
       <c r="D23">
-        <v>5.585290789324048e-06</v>
+        <v>6.372286169918654e-06</v>
       </c>
       <c r="E23">
-        <v>0.0004075840848348578</v>
+        <v>0.000430660451436639</v>
       </c>
       <c r="F23">
-        <v>0.0001634418125073058</v>
+        <v>0.0002308057011530109</v>
       </c>
       <c r="G23">
-        <v>5.959449866357955e-07</v>
+        <v>4.650669436661392e-07</v>
       </c>
       <c r="H23">
-        <v>0.002017848757652015</v>
+        <v>0.002685819749595314</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0003956516409371169</v>
+        <v>0.0004755084038446134</v>
       </c>
       <c r="C24">
-        <v>0.0004248866242267467</v>
+        <v>0.0005450684812344334</v>
       </c>
       <c r="D24">
-        <v>4.207768886580437e-06</v>
+        <v>5.207754054853708e-06</v>
       </c>
       <c r="E24">
-        <v>0.000292367176928749</v>
+        <v>0.0003993746621587203</v>
       </c>
       <c r="F24">
-        <v>0.000160342399342403</v>
+        <v>0.0001418501470496783</v>
       </c>
       <c r="G24">
-        <v>4.994429791800878e-07</v>
+        <v>5.356103443396242e-07</v>
       </c>
       <c r="H24">
-        <v>0.001783532569925914</v>
+        <v>0.001748523781397418</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0004206056821724384</v>
+        <v>0.0004790988401564007</v>
       </c>
       <c r="C25">
-        <v>0.0004129228889945141</v>
+        <v>0.0005651452853005832</v>
       </c>
       <c r="D25">
-        <v>5.093090783750874e-06</v>
+        <v>5.446642981360613e-06</v>
       </c>
       <c r="E25">
-        <v>0.0004300536051975086</v>
+        <v>0.0004428154125473033</v>
       </c>
       <c r="F25">
-        <v>0.0001285816857864784</v>
+        <v>0.0001937100366674247</v>
       </c>
       <c r="G25">
-        <v>4.456446737411217e-07</v>
+        <v>6.69468036453413e-07</v>
       </c>
       <c r="H25">
-        <v>0.00157519397309159</v>
+        <v>0.002221661757590643</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.000357006171420827</v>
+        <v>0.0003491758622381318</v>
       </c>
       <c r="C26">
-        <v>0.0003282873542330036</v>
+        <v>0.0005522322629865578</v>
       </c>
       <c r="D26">
-        <v>4.435150295675085e-06</v>
+        <v>5.892781805365124e-06</v>
       </c>
       <c r="E26">
-        <v>0.0003389626935687262</v>
+        <v>0.0003187603327626125</v>
       </c>
       <c r="F26">
-        <v>0.0001401664336746809</v>
+        <v>0.0001448480877803662</v>
       </c>
       <c r="G26">
-        <v>5.699484209590716e-07</v>
+        <v>4.316978359845527e-07</v>
       </c>
       <c r="H26">
-        <v>0.001501591895271169</v>
+        <v>0.001614723540498949</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0003652377304034569</v>
+        <v>0.0004443225515723034</v>
       </c>
       <c r="C27">
-        <v>0.0009819451460041826</v>
+        <v>0.0005684149653684907</v>
       </c>
       <c r="D27">
-        <v>4.285084939955326e-06</v>
+        <v>4.820593155256258e-06</v>
       </c>
       <c r="E27">
-        <v>0.0003736731085015933</v>
+        <v>0.0003267727721761948</v>
       </c>
       <c r="F27">
-        <v>0.0001425496401399204</v>
+        <v>0.0001480955068747262</v>
       </c>
       <c r="G27">
-        <v>5.424870341256942e-07</v>
+        <v>5.928386007165655e-07</v>
       </c>
       <c r="H27">
-        <v>0.001549786706737054</v>
+        <v>0.001861974347560116</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0005524402231954366</v>
+        <v>0.0004474257218903481</v>
       </c>
       <c r="C28">
-        <v>0.0006141446476319201</v>
+        <v>0.0005817019729448309</v>
       </c>
       <c r="D28">
-        <v>4.859028150080695e-06</v>
+        <v>4.585977971858708e-06</v>
       </c>
       <c r="E28">
-        <v>0.0003797588359766525</v>
+        <v>0.0003573590681742604</v>
       </c>
       <c r="F28">
-        <v>0.000165422581903754</v>
+        <v>0.0001499278801474245</v>
       </c>
       <c r="G28">
-        <v>5.753710621887149e-07</v>
+        <v>4.774279365651156e-07</v>
       </c>
       <c r="H28">
-        <v>0.001894152953044725</v>
+        <v>0.001722232516060219</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0005797107411046635</v>
+        <v>0.0004872123660058441</v>
       </c>
       <c r="C29">
-        <v>0.0004835294193072418</v>
+        <v>0.0004662185039595113</v>
       </c>
       <c r="D29">
-        <v>4.651240390333116e-06</v>
+        <v>5.265551786353177e-06</v>
       </c>
       <c r="E29">
-        <v>0.0003758412042685602</v>
+        <v>0.000397737759470551</v>
       </c>
       <c r="F29">
-        <v>0.0001531794363361453</v>
+        <v>0.0001318418363510756</v>
       </c>
       <c r="G29">
-        <v>4.60738064112802e-07</v>
+        <v>3.948668437779577e-07</v>
       </c>
       <c r="H29">
-        <v>0.0017137826668156</v>
+        <v>0.001662590811932922</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0004811126263357798</v>
+        <v>0.0004975301050219741</v>
       </c>
       <c r="C30">
-        <v>0.0004707485110025792</v>
+        <v>0.0006057923797151871</v>
       </c>
       <c r="D30">
-        <v>5.410187309222924e-06</v>
+        <v>6.110589290720913e-06</v>
       </c>
       <c r="E30">
-        <v>0.0004378745701792749</v>
+        <v>0.0003320623109290294</v>
       </c>
       <c r="F30">
-        <v>0.0001767318823645028</v>
+        <v>0.0001333481087905806</v>
       </c>
       <c r="G30">
-        <v>4.898864967234215e-07</v>
+        <v>4.316258335951462e-07</v>
       </c>
       <c r="H30">
-        <v>0.001920752389693107</v>
+        <v>0.001931703638340172</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0003527829689503744</v>
+        <v>0.0004660309117567313</v>
       </c>
       <c r="C31">
-        <v>0.0003366322575318737</v>
+        <v>0.0006221249592048113</v>
       </c>
       <c r="D31">
-        <v>4.81868203174752e-06</v>
+        <v>5.675352809084015e-06</v>
       </c>
       <c r="E31">
-        <v>0.0003070503160526441</v>
+        <v>0.0003021035176646337</v>
       </c>
       <c r="F31">
-        <v>0.0001434350665691372</v>
+        <v>0.0001176237906486816</v>
       </c>
       <c r="G31">
-        <v>4.848348644928773e-07</v>
+        <v>5.350288244662804e-07</v>
       </c>
       <c r="H31">
-        <v>0.00174823743292548</v>
+        <v>0.001418748132236813</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0003092545468129976</v>
+        <v>0.00056243344182587</v>
       </c>
       <c r="C32">
-        <v>0.0008129711471488368</v>
+        <v>0.0004552787707964432</v>
       </c>
       <c r="D32">
-        <v>6.180775110297468e-06</v>
+        <v>4.58923478357699e-06</v>
       </c>
       <c r="E32">
-        <v>0.0003285585812841649</v>
+        <v>0.0002532591861416749</v>
       </c>
       <c r="F32">
-        <v>0.0001281752549625468</v>
+        <v>0.0001942542492297504</v>
       </c>
       <c r="G32">
-        <v>4.426690763110284e-07</v>
+        <v>5.641941920441848e-07</v>
       </c>
       <c r="H32">
-        <v>0.001302874302428008</v>
+        <v>0.002184067300608411</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0003841025964189302</v>
+        <v>0.0003759587922856484</v>
       </c>
       <c r="C33">
-        <v>0.0006351686590451096</v>
+        <v>0.0005936974211871658</v>
       </c>
       <c r="D33">
-        <v>3.82462131136813e-06</v>
+        <v>4.072306046798543e-06</v>
       </c>
       <c r="E33">
-        <v>0.0002857628537799633</v>
+        <v>0.0003577166247111028</v>
       </c>
       <c r="F33">
-        <v>0.0001208218290532445</v>
+        <v>0.0001099972723724793</v>
       </c>
       <c r="G33">
-        <v>4.672018466125578e-07</v>
+        <v>3.67144929835237e-07</v>
       </c>
       <c r="H33">
-        <v>0.001392189222273818</v>
+        <v>0.001474225767201283</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0003999841807086258</v>
+        <v>0.0004394295949645441</v>
       </c>
       <c r="C34">
-        <v>0.0005517114057402968</v>
+        <v>0.0005485563999296519</v>
       </c>
       <c r="D34">
-        <v>4.360506150749863e-06</v>
+        <v>8.062130354565672e-06</v>
       </c>
       <c r="E34">
-        <v>0.0003796489492027789</v>
+        <v>0.0003914262063400424</v>
       </c>
       <c r="F34">
-        <v>0.0001744638952422709</v>
+        <v>0.0001503060536885318</v>
       </c>
       <c r="G34">
-        <v>4.160188514164329e-07</v>
+        <v>3.671193023836466e-07</v>
       </c>
       <c r="H34">
-        <v>0.002046640710413852</v>
+        <v>0.001812178209404276</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0005355983208341241</v>
+        <v>0.0003945836311179265</v>
       </c>
       <c r="C35">
-        <v>0.0005047351614684739</v>
+        <v>0.0003853361283332908</v>
       </c>
       <c r="D35">
-        <v>6.400497875719621e-06</v>
+        <v>6.349352634158727e-06</v>
       </c>
       <c r="E35">
-        <v>0.0004165533136935664</v>
+        <v>0.0003580744027422756</v>
       </c>
       <c r="F35">
-        <v>0.0001587276822824052</v>
+        <v>0.0001506886882921261</v>
       </c>
       <c r="G35">
-        <v>5.853347965689251e-07</v>
+        <v>4.128138612466521e-07</v>
       </c>
       <c r="H35">
-        <v>0.001865240200549867</v>
+        <v>0.001670443511154456</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0004397113297015349</v>
+        <v>0.0004864899214657394</v>
       </c>
       <c r="C36">
-        <v>0.0006079900807082045</v>
+        <v>0.001120522244519121</v>
       </c>
       <c r="D36">
-        <v>5.982457846759447e-06</v>
+        <v>4.6282614807826e-06</v>
       </c>
       <c r="E36">
-        <v>0.0003256614047874017</v>
+        <v>0.0003900261247965244</v>
       </c>
       <c r="F36">
-        <v>0.0001486405164886704</v>
+        <v>0.0001552278766339314</v>
       </c>
       <c r="G36">
-        <v>4.301756985352787e-07</v>
+        <v>4.681036071719651e-07</v>
       </c>
       <c r="H36">
-        <v>0.001817328171351252</v>
+        <v>0.002120284718871246</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0004372678777323577</v>
+        <v>0.0003366326748245893</v>
       </c>
       <c r="C37">
-        <v>0.0006276458910240912</v>
+        <v>0.0004437862879578161</v>
       </c>
       <c r="D37">
-        <v>4.706537084910521e-06</v>
+        <v>5.018769459709455e-06</v>
       </c>
       <c r="E37">
-        <v>0.0003530970378606889</v>
+        <v>0.0003444125279022667</v>
       </c>
       <c r="F37">
-        <v>0.0001625646602806962</v>
+        <v>0.0001257633038443232</v>
       </c>
       <c r="G37">
-        <v>3.084974649253869e-07</v>
+        <v>5.654562995146074e-07</v>
       </c>
       <c r="H37">
-        <v>0.001700628562711168</v>
+        <v>0.001376681289623181</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.000430360218774526</v>
+        <v>0.0004696100475679274</v>
       </c>
       <c r="C38">
-        <v>0.0005081151050389521</v>
+        <v>0.0006682963767470109</v>
       </c>
       <c r="D38">
-        <v>4.615038136204221e-06</v>
+        <v>5.128253619568065e-06</v>
       </c>
       <c r="E38">
-        <v>0.0003854836092340687</v>
+        <v>0.0003178657816119445</v>
       </c>
       <c r="F38">
-        <v>0.0001382867499177872</v>
+        <v>0.000151984981513352</v>
       </c>
       <c r="G38">
-        <v>7.105374488017217e-07</v>
+        <v>3.924698598405752e-07</v>
       </c>
       <c r="H38">
-        <v>0.001510012828858894</v>
+        <v>0.001797628999963996</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0004326481174357419</v>
+        <v>0.0003990685301845555</v>
       </c>
       <c r="C39">
-        <v>0.0004994517510781727</v>
+        <v>0.0004580290320238708</v>
       </c>
       <c r="D39">
-        <v>5.032889569344999e-06</v>
+        <v>4.573057759352702e-06</v>
       </c>
       <c r="E39">
-        <v>0.000419457853632161</v>
+        <v>0.0002762970289192485</v>
       </c>
       <c r="F39">
-        <v>0.0001576273464984762</v>
+        <v>0.0001349473848628764</v>
       </c>
       <c r="G39">
-        <v>4.702219657161829e-07</v>
+        <v>4.255907282367301e-07</v>
       </c>
       <c r="H39">
-        <v>0.001859183667116955</v>
+        <v>0.001394032933203855</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0004100331650491152</v>
+        <v>0.0004563223226690727</v>
       </c>
       <c r="C40">
-        <v>0.0006182036546768797</v>
+        <v>0.0004478444110729148</v>
       </c>
       <c r="D40">
-        <v>4.448593079113596e-06</v>
+        <v>3.390867164959755e-06</v>
       </c>
       <c r="E40">
-        <v>0.0003404194639294039</v>
+        <v>0.0003187576407369534</v>
       </c>
       <c r="F40">
-        <v>0.0001475831485332556</v>
+        <v>0.0001480542566076572</v>
       </c>
       <c r="G40">
-        <v>4.054477790213566e-07</v>
+        <v>3.602954367286782e-07</v>
       </c>
       <c r="H40">
-        <v>0.001443145445304997</v>
+        <v>0.001709627631662187</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0003717154377877009</v>
+        <v>0.0005244775421843528</v>
       </c>
       <c r="C41">
-        <v>0.0006629818246642508</v>
+        <v>0.0008197770088329251</v>
       </c>
       <c r="D41">
-        <v>4.813341151097467e-06</v>
+        <v>6.098776085088787e-06</v>
       </c>
       <c r="E41">
-        <v>0.0003783658087241926</v>
+        <v>0.0004538017135472234</v>
       </c>
       <c r="F41">
-        <v>0.0001392728539022184</v>
+        <v>0.0001549414573454769</v>
       </c>
       <c r="G41">
-        <v>4.956117159905924e-07</v>
+        <v>4.344422344066749e-07</v>
       </c>
       <c r="H41">
-        <v>0.001549478653680221</v>
+        <v>0.00176302609771973</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0004914389456673723</v>
+        <v>0.0004364162520172387</v>
       </c>
       <c r="C42">
-        <v>0.000726297626347432</v>
+        <v>0.0005259471211897251</v>
       </c>
       <c r="D42">
-        <v>6.721583935789248e-06</v>
+        <v>5.711416945991588e-06</v>
       </c>
       <c r="E42">
-        <v>0.0004140741427422605</v>
+        <v>0.0003622512604668775</v>
       </c>
       <c r="F42">
-        <v>0.0001470753133288946</v>
+        <v>0.000133745982786</v>
       </c>
       <c r="G42">
-        <v>5.561318383626048e-07</v>
+        <v>4.371326653473394e-07</v>
       </c>
       <c r="H42">
-        <v>0.00179589336137773</v>
+        <v>0.00161256051676238</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.000509215820284468</v>
+        <v>0.0004977916670657248</v>
       </c>
       <c r="C43">
-        <v>0.0003886567280008443</v>
+        <v>0.0004855860265507599</v>
       </c>
       <c r="D43">
-        <v>5.110577437212232e-06</v>
+        <v>5.511851596042908e-06</v>
       </c>
       <c r="E43">
-        <v>0.0003876879894901591</v>
+        <v>0.0004085322338762736</v>
       </c>
       <c r="F43">
-        <v>0.0001475299627769224</v>
+        <v>0.0001711984529899787</v>
       </c>
       <c r="G43">
-        <v>4.63484716005141e-07</v>
+        <v>4.719883154405625e-07</v>
       </c>
       <c r="H43">
-        <v>0.001505194110406071</v>
+        <v>0.001992896987299605</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0004717291148064781</v>
+        <v>0.0004295991228917659</v>
       </c>
       <c r="C44">
-        <v>0.000387770895117463</v>
+        <v>0.000623902758597468</v>
       </c>
       <c r="D44">
-        <v>4.59178364087397e-06</v>
+        <v>5.72646903238576e-06</v>
       </c>
       <c r="E44">
-        <v>0.0003980758690199961</v>
+        <v>0.0003761746743588648</v>
       </c>
       <c r="F44">
-        <v>0.0001586993366898955</v>
+        <v>0.0001756738163554076</v>
       </c>
       <c r="G44">
-        <v>5.739861425138425e-07</v>
+        <v>3.605031984290146e-07</v>
       </c>
       <c r="H44">
-        <v>0.001884549209323132</v>
+        <v>0.001919549301282861</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0004150754911144046</v>
+        <v>0.0003863888516132358</v>
       </c>
       <c r="C45">
-        <v>0.0004566949208712795</v>
+        <v>0.0007571175925985553</v>
       </c>
       <c r="D45">
-        <v>4.960421809657379e-06</v>
+        <v>5.007591550878017e-06</v>
       </c>
       <c r="E45">
-        <v>0.0003217034231013936</v>
+        <v>0.0003217920671709906</v>
       </c>
       <c r="F45">
-        <v>0.0001740123984064723</v>
+        <v>0.0001402077056109165</v>
       </c>
       <c r="G45">
-        <v>4.370737482660644e-07</v>
+        <v>5.736161332395484e-07</v>
       </c>
       <c r="H45">
-        <v>0.001926049226047612</v>
+        <v>0.00171492798630871</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.000390454262382523</v>
+        <v>0.0004948705519807167</v>
       </c>
       <c r="C46">
-        <v>0.0003501284830462717</v>
+        <v>0.0004793500962793116</v>
       </c>
       <c r="D46">
-        <v>3.905700216150551e-06</v>
+        <v>5.247834344688308e-06</v>
       </c>
       <c r="E46">
-        <v>0.0004040824794695137</v>
+        <v>0.0003992338730203079</v>
       </c>
       <c r="F46">
-        <v>0.0001202216299608228</v>
+        <v>0.000187925131923187</v>
       </c>
       <c r="G46">
-        <v>3.887296767865423e-07</v>
+        <v>4.146600750642543e-07</v>
       </c>
       <c r="H46">
-        <v>0.001354212588820051</v>
+        <v>0.002373103476488085</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0005069421965141453</v>
+        <v>0.0005176689452168849</v>
       </c>
       <c r="C47">
-        <v>0.0004424646572964707</v>
+        <v>0.0004838389155707576</v>
       </c>
       <c r="D47">
-        <v>4.933402767987094e-06</v>
+        <v>5.353393604950763e-06</v>
       </c>
       <c r="E47">
-        <v>0.0003850508991704651</v>
+        <v>0.0003678786675868634</v>
       </c>
       <c r="F47">
-        <v>0.0001896527246294825</v>
+        <v>0.0001725967412520113</v>
       </c>
       <c r="G47">
-        <v>4.434097630756643e-07</v>
+        <v>3.784152033608018e-07</v>
       </c>
       <c r="H47">
-        <v>0.002039151720456555</v>
+        <v>0.002172836076771355</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0003541456364907174</v>
+        <v>0.000525204454556634</v>
       </c>
       <c r="C48">
-        <v>0.0004114397887618625</v>
+        <v>0.0007156274580086693</v>
       </c>
       <c r="D48">
-        <v>5.096867309556945e-06</v>
+        <v>5.009199898739981e-06</v>
       </c>
       <c r="E48">
-        <v>0.0003668399743574667</v>
+        <v>0.0003818196976214252</v>
       </c>
       <c r="F48">
-        <v>0.0001427950598246987</v>
+        <v>0.000135923633240355</v>
       </c>
       <c r="G48">
-        <v>4.103501707586092e-07</v>
+        <v>4.865756175789502e-07</v>
       </c>
       <c r="H48">
-        <v>0.001652986372002036</v>
+        <v>0.001933464587969414</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0003928325664831062</v>
+        <v>0.0004303350331820662</v>
       </c>
       <c r="C49">
-        <v>0.000477780280732981</v>
+        <v>0.0008954583332729569</v>
       </c>
       <c r="D49">
-        <v>3.83669497444052e-06</v>
+        <v>6.029408275952913e-06</v>
       </c>
       <c r="E49">
-        <v>0.0003371060857866552</v>
+        <v>0.0004317256993142444</v>
       </c>
       <c r="F49">
-        <v>0.0001373659896450877</v>
+        <v>0.0001699474654109415</v>
       </c>
       <c r="G49">
-        <v>4.173367601063279e-07</v>
+        <v>4.119558007915916e-07</v>
       </c>
       <c r="H49">
-        <v>0.001599928739577789</v>
+        <v>0.001897169990080536</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0004491149501057199</v>
+        <v>0.0004994291693689195</v>
       </c>
       <c r="C50">
-        <v>0.0006606121958318385</v>
+        <v>0.0005391545464271696</v>
       </c>
       <c r="D50">
-        <v>7.262094846514021e-06</v>
+        <v>4.56028466773238e-06</v>
       </c>
       <c r="E50">
-        <v>0.0003494274360484901</v>
+        <v>0.0004186457695431696</v>
       </c>
       <c r="F50">
-        <v>0.0001544131312334926</v>
+        <v>0.0001382143380402961</v>
       </c>
       <c r="G50">
-        <v>5.787533186760049e-07</v>
+        <v>5.644028062227761e-07</v>
       </c>
       <c r="H50">
-        <v>0.001577085342517285</v>
+        <v>0.001740568278713863</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.000377781627976395</v>
+        <v>0.000476306787185524</v>
       </c>
       <c r="C51">
-        <v>0.0003841637372932505</v>
+        <v>0.0006318842261592644</v>
       </c>
       <c r="D51">
-        <v>5.190916083473702e-06</v>
+        <v>5.667634434670201e-06</v>
       </c>
       <c r="E51">
-        <v>0.0004095887304664637</v>
+        <v>0.0003154394385922943</v>
       </c>
       <c r="F51">
-        <v>0.0001522174697149817</v>
+        <v>0.0001192067280093938</v>
       </c>
       <c r="G51">
-        <v>6.332655812980502e-07</v>
+        <v>4.400558834147465e-07</v>
       </c>
       <c r="H51">
-        <v>0.001903177691797449</v>
+        <v>0.001394952486057828</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0005450879454212343</v>
+        <v>0.000393601491782562</v>
       </c>
       <c r="C52">
-        <v>0.0002993644519108734</v>
+        <v>0.0004863205467686222</v>
       </c>
       <c r="D52">
-        <v>4.828458626628118e-06</v>
+        <v>5.752751785664054e-06</v>
       </c>
       <c r="E52">
-        <v>0.0003464722028284166</v>
+        <v>0.000359781700057658</v>
       </c>
       <c r="F52">
-        <v>0.0001499709981954425</v>
+        <v>0.0001742667069469498</v>
       </c>
       <c r="G52">
-        <v>4.990604483147062e-07</v>
+        <v>4.2361580276487e-07</v>
       </c>
       <c r="H52">
-        <v>0.001855523919340783</v>
+        <v>0.00197815803251016</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0004659627420053127</v>
+        <v>0.0004940194710832114</v>
       </c>
       <c r="C53">
-        <v>0.001113006585170196</v>
+        <v>0.0006393354746959328</v>
       </c>
       <c r="D53">
-        <v>6.027753803133012e-06</v>
+        <v>5.244624379450643e-06</v>
       </c>
       <c r="E53">
-        <v>0.0004576505867967135</v>
+        <v>0.0003827354397601798</v>
       </c>
       <c r="F53">
-        <v>0.0001582205816148974</v>
+        <v>0.0002089704420696084</v>
       </c>
       <c r="G53">
-        <v>6.293126461725192e-07</v>
+        <v>3.962604676395566e-07</v>
       </c>
       <c r="H53">
-        <v>0.001857395332012318</v>
+        <v>0.002116846636285532</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0003435780404704352</v>
+        <v>0.0004152110644558517</v>
       </c>
       <c r="C54">
-        <v>0.0005013959454388847</v>
+        <v>0.0003361566125925986</v>
       </c>
       <c r="D54">
-        <v>4.638181403928108e-06</v>
+        <v>3.782559484075018e-06</v>
       </c>
       <c r="E54">
-        <v>0.0003381104980166645</v>
+        <v>0.0003467905327680727</v>
       </c>
       <c r="F54">
-        <v>0.0001551608402368501</v>
+        <v>0.0001447198404206967</v>
       </c>
       <c r="G54">
-        <v>5.605826629506775e-07</v>
+        <v>3.261870789450131e-07</v>
       </c>
       <c r="H54">
-        <v>0.001805553793552096</v>
+        <v>0.001621451275502934</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.0003920517640000875</v>
+        <v>0.0004966216908054571</v>
       </c>
       <c r="C55">
-        <v>0.0004835021636969012</v>
+        <v>0.000710176377256609</v>
       </c>
       <c r="D55">
-        <v>5.231877304942536e-06</v>
+        <v>5.358136940685182e-06</v>
       </c>
       <c r="E55">
-        <v>0.0004009982612872221</v>
+        <v>0.0002732530740042589</v>
       </c>
       <c r="F55">
-        <v>0.0001318419861791057</v>
+        <v>0.000132837009205067</v>
       </c>
       <c r="G55">
-        <v>3.974341487534015e-07</v>
+        <v>4.130745976195205e-07</v>
       </c>
       <c r="H55">
-        <v>0.001590011201738732</v>
+        <v>0.001467908594879773</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0006486229059795505</v>
+        <v>0.00037167129194166</v>
       </c>
       <c r="C56">
-        <v>0.0004954457308795564</v>
+        <v>0.0003985377214033278</v>
       </c>
       <c r="D56">
-        <v>6.37998211626328e-06</v>
+        <v>4.593969311294854e-06</v>
       </c>
       <c r="E56">
-        <v>0.0003463699510707461</v>
+        <v>0.0003844785863953144</v>
       </c>
       <c r="F56">
-        <v>0.0001932612190322411</v>
+        <v>9.31926533218695e-05</v>
       </c>
       <c r="G56">
-        <v>6.022525292750601e-07</v>
+        <v>5.668092731566112e-07</v>
       </c>
       <c r="H56">
-        <v>0.002109462005417946</v>
+        <v>0.001183483824780143</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0003700435867543245</v>
+        <v>0.0004307876734541033</v>
       </c>
       <c r="C57">
-        <v>0.000668039371108744</v>
+        <v>0.0003576271680689784</v>
       </c>
       <c r="D57">
-        <v>4.552552977921978e-06</v>
+        <v>4.420280822451693e-06</v>
       </c>
       <c r="E57">
-        <v>0.0003260183542236521</v>
+        <v>0.000326309523735343</v>
       </c>
       <c r="F57">
-        <v>0.0001648036638421159</v>
+        <v>0.000152771914940592</v>
       </c>
       <c r="G57">
-        <v>3.122147066651123e-07</v>
+        <v>3.605148065648626e-07</v>
       </c>
       <c r="H57">
-        <v>0.001775556729371446</v>
+        <v>0.001903539368394928</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0003684070855550712</v>
+        <v>0.0003954530047225415</v>
       </c>
       <c r="C58">
-        <v>0.0006271170471427348</v>
+        <v>0.0004506247926780974</v>
       </c>
       <c r="D58">
-        <v>5.28172153146635e-06</v>
+        <v>4.947252552349436e-06</v>
       </c>
       <c r="E58">
-        <v>0.0004627938996640399</v>
+        <v>0.0003660729488161302</v>
       </c>
       <c r="F58">
-        <v>0.0001334725036670755</v>
+        <v>0.0001305377300438106</v>
       </c>
       <c r="G58">
-        <v>4.230786714956881e-07</v>
+        <v>5.221411225694683e-07</v>
       </c>
       <c r="H58">
-        <v>0.00156937662826061</v>
+        <v>0.001660469871298449</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0005320927115648888</v>
+        <v>0.0005530647849321922</v>
       </c>
       <c r="C59">
-        <v>0.0009256773212606871</v>
+        <v>0.0005541184177555842</v>
       </c>
       <c r="D59">
-        <v>6.514044245049881e-06</v>
+        <v>5.495035806158039e-06</v>
       </c>
       <c r="E59">
-        <v>0.0003333345098265946</v>
+        <v>0.0003282072178334139</v>
       </c>
       <c r="F59">
-        <v>0.0001534117478144219</v>
+        <v>0.0001893817760760179</v>
       </c>
       <c r="G59">
-        <v>3.49396199195409e-07</v>
+        <v>5.15609508105394e-07</v>
       </c>
       <c r="H59">
-        <v>0.001863474898836253</v>
+        <v>0.002417537435567775</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0004474805856626758</v>
+        <v>0.0003386600468152188</v>
       </c>
       <c r="C60">
-        <v>0.0006116333892235847</v>
+        <v>0.0005044266843081167</v>
       </c>
       <c r="D60">
-        <v>4.888192966452043e-06</v>
+        <v>4.090856915058055e-06</v>
       </c>
       <c r="E60">
-        <v>0.0003376103721829489</v>
+        <v>0.00043490229406436</v>
       </c>
       <c r="F60">
-        <v>0.0001880501337945937</v>
+        <v>0.0001555638267077259</v>
       </c>
       <c r="G60">
-        <v>4.076863859246972e-07</v>
+        <v>4.61896590311338e-07</v>
       </c>
       <c r="H60">
-        <v>0.002088058528198565</v>
+        <v>0.001784901322457097</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.0003682095859807527</v>
+        <v>0.0005220369229998346</v>
       </c>
       <c r="C61">
-        <v>0.0003763975827151045</v>
+        <v>0.0009203075115117709</v>
       </c>
       <c r="D61">
-        <v>3.757365948894083e-06</v>
+        <v>4.956681860084349e-06</v>
       </c>
       <c r="E61">
-        <v>0.0003253479725512171</v>
+        <v>0.0003290491546518689</v>
       </c>
       <c r="F61">
-        <v>0.0001353448821967081</v>
+        <v>0.000166415515034574</v>
       </c>
       <c r="G61">
-        <v>3.174685213949588e-07</v>
+        <v>4.814200425863967e-07</v>
       </c>
       <c r="H61">
-        <v>0.001438368257035546</v>
+        <v>0.001767629867577607</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0003986561706845362</v>
+        <v>0.0006128947363060687</v>
       </c>
       <c r="C62">
-        <v>0.0003185520933873829</v>
+        <v>0.000787701587693003</v>
       </c>
       <c r="D62">
-        <v>3.645658934939974e-06</v>
+        <v>8.497680909447388e-06</v>
       </c>
       <c r="E62">
-        <v>0.0002799418497002441</v>
+        <v>0.0003731232544822429</v>
       </c>
       <c r="F62">
-        <v>0.000118180820484936</v>
+        <v>0.0001527171346300405</v>
       </c>
       <c r="G62">
-        <v>5.336805879421585e-07</v>
+        <v>6.474829770237054e-07</v>
       </c>
       <c r="H62">
-        <v>0.001573903923333209</v>
+        <v>0.001772860706407606</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0003724509193619011</v>
+        <v>0.0004815052057592647</v>
       </c>
       <c r="C63">
-        <v>0.0005938223982131084</v>
+        <v>0.0004427061665574529</v>
       </c>
       <c r="D63">
-        <v>4.68840237982899e-06</v>
+        <v>4.329878158506092e-06</v>
       </c>
       <c r="E63">
-        <v>0.0003129085167474535</v>
+        <v>0.0003568111796583827</v>
       </c>
       <c r="F63">
-        <v>0.00015270356899012</v>
+        <v>0.0001396595068194131</v>
       </c>
       <c r="G63">
-        <v>3.623536577877853e-07</v>
+        <v>5.240678543378504e-07</v>
       </c>
       <c r="H63">
-        <v>0.001755597687328082</v>
+        <v>0.001738520184726136</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0004193949428458866</v>
+        <v>0.0005520787215842601</v>
       </c>
       <c r="C64">
-        <v>0.0007372497515018108</v>
+        <v>0.0008265502161891082</v>
       </c>
       <c r="D64">
-        <v>4.780204299269585e-06</v>
+        <v>4.70869983347583e-06</v>
       </c>
       <c r="E64">
-        <v>0.0003423145388643196</v>
+        <v>0.0003963558501303214</v>
       </c>
       <c r="F64">
-        <v>0.0001761186485009642</v>
+        <v>0.0001964543526000811</v>
       </c>
       <c r="G64">
-        <v>5.012233213267959e-07</v>
+        <v>5.530793331228205e-07</v>
       </c>
       <c r="H64">
-        <v>0.00199940192897995</v>
+        <v>0.002241823243994248</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.000449654409926227</v>
+        <v>0.0004109890251075256</v>
       </c>
       <c r="C65">
-        <v>0.0004277540979930819</v>
+        <v>0.0005719601820096073</v>
       </c>
       <c r="D65">
-        <v>6.060427749557753e-06</v>
+        <v>4.366543620509477e-06</v>
       </c>
       <c r="E65">
-        <v>0.0003783667805364361</v>
+        <v>0.000308978413934236</v>
       </c>
       <c r="F65">
-        <v>0.0001493449847633158</v>
+        <v>0.0001239302413019404</v>
       </c>
       <c r="G65">
-        <v>4.685815934440415e-07</v>
+        <v>4.079784603446074e-07</v>
       </c>
       <c r="H65">
-        <v>0.002126797367123821</v>
+        <v>0.001623012025257443</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.0003475991801680664</v>
+        <v>0.0004723001422505262</v>
       </c>
       <c r="C66">
-        <v>0.0004915707547457531</v>
+        <v>0.000518497273379161</v>
       </c>
       <c r="D66">
-        <v>4.424495582597079e-06</v>
+        <v>5.17446482669888e-06</v>
       </c>
       <c r="E66">
-        <v>0.000312649096780325</v>
+        <v>0.0003868465988881595</v>
       </c>
       <c r="F66">
-        <v>0.0001258072334583126</v>
+        <v>0.0001867328899884573</v>
       </c>
       <c r="G66">
-        <v>5.572809502952737e-07</v>
+        <v>4.384232385073549e-07</v>
       </c>
       <c r="H66">
-        <v>0.001504037656872504</v>
+        <v>0.001894586614244285</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0004507878652653104</v>
+        <v>0.0004759939858463522</v>
       </c>
       <c r="C67">
-        <v>0.0006156281389673214</v>
+        <v>0.0004743693288059543</v>
       </c>
       <c r="D67">
-        <v>3.787843620777972e-06</v>
+        <v>6.347510254153398e-06</v>
       </c>
       <c r="E67">
-        <v>0.0004207753737434629</v>
+        <v>0.000361357481242388</v>
       </c>
       <c r="F67">
-        <v>0.0001542464851619123</v>
+        <v>0.0001646727800906714</v>
       </c>
       <c r="G67">
-        <v>5.236823008171135e-07</v>
+        <v>4.657317172798717e-07</v>
       </c>
       <c r="H67">
-        <v>0.00162452219150947</v>
+        <v>0.002059669908430644</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.000343531193635613</v>
+        <v>0.0004722911085505043</v>
       </c>
       <c r="C68">
-        <v>0.0004601036598728907</v>
+        <v>0.0006359397361023194</v>
       </c>
       <c r="D68">
-        <v>4.894513938857347e-06</v>
+        <v>5.333708814493486e-06</v>
       </c>
       <c r="E68">
-        <v>0.0004282950234279369</v>
+        <v>0.0003421823358925869</v>
       </c>
       <c r="F68">
-        <v>0.0001301238332620937</v>
+        <v>0.0001526517163935709</v>
       </c>
       <c r="G68">
-        <v>4.546461558868047e-07</v>
+        <v>4.138888308866208e-07</v>
       </c>
       <c r="H68">
-        <v>0.001396269177621967</v>
+        <v>0.00159577845514281</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0004022457560355955</v>
+        <v>0.0004024967595128862</v>
       </c>
       <c r="C69">
-        <v>0.0005621116385674663</v>
+        <v>0.0003263170122940216</v>
       </c>
       <c r="D69">
-        <v>4.940911283315453e-06</v>
+        <v>4.460968973116976e-06</v>
       </c>
       <c r="E69">
-        <v>0.0004674452770552843</v>
+        <v>0.0003903018483936958</v>
       </c>
       <c r="F69">
-        <v>0.000149314107526258</v>
+        <v>0.0001135145021916078</v>
       </c>
       <c r="G69">
-        <v>4.814140716485635e-07</v>
+        <v>3.54252872986957e-07</v>
       </c>
       <c r="H69">
-        <v>0.001864533555167454</v>
+        <v>0.001323825613480345</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.000401888529580379</v>
+        <v>0.0004851384480450415</v>
       </c>
       <c r="C70">
-        <v>0.0006412845751610957</v>
+        <v>0.0003863950282147326</v>
       </c>
       <c r="D70">
-        <v>5.106856284587862e-06</v>
+        <v>4.60400337566664e-06</v>
       </c>
       <c r="E70">
-        <v>0.0003698611040993083</v>
+        <v>0.0003491999573858927</v>
       </c>
       <c r="F70">
-        <v>0.0001483743672392101</v>
+        <v>0.0001490673652627867</v>
       </c>
       <c r="G70">
-        <v>4.600598836354722e-07</v>
+        <v>4.920678558379168e-07</v>
       </c>
       <c r="H70">
-        <v>0.001696428257231629</v>
+        <v>0.001935221318780998</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0003257736871519014</v>
+        <v>0.0003178518387512282</v>
       </c>
       <c r="C71">
-        <v>0.0004493811280842322</v>
+        <v>0.0006388866892700898</v>
       </c>
       <c r="D71">
-        <v>3.806324816714507e-06</v>
+        <v>4.069067329387884e-06</v>
       </c>
       <c r="E71">
-        <v>0.0002789418811981143</v>
+        <v>0.0003982470281691806</v>
       </c>
       <c r="F71">
-        <v>0.0001340925511869175</v>
+        <v>0.0001273484988135869</v>
       </c>
       <c r="G71">
-        <v>4.277431686304774e-07</v>
+        <v>4.840572945427218e-07</v>
       </c>
       <c r="H71">
-        <v>0.001521189103940988</v>
+        <v>0.0012759259170147</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0003971300889791415</v>
+        <v>0.0003496063120829518</v>
       </c>
       <c r="C72">
-        <v>0.00044759197438313</v>
+        <v>0.0004516778837993045</v>
       </c>
       <c r="D72">
-        <v>4.76203722854418e-06</v>
+        <v>3.88265988455027e-06</v>
       </c>
       <c r="E72">
-        <v>0.0003613646738730648</v>
+        <v>0.000358690541668072</v>
       </c>
       <c r="F72">
-        <v>0.00012224362362091</v>
+        <v>0.0001390939795801097</v>
       </c>
       <c r="G72">
-        <v>4.938506368226197e-07</v>
+        <v>3.917319362709933e-07</v>
       </c>
       <c r="H72">
-        <v>0.001359885282341622</v>
+        <v>0.001555640322588582</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0004997300013550569</v>
+        <v>0.0003686860912510339</v>
       </c>
       <c r="C73">
-        <v>0.0004765367426953865</v>
+        <v>0.0004008664660965005</v>
       </c>
       <c r="D73">
-        <v>6.070808634017256e-06</v>
+        <v>4.351701448395641e-06</v>
       </c>
       <c r="E73">
-        <v>0.0003292243112080172</v>
+        <v>0.000267151603724099</v>
       </c>
       <c r="F73">
-        <v>0.0001468637966631431</v>
+        <v>0.0001726709339848829</v>
       </c>
       <c r="G73">
-        <v>4.040032649615454e-07</v>
+        <v>4.135906022930802e-07</v>
       </c>
       <c r="H73">
-        <v>0.001712500249201311</v>
+        <v>0.001874264712029646</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0004133961780122095</v>
+        <v>0.0003713564774072266</v>
       </c>
       <c r="C74">
-        <v>0.0004271957372858495</v>
+        <v>0.0003335714190077355</v>
       </c>
       <c r="D74">
-        <v>4.850761083872975e-06</v>
+        <v>3.993757014889778e-06</v>
       </c>
       <c r="E74">
-        <v>0.0004001743840164772</v>
+        <v>0.0003491889693306343</v>
       </c>
       <c r="F74">
-        <v>0.0001427208237309698</v>
+        <v>0.0001405113137885616</v>
       </c>
       <c r="G74">
-        <v>6.284117315313943e-07</v>
+        <v>2.2268726096384e-07</v>
       </c>
       <c r="H74">
-        <v>0.001683405141065187</v>
+        <v>0.00160531298468476</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0004876253573421439</v>
+        <v>0.0003379032852701788</v>
       </c>
       <c r="C75">
-        <v>0.0004452034396110359</v>
+        <v>0.000374567128099571</v>
       </c>
       <c r="D75">
-        <v>4.595404428376568e-06</v>
+        <v>4.276824682563467e-06</v>
       </c>
       <c r="E75">
-        <v>0.0004146808204595467</v>
+        <v>0.0003726062245331853</v>
       </c>
       <c r="F75">
-        <v>0.0001487506182997165</v>
+        <v>0.000121345435220189</v>
       </c>
       <c r="G75">
-        <v>4.812300826331244e-07</v>
+        <v>5.533945359964708e-07</v>
       </c>
       <c r="H75">
-        <v>0.0017717784957605</v>
+        <v>0.001409446575110232</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.000410764685512184</v>
+        <v>0.0003302378832714767</v>
       </c>
       <c r="C76">
-        <v>0.0003035300562055353</v>
+        <v>0.0004137647764802554</v>
       </c>
       <c r="D76">
-        <v>4.242777558813278e-06</v>
+        <v>3.668767954640232e-06</v>
       </c>
       <c r="E76">
-        <v>0.000378852307694108</v>
+        <v>0.0003552929514548883</v>
       </c>
       <c r="F76">
-        <v>0.0001539335707089957</v>
+        <v>0.0001282777452820465</v>
       </c>
       <c r="G76">
-        <v>4.500422939884996e-07</v>
+        <v>3.237312623630548e-07</v>
       </c>
       <c r="H76">
-        <v>0.0016725539573675</v>
+        <v>0.001500340951011471</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.000473188271102614</v>
+        <v>0.0005203318349406169</v>
       </c>
       <c r="C77">
-        <v>0.0004265117320907303</v>
+        <v>0.0004030917352196278</v>
       </c>
       <c r="D77">
-        <v>4.927238863192011e-06</v>
+        <v>5.063168864363052e-06</v>
       </c>
       <c r="E77">
-        <v>0.0003665326928656092</v>
+        <v>0.000352377176444066</v>
       </c>
       <c r="F77">
-        <v>0.0001771111922112931</v>
+        <v>0.0001990643409629973</v>
       </c>
       <c r="G77">
-        <v>4.624493207563965e-07</v>
+        <v>3.926043645249744e-07</v>
       </c>
       <c r="H77">
-        <v>0.001939677825435924</v>
+        <v>0.002119134799591486</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0004748180254871722</v>
+        <v>0.0004150892209267706</v>
       </c>
       <c r="C78">
-        <v>0.0006597756021421569</v>
+        <v>0.0005477911084138531</v>
       </c>
       <c r="D78">
-        <v>4.372984995160477e-06</v>
+        <v>4.618405631481932e-06</v>
       </c>
       <c r="E78">
-        <v>0.0004115061732315246</v>
+        <v>0.0003226208665779781</v>
       </c>
       <c r="F78">
-        <v>0.0001858089713286491</v>
+        <v>0.0001732256481526519</v>
       </c>
       <c r="G78">
-        <v>4.157031183051581e-07</v>
+        <v>4.089937137699853e-07</v>
       </c>
       <c r="H78">
-        <v>0.002222753273172603</v>
+        <v>0.002115066046040175</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0006295354808357956</v>
+        <v>0.0002919264616958791</v>
       </c>
       <c r="C79">
-        <v>0.0006548627207222374</v>
+        <v>0.0004452050129206399</v>
       </c>
       <c r="D79">
-        <v>5.549376365545352e-06</v>
+        <v>4.418930896820763e-06</v>
       </c>
       <c r="E79">
-        <v>0.0004188528677711729</v>
+        <v>0.000329747088268571</v>
       </c>
       <c r="F79">
-        <v>0.0002752761218519607</v>
+        <v>0.0001089787627119552</v>
       </c>
       <c r="G79">
-        <v>5.175558591608822e-07</v>
+        <v>3.21747576742754e-07</v>
       </c>
       <c r="H79">
-        <v>0.003078267852472375</v>
+        <v>0.001288235752898484</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0004766409030766197</v>
+        <v>0.0004363036642549696</v>
       </c>
       <c r="C80">
-        <v>0.0005693514733574759</v>
+        <v>0.001267641482303258</v>
       </c>
       <c r="D80">
-        <v>4.41800357889818e-06</v>
+        <v>4.328115567209347e-06</v>
       </c>
       <c r="E80">
-        <v>0.0003584961240541283</v>
+        <v>0.0004598057171899316</v>
       </c>
       <c r="F80">
-        <v>0.0001405477497338668</v>
+        <v>0.0001695582544385019</v>
       </c>
       <c r="G80">
-        <v>3.861759647292248e-07</v>
+        <v>3.504613781953488e-07</v>
       </c>
       <c r="H80">
-        <v>0.001626806033489553</v>
+        <v>0.002005464423474985</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.0004649291672493456</v>
+        <v>0.000411873479273732</v>
       </c>
       <c r="C81">
-        <v>0.0005299063516659857</v>
+        <v>0.0008679031970013651</v>
       </c>
       <c r="D81">
-        <v>4.724592023138626e-06</v>
+        <v>5.224288211844282e-06</v>
       </c>
       <c r="E81">
-        <v>0.0003345691711018281</v>
+        <v>0.0003788690701472149</v>
       </c>
       <c r="F81">
-        <v>0.0001448720071009653</v>
+        <v>0.0001645469135466081</v>
       </c>
       <c r="G81">
-        <v>2.973884056957082e-07</v>
+        <v>4.727233916915027e-07</v>
       </c>
       <c r="H81">
-        <v>0.001570694969137237</v>
+        <v>0.001715112652648943</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0004144694911158314</v>
+        <v>0.0003821388870998632</v>
       </c>
       <c r="C82">
-        <v>0.0008826972431497716</v>
+        <v>0.0003913328313026827</v>
       </c>
       <c r="D82">
-        <v>4.876482695022791e-06</v>
+        <v>3.770045924403863e-06</v>
       </c>
       <c r="E82">
-        <v>0.0004005766985959622</v>
+        <v>0.0003565170017952346</v>
       </c>
       <c r="F82">
-        <v>0.0001487132502632069</v>
+        <v>0.0001477356271926701</v>
       </c>
       <c r="G82">
-        <v>4.984008928841239e-07</v>
+        <v>3.662590149579504e-07</v>
       </c>
       <c r="H82">
-        <v>0.001537129520849869</v>
+        <v>0.001705602930961567</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0003852396481588</v>
+        <v>0.0003990045498453118</v>
       </c>
       <c r="C83">
-        <v>0.0008681394314929662</v>
+        <v>0.0007589312058993032</v>
       </c>
       <c r="D83">
-        <v>3.618944794955037e-06</v>
+        <v>4.634421362615126e-06</v>
       </c>
       <c r="E83">
-        <v>0.0003755770292341486</v>
+        <v>0.0004161510130911973</v>
       </c>
       <c r="F83">
-        <v>0.0001498677645450714</v>
+        <v>0.0001598945168358288</v>
       </c>
       <c r="G83">
-        <v>4.808404278512753e-07</v>
+        <v>5.515337385998741e-07</v>
       </c>
       <c r="H83">
-        <v>0.00167526770255094</v>
+        <v>0.002017450196377413</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0004255840568432001</v>
+        <v>0.0004313545735153306</v>
       </c>
       <c r="C84">
-        <v>0.0005249281956474209</v>
+        <v>0.0004291180122408026</v>
       </c>
       <c r="D84">
-        <v>4.186255588930209e-06</v>
+        <v>6.002898818004608e-06</v>
       </c>
       <c r="E84">
-        <v>0.0004052602322489939</v>
+        <v>0.000344814728873287</v>
       </c>
       <c r="F84">
-        <v>0.0001583069032784071</v>
+        <v>0.0001336264445880662</v>
       </c>
       <c r="G84">
-        <v>4.597908503470651e-07</v>
+        <v>4.546951433892209e-07</v>
       </c>
       <c r="H84">
-        <v>0.001938058137168973</v>
+        <v>0.001579787417031553</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0006375555839630821</v>
+        <v>0.0005094121288301617</v>
       </c>
       <c r="C85">
-        <v>0.0006699670129192899</v>
+        <v>0.000646888075433206</v>
       </c>
       <c r="D85">
-        <v>6.003575619161897e-06</v>
+        <v>4.572931019672195e-06</v>
       </c>
       <c r="E85">
-        <v>0.0004106073307757799</v>
+        <v>0.000377757594019314</v>
       </c>
       <c r="F85">
-        <v>0.0001617222210030709</v>
+        <v>0.0001826627383573985</v>
       </c>
       <c r="G85">
-        <v>1.018802888188247e-06</v>
+        <v>6.407930638614379e-07</v>
       </c>
       <c r="H85">
-        <v>0.001941370323676609</v>
+        <v>0.002005907430228121</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0003215135601809526</v>
+        <v>0.0004222207246096948</v>
       </c>
       <c r="C86">
-        <v>0.0005343248477205761</v>
+        <v>0.0003642381755942713</v>
       </c>
       <c r="D86">
-        <v>5.909444088219111e-06</v>
+        <v>4.336612048664921e-06</v>
       </c>
       <c r="E86">
-        <v>0.0003482229248828923</v>
+        <v>0.0003106880138604582</v>
       </c>
       <c r="F86">
-        <v>0.0001661134290527301</v>
+        <v>0.0001463331638766296</v>
       </c>
       <c r="G86">
-        <v>4.124938165901712e-07</v>
+        <v>3.793901642141612e-07</v>
       </c>
       <c r="H86">
-        <v>0.001817119624886311</v>
+        <v>0.001815026900533698</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0003653687392751676</v>
+        <v>0.0004772362525148937</v>
       </c>
       <c r="C87">
-        <v>0.0004521270905515177</v>
+        <v>0.0005641727078527584</v>
       </c>
       <c r="D87">
-        <v>5.713226196732828e-06</v>
+        <v>5.039001357561014e-06</v>
       </c>
       <c r="E87">
-        <v>0.0003554897922430015</v>
+        <v>0.0003189869024132176</v>
       </c>
       <c r="F87">
-        <v>0.000161118042285307</v>
+        <v>0.0001616064940803373</v>
       </c>
       <c r="G87">
-        <v>4.43721888073169e-07</v>
+        <v>5.598421508601789e-07</v>
       </c>
       <c r="H87">
-        <v>0.00164845360259266</v>
+        <v>0.002013095159326444</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0003684860999474096</v>
+        <v>0.0003507193883337197</v>
       </c>
       <c r="C88">
-        <v>0.0007260350856862971</v>
+        <v>0.0005669043114476479</v>
       </c>
       <c r="D88">
-        <v>4.78104483762277e-06</v>
+        <v>4.215198897170814e-06</v>
       </c>
       <c r="E88">
-        <v>0.0003104665867511166</v>
+        <v>0.0003683207823599653</v>
       </c>
       <c r="F88">
-        <v>0.0001211673546770803</v>
+        <v>0.0001539353082004195</v>
       </c>
       <c r="G88">
-        <v>3.663856377962851e-07</v>
+        <v>4.688199864988128e-07</v>
       </c>
       <c r="H88">
-        <v>0.001356717256819812</v>
+        <v>0.001749916718722784</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.000347312126239015</v>
+        <v>0.0003992661517449405</v>
       </c>
       <c r="C89">
-        <v>0.0004174139553806595</v>
+        <v>0.0003785663281470409</v>
       </c>
       <c r="D89">
-        <v>4.484178326792437e-06</v>
+        <v>4.135762869197583e-06</v>
       </c>
       <c r="E89">
-        <v>0.0004050888619927385</v>
+        <v>0.0003478007450824161</v>
       </c>
       <c r="F89">
-        <v>0.000136935388743778</v>
+        <v>0.0001713481005945641</v>
       </c>
       <c r="G89">
-        <v>5.137115724292385e-07</v>
+        <v>4.733164034527006e-07</v>
       </c>
       <c r="H89">
-        <v>0.001452463851930878</v>
+        <v>0.00178570546273417</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0004472482985433253</v>
+        <v>0.0004359139024215153</v>
       </c>
       <c r="C90">
-        <v>0.0004304400535474409</v>
+        <v>0.0005833187126860698</v>
       </c>
       <c r="D90">
-        <v>6.008192363563501e-06</v>
+        <v>5.549643258645011e-06</v>
       </c>
       <c r="E90">
-        <v>0.0003095609657621864</v>
+        <v>0.00034581238757702</v>
       </c>
       <c r="F90">
-        <v>0.0001587052899435477</v>
+        <v>0.0001485956735196298</v>
       </c>
       <c r="G90">
-        <v>5.147314823392368e-07</v>
+        <v>4.545056023737771e-07</v>
       </c>
       <c r="H90">
-        <v>0.001742675742324323</v>
+        <v>0.00157728649336655</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0003615110887109649</v>
+        <v>0.0004356241350992229</v>
       </c>
       <c r="C91">
-        <v>0.0006587436728413996</v>
+        <v>0.0006794036836974039</v>
       </c>
       <c r="D91">
-        <v>5.909334488664653e-06</v>
+        <v>4.401243781016258e-06</v>
       </c>
       <c r="E91">
-        <v>0.0003212860332807534</v>
+        <v>0.0004060034806937664</v>
       </c>
       <c r="F91">
-        <v>0.000152397331987728</v>
+        <v>0.0001687285818532482</v>
       </c>
       <c r="G91">
-        <v>4.857918580763266e-07</v>
+        <v>4.489877679612818e-07</v>
       </c>
       <c r="H91">
-        <v>0.001691191017905598</v>
+        <v>0.001755039910034404</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0003022049527977247</v>
+        <v>0.0004190233773539716</v>
       </c>
       <c r="C92">
-        <v>0.0003421499491982857</v>
+        <v>0.0004651875182974422</v>
       </c>
       <c r="D92">
-        <v>3.748467756473628e-06</v>
+        <v>4.389381948954632e-06</v>
       </c>
       <c r="E92">
-        <v>0.0003620395251387659</v>
+        <v>0.0004499669626389555</v>
       </c>
       <c r="F92">
-        <v>0.0001477897983289004</v>
+        <v>0.0001826139383183314</v>
       </c>
       <c r="G92">
-        <v>4.975511272918013e-07</v>
+        <v>5.432137216483219e-07</v>
       </c>
       <c r="H92">
-        <v>0.001568220008067228</v>
+        <v>0.0019620773973168</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0003444993357191281</v>
+        <v>0.0004115618896204717</v>
       </c>
       <c r="C93">
-        <v>0.0004576563155594039</v>
+        <v>0.0005977244492808356</v>
       </c>
       <c r="D93">
-        <v>5.122920816419455e-06</v>
+        <v>5.629624033498997e-06</v>
       </c>
       <c r="E93">
-        <v>0.0002531752508929842</v>
+        <v>0.0003805225629426684</v>
       </c>
       <c r="F93">
-        <v>0.0001331144360237302</v>
+        <v>0.0001432315543093954</v>
       </c>
       <c r="G93">
-        <v>3.983675894761021e-07</v>
+        <v>4.498616624833488e-07</v>
       </c>
       <c r="H93">
-        <v>0.00155866160391734</v>
+        <v>0.001593833070353861</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0003442860341911467</v>
+        <v>0.0004526098155807548</v>
       </c>
       <c r="C94">
-        <v>0.0008026048834599309</v>
+        <v>0.0004580206812580327</v>
       </c>
       <c r="D94">
-        <v>4.886004057216524e-06</v>
+        <v>4.261151990273885e-06</v>
       </c>
       <c r="E94">
-        <v>0.0004108497041095533</v>
+        <v>0.0003019518418930162</v>
       </c>
       <c r="F94">
-        <v>0.0001633211273061588</v>
+        <v>0.0001329196073602749</v>
       </c>
       <c r="G94">
-        <v>6.105741478093222e-07</v>
+        <v>5.025013601820272e-07</v>
       </c>
       <c r="H94">
-        <v>0.001772879896920849</v>
+        <v>0.001662488526012171</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.0004971029526598506</v>
+        <v>0.0004169278088938137</v>
       </c>
       <c r="C95">
-        <v>0.0008956444712944583</v>
+        <v>0.0005348677387277167</v>
       </c>
       <c r="D95">
-        <v>4.554467402163812e-06</v>
+        <v>4.628664967958722e-06</v>
       </c>
       <c r="E95">
-        <v>0.0004007018897771166</v>
+        <v>0.0003873155480210907</v>
       </c>
       <c r="F95">
-        <v>0.0001684805098163708</v>
+        <v>0.0001487309965725242</v>
       </c>
       <c r="G95">
-        <v>3.981071752851912e-07</v>
+        <v>2.994423107835992e-07</v>
       </c>
       <c r="H95">
-        <v>0.001980188007462021</v>
+        <v>0.001724789557134634</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0004821211820297887</v>
+        <v>0.0003471554154234026</v>
       </c>
       <c r="C96">
-        <v>0.0004562219182431957</v>
+        <v>0.0005861912519525937</v>
       </c>
       <c r="D96">
-        <v>5.192336540856207e-06</v>
+        <v>4.664479056332665e-06</v>
       </c>
       <c r="E96">
-        <v>0.0004450838856381796</v>
+        <v>0.0004196672456829621</v>
       </c>
       <c r="F96">
-        <v>0.0001573158685407299</v>
+        <v>0.0001351933407662479</v>
       </c>
       <c r="G96">
-        <v>4.099792733113445e-07</v>
+        <v>3.360093160897454e-07</v>
       </c>
       <c r="H96">
-        <v>0.001868534733315887</v>
+        <v>0.001534563003667228</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.0004652414642024044</v>
+        <v>0.0004835654652432431</v>
       </c>
       <c r="C97">
-        <v>0.0003570647930192512</v>
+        <v>0.0004837352244039652</v>
       </c>
       <c r="D97">
-        <v>4.695191805929164e-06</v>
+        <v>4.137843602682348e-06</v>
       </c>
       <c r="E97">
-        <v>0.0003179443370597288</v>
+        <v>0.0003538582391384645</v>
       </c>
       <c r="F97">
-        <v>0.0001509979878952167</v>
+        <v>0.0001374250250975276</v>
       </c>
       <c r="G97">
-        <v>4.273801119218431e-07</v>
+        <v>4.955795468478447e-07</v>
       </c>
       <c r="H97">
-        <v>0.001738050965886505</v>
+        <v>0.001598278262953075</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0005178401199474656</v>
+        <v>0.0005720998567353537</v>
       </c>
       <c r="C98">
-        <v>0.0003668218321709368</v>
+        <v>0.0005354861002448601</v>
       </c>
       <c r="D98">
-        <v>5.037383224388313e-06</v>
+        <v>5.45736058450096e-06</v>
       </c>
       <c r="E98">
-        <v>0.0003281459635370831</v>
+        <v>0.0003368892655589578</v>
       </c>
       <c r="F98">
-        <v>0.0001083163115687126</v>
+        <v>0.0001346242952910551</v>
       </c>
       <c r="G98">
-        <v>3.948388544670581e-07</v>
+        <v>4.856948158696498e-07</v>
       </c>
       <c r="H98">
-        <v>0.001419255553046843</v>
+        <v>0.001804672929984294</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.000436583278447293</v>
+        <v>0.0004900254877700954</v>
       </c>
       <c r="C99">
-        <v>0.0007868248917341216</v>
+        <v>0.0003846678114561793</v>
       </c>
       <c r="D99">
-        <v>5.711744015006979e-06</v>
+        <v>4.764191100085039e-06</v>
       </c>
       <c r="E99">
-        <v>0.0004392428744555767</v>
+        <v>0.0003253991188206164</v>
       </c>
       <c r="F99">
-        <v>0.0001960289000316529</v>
+        <v>0.0001509353320492812</v>
       </c>
       <c r="G99">
-        <v>5.118165896629023e-07</v>
+        <v>4.800601109139713e-07</v>
       </c>
       <c r="H99">
-        <v>0.002018778021882705</v>
+        <v>0.001793099564723508</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0004064932902395592</v>
+        <v>0.0003692022570541941</v>
       </c>
       <c r="C100">
-        <v>0.0004037948094113676</v>
+        <v>0.0003249292549706165</v>
       </c>
       <c r="D100">
-        <v>5.587461829245232e-06</v>
+        <v>4.635404911662466e-06</v>
       </c>
       <c r="E100">
-        <v>0.0003484051379990521</v>
+        <v>0.0003360193047833336</v>
       </c>
       <c r="F100">
-        <v>0.0001392058988510946</v>
+        <v>0.0001776588017715933</v>
       </c>
       <c r="G100">
-        <v>5.691454597041068e-07</v>
+        <v>3.349972673197925e-07</v>
       </c>
       <c r="H100">
-        <v>0.001576316701338685</v>
+        <v>0.001854918321540455</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0005606876894694992</v>
+        <v>0.0004759078867530073</v>
       </c>
       <c r="C101">
-        <v>0.0004637419999510366</v>
+        <v>0.0004395907330060943</v>
       </c>
       <c r="D101">
-        <v>6.880908154110399e-06</v>
+        <v>7.305775056352754e-06</v>
       </c>
       <c r="E101">
-        <v>0.0003760574652680478</v>
+        <v>0.0003906492219697625</v>
       </c>
       <c r="F101">
-        <v>0.0001633488091266807</v>
+        <v>0.0001551517162432721</v>
       </c>
       <c r="G101">
-        <v>4.287573671932285e-07</v>
+        <v>6.154475736440855e-07</v>
       </c>
       <c r="H101">
-        <v>0.002149659225274652</v>
+        <v>0.001803521510670611</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0003194344426521127</v>
+        <v>0.0004301497086778874</v>
       </c>
       <c r="C102">
-        <v>0.0004500231695652822</v>
+        <v>0.0005938960857537713</v>
       </c>
       <c r="D102">
-        <v>4.784983775441177e-06</v>
+        <v>6.000350266074553e-06</v>
       </c>
       <c r="E102">
-        <v>0.0003641785325880015</v>
+        <v>0.0004470233472822618</v>
       </c>
       <c r="F102">
-        <v>0.0001092890016953772</v>
+        <v>0.0001896330746725375</v>
       </c>
       <c r="G102">
-        <v>4.06979613773708e-07</v>
+        <v>5.319312963005597e-07</v>
       </c>
       <c r="H102">
-        <v>0.001261235610310042</v>
+        <v>0.002164537127319401</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0003207199361941031</v>
+        <v>0.000419353640899689</v>
       </c>
       <c r="C103">
-        <v>0.0003775278649187978</v>
+        <v>0.0004315802312829677</v>
       </c>
       <c r="D103">
-        <v>3.784604955300637e-06</v>
+        <v>4.107625139197198e-06</v>
       </c>
       <c r="E103">
-        <v>0.0004387967818879106</v>
+        <v>0.0004036849561734271</v>
       </c>
       <c r="F103">
-        <v>0.0001375325446031767</v>
+        <v>0.0001491888119469602</v>
       </c>
       <c r="G103">
-        <v>3.121847665424014e-07</v>
+        <v>4.631780779879457e-07</v>
       </c>
       <c r="H103">
-        <v>0.001510036673999896</v>
+        <v>0.001732916359147618</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.0003520170330043813</v>
+        <v>0.0005302185259463178</v>
       </c>
       <c r="C104">
-        <v>0.0006477807640978135</v>
+        <v>0.0005629060569505451</v>
       </c>
       <c r="D104">
-        <v>4.735328584637153e-06</v>
+        <v>6.57827490202043e-06</v>
       </c>
       <c r="E104">
-        <v>0.0004467340583060663</v>
+        <v>0.0004205213941366819</v>
       </c>
       <c r="F104">
-        <v>0.0001888976630953454</v>
+        <v>0.0001709051292308282</v>
       </c>
       <c r="G104">
-        <v>3.674158247995469e-07</v>
+        <v>7.016328075021151e-07</v>
       </c>
       <c r="H104">
-        <v>0.00209771576934878</v>
+        <v>0.001882419314384238</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0003682195064611029</v>
+        <v>0.0004204592012508049</v>
       </c>
       <c r="C105">
-        <v>0.0005896271280979396</v>
+        <v>0.0004301879496243952</v>
       </c>
       <c r="D105">
-        <v>5.1056641721598e-06</v>
+        <v>6.352168387173263e-06</v>
       </c>
       <c r="E105">
-        <v>0.0004463442982600954</v>
+        <v>0.0003191495488185875</v>
       </c>
       <c r="F105">
-        <v>0.0001449989031426529</v>
+        <v>0.0001409373193259152</v>
       </c>
       <c r="G105">
-        <v>3.759468230173598e-07</v>
+        <v>4.818652201257202e-07</v>
       </c>
       <c r="H105">
-        <v>0.001697997659603039</v>
+        <v>0.001588975439877589</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0005235584040213184</v>
+        <v>0.0004929711813508427</v>
       </c>
       <c r="C106">
-        <v>0.0004674102052103205</v>
+        <v>0.0007361133746186645</v>
       </c>
       <c r="D106">
-        <v>5.210447896385894e-06</v>
+        <v>7.100220154828261e-06</v>
       </c>
       <c r="E106">
-        <v>0.0003390024309694468</v>
+        <v>0.0004196515948325196</v>
       </c>
       <c r="F106">
-        <v>0.000181581168219022</v>
+        <v>0.0002022799925559986</v>
       </c>
       <c r="G106">
-        <v>4.083696917007665e-07</v>
+        <v>5.466085853010496e-07</v>
       </c>
       <c r="H106">
-        <v>0.002181175331002501</v>
+        <v>0.002371525893661269</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0003684806871901882</v>
+        <v>0.0003547836086400123</v>
       </c>
       <c r="C107">
-        <v>0.0006409164694669144</v>
+        <v>0.0004506201446111308</v>
       </c>
       <c r="D107">
-        <v>4.393075587163906e-06</v>
+        <v>4.101463472379622e-06</v>
       </c>
       <c r="E107">
-        <v>0.0003524360892217991</v>
+        <v>0.0003765567948166912</v>
       </c>
       <c r="F107">
-        <v>0.00014687625118651</v>
+        <v>0.0001660416614112897</v>
       </c>
       <c r="G107">
-        <v>3.956711315675895e-07</v>
+        <v>5.225785018210065e-07</v>
       </c>
       <c r="H107">
-        <v>0.001558605040494552</v>
+        <v>0.001761058432738029</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0003210480391751011</v>
+        <v>0.0004394674899190109</v>
       </c>
       <c r="C108">
-        <v>0.0004824206612100776</v>
+        <v>0.0004662906065889693</v>
       </c>
       <c r="D108">
-        <v>3.88549722683339e-06</v>
+        <v>4.270725696219075e-06</v>
       </c>
       <c r="E108">
-        <v>0.0002937935451658146</v>
+        <v>0.00034396178908551</v>
       </c>
       <c r="F108">
-        <v>0.0001384856387937374</v>
+        <v>0.000154951666420758</v>
       </c>
       <c r="G108">
-        <v>3.754485196103563e-07</v>
+        <v>5.394960913824574e-07</v>
       </c>
       <c r="H108">
-        <v>0.001546878781826896</v>
+        <v>0.001646401198761906</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0005868759354811635</v>
+        <v>0.0003498391234035558</v>
       </c>
       <c r="C109">
-        <v>0.0005262051260815065</v>
+        <v>0.0004351393290692971</v>
       </c>
       <c r="D109">
-        <v>5.538636631272452e-06</v>
+        <v>4.356534556504571e-06</v>
       </c>
       <c r="E109">
-        <v>0.0003694506920978213</v>
+        <v>0.0003867835104579976</v>
       </c>
       <c r="F109">
-        <v>0.0001742992875243522</v>
+        <v>0.0001402471977750629</v>
       </c>
       <c r="G109">
-        <v>7.036453323603736e-07</v>
+        <v>4.860114266879475e-07</v>
       </c>
       <c r="H109">
-        <v>0.002059083542690151</v>
+        <v>0.001458198921564363</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0004050848474136616</v>
+        <v>0.0004564014767387822</v>
       </c>
       <c r="C110">
-        <v>0.0005032046908766241</v>
+        <v>0.0007400766451500426</v>
       </c>
       <c r="D110">
-        <v>5.015467488244645e-06</v>
+        <v>5.104921486220572e-06</v>
       </c>
       <c r="E110">
-        <v>0.0003710483363609449</v>
+        <v>0.0004525363849761484</v>
       </c>
       <c r="F110">
-        <v>0.000125571542143415</v>
+        <v>0.0001752153074893104</v>
       </c>
       <c r="G110">
-        <v>4.724753446394057e-07</v>
+        <v>4.512841650397705e-07</v>
       </c>
       <c r="H110">
-        <v>0.001503785194038521</v>
+        <v>0.001943429618582861</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.000380957128359101</v>
+        <v>0.0003273421475116189</v>
       </c>
       <c r="C111">
-        <v>0.0004735642276200752</v>
+        <v>0.000589631965083954</v>
       </c>
       <c r="D111">
-        <v>4.806480131767892e-06</v>
+        <v>4.211882653226524e-06</v>
       </c>
       <c r="E111">
-        <v>0.0003592543623833063</v>
+        <v>0.0003788659425439638</v>
       </c>
       <c r="F111">
-        <v>0.0001467688327888744</v>
+        <v>0.0001135938694985273</v>
       </c>
       <c r="G111">
-        <v>5.561658466242066e-07</v>
+        <v>4.185912428624178e-07</v>
       </c>
       <c r="H111">
-        <v>0.001643331042690832</v>
+        <v>0.001241607038780332</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0004381634698562163</v>
+        <v>0.0006780381069090414</v>
       </c>
       <c r="C112">
-        <v>0.0003564775250562313</v>
+        <v>0.0005465808902728394</v>
       </c>
       <c r="D112">
-        <v>3.421469900463286e-06</v>
+        <v>6.333506934450207e-06</v>
       </c>
       <c r="E112">
-        <v>0.0003568183564538752</v>
+        <v>0.0004293020531825251</v>
       </c>
       <c r="F112">
-        <v>0.000170350486485936</v>
+        <v>0.0001707296503401249</v>
       </c>
       <c r="G112">
-        <v>3.671724977524781e-07</v>
+        <v>5.41458352485714e-07</v>
       </c>
       <c r="H112">
-        <v>0.001875197835439544</v>
+        <v>0.00198035060486745</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0003603583768663765</v>
+        <v>0.000497088349054888</v>
       </c>
       <c r="C113">
-        <v>0.0003981859832454673</v>
+        <v>0.0005553055063908546</v>
       </c>
       <c r="D113">
-        <v>4.020399083696572e-06</v>
+        <v>5.902967178810263e-06</v>
       </c>
       <c r="E113">
-        <v>0.0004137646788584505</v>
+        <v>0.0005107069464746187</v>
       </c>
       <c r="F113">
-        <v>0.0001031163158395422</v>
+        <v>0.0002215137639024746</v>
       </c>
       <c r="G113">
-        <v>3.969484677527841e-07</v>
+        <v>5.609912413075765e-07</v>
       </c>
       <c r="H113">
-        <v>0.001349651257524453</v>
+        <v>0.002597190663423017</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0004031849751234641</v>
+        <v>0.0003469376353495965</v>
       </c>
       <c r="C114">
-        <v>0.0004358308353837866</v>
+        <v>0.0006646779347754138</v>
       </c>
       <c r="D114">
-        <v>4.889620093379349e-06</v>
+        <v>4.407630800278332e-06</v>
       </c>
       <c r="E114">
-        <v>0.0004008151059901933</v>
+        <v>0.0003319778749014233</v>
       </c>
       <c r="F114">
-        <v>0.0001530043537081673</v>
+        <v>0.0001243762507741669</v>
       </c>
       <c r="G114">
-        <v>4.150935171978333e-07</v>
+        <v>4.81471096029158e-07</v>
       </c>
       <c r="H114">
-        <v>0.001757942436635758</v>
+        <v>0.001277565590782975</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0003911363923501691</v>
+        <v>0.0004796474433537687</v>
       </c>
       <c r="C115">
-        <v>0.0003978773714620077</v>
+        <v>0.000451598923119159</v>
       </c>
       <c r="D115">
-        <v>4.276750710923795e-06</v>
+        <v>4.841380093129247e-06</v>
       </c>
       <c r="E115">
-        <v>0.000411783887183821</v>
+        <v>0.0003285609925481337</v>
       </c>
       <c r="F115">
-        <v>0.0001279212004768856</v>
+        <v>0.0001882114619754222</v>
       </c>
       <c r="G115">
-        <v>7.031523365133977e-07</v>
+        <v>4.355609131589521e-07</v>
       </c>
       <c r="H115">
-        <v>0.001688190787470916</v>
+        <v>0.002271755426578009</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0005077245609004094</v>
+        <v>0.0003797149210306948</v>
       </c>
       <c r="C116">
-        <v>0.0003651652589244077</v>
+        <v>0.0006094578275654502</v>
       </c>
       <c r="D116">
-        <v>4.779750748257346e-06</v>
+        <v>4.575795704141174e-06</v>
       </c>
       <c r="E116">
-        <v>0.0002751416587038311</v>
+        <v>0.0003776832949582801</v>
       </c>
       <c r="F116">
-        <v>0.00014532542561436</v>
+        <v>0.0001231539302270552</v>
       </c>
       <c r="G116">
-        <v>5.005366469219192e-07</v>
+        <v>4.224752236774309e-07</v>
       </c>
       <c r="H116">
-        <v>0.00172343830851627</v>
+        <v>0.001414439538680281</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0005630586814563737</v>
+        <v>0.0004891352723336432</v>
       </c>
       <c r="C117">
-        <v>0.0004813615244284335</v>
+        <v>0.0003887923806301353</v>
       </c>
       <c r="D117">
-        <v>4.394063823349883e-06</v>
+        <v>4.859272124070195e-06</v>
       </c>
       <c r="E117">
-        <v>0.0003488096981305336</v>
+        <v>0.0003337054838547225</v>
       </c>
       <c r="F117">
-        <v>0.0001562502632687628</v>
+        <v>0.0001327774412356029</v>
       </c>
       <c r="G117">
-        <v>4.913905500983648e-07</v>
+        <v>3.586062547341346e-07</v>
       </c>
       <c r="H117">
-        <v>0.002056998503484481</v>
+        <v>0.001773248341176935</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0003711990849777428</v>
+        <v>0.0004759020991436452</v>
       </c>
       <c r="C118">
-        <v>0.0003908062012586681</v>
+        <v>0.0003647967415313339</v>
       </c>
       <c r="D118">
-        <v>4.2936029058242e-06</v>
+        <v>4.859454905394645e-06</v>
       </c>
       <c r="E118">
-        <v>0.0003784560466867832</v>
+        <v>0.0003397324059398212</v>
       </c>
       <c r="F118">
-        <v>0.0001532325153298536</v>
+        <v>0.0001670539913599121</v>
       </c>
       <c r="G118">
-        <v>3.93284302434264e-07</v>
+        <v>4.816540486623536e-07</v>
       </c>
       <c r="H118">
-        <v>0.001684404053114283</v>
+        <v>0.001767313146661689</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0004435163948768493</v>
+        <v>0.0003770886153836947</v>
       </c>
       <c r="C119">
-        <v>0.0006919017086421099</v>
+        <v>0.0006490074254820917</v>
       </c>
       <c r="D119">
-        <v>5.090734063389741e-06</v>
+        <v>4.873514036849038e-06</v>
       </c>
       <c r="E119">
-        <v>0.0003092424930344587</v>
+        <v>0.0004175339663153195</v>
       </c>
       <c r="F119">
-        <v>0.0001898566430368216</v>
+        <v>0.0001298588473230434</v>
       </c>
       <c r="G119">
-        <v>6.250414421206516e-07</v>
+        <v>4.290287703530032e-07</v>
       </c>
       <c r="H119">
-        <v>0.002083798267996609</v>
+        <v>0.001391436291892512</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0005185005349350066</v>
+        <v>0.0004108101922299148</v>
       </c>
       <c r="C120">
-        <v>0.001059897148616459</v>
+        <v>0.000602541322843593</v>
       </c>
       <c r="D120">
-        <v>5.984811893746712e-06</v>
+        <v>4.255135910070904e-06</v>
       </c>
       <c r="E120">
-        <v>0.0004063913379809867</v>
+        <v>0.0003316299715178829</v>
       </c>
       <c r="F120">
-        <v>0.0001763776920424811</v>
+        <v>0.0001481448192947298</v>
       </c>
       <c r="G120">
-        <v>5.349620857599904e-07</v>
+        <v>4.862805458982026e-07</v>
       </c>
       <c r="H120">
-        <v>0.001932332206784815</v>
+        <v>0.001676611818083167</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.000546745771634998</v>
+        <v>0.0003329175354232802</v>
       </c>
       <c r="C121">
-        <v>0.0004271200279891963</v>
+        <v>0.0005068729225742246</v>
       </c>
       <c r="D121">
-        <v>4.862059493216313e-06</v>
+        <v>5.234021395842215e-06</v>
       </c>
       <c r="E121">
-        <v>0.0003324682190856601</v>
+        <v>0.0003566350480699618</v>
       </c>
       <c r="F121">
-        <v>0.0001850517220759642</v>
+        <v>0.0001204934675070579</v>
       </c>
       <c r="G121">
-        <v>5.21192074785433e-07</v>
+        <v>7.39756161389e-07</v>
       </c>
       <c r="H121">
-        <v>0.002152649100685173</v>
+        <v>0.001375642955086966</v>
       </c>
     </row>
   </sheetData>

--- a/FOMC2_bse.xlsx
+++ b/FOMC2_bse.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0004142441254361551</v>
+        <v>0.0122362956274475</v>
       </c>
       <c r="C2">
-        <v>0.0004149900029253058</v>
+        <v>0.008008725357606182</v>
       </c>
       <c r="D2">
-        <v>4.857949755401449e-06</v>
+        <v>0.0001356734845461706</v>
       </c>
       <c r="E2">
-        <v>0.0003358362518084924</v>
+        <v>0.007568751717615224</v>
       </c>
       <c r="F2">
-        <v>0.0001557296537254889</v>
+        <v>0.002804615919545862</v>
       </c>
       <c r="G2">
-        <v>2.970442580046321e-07</v>
+        <v>1.436626462905784e-05</v>
       </c>
       <c r="H2">
-        <v>0.001975749072179326</v>
+        <v>0.03019986785262202</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0004307229838726454</v>
+        <v>0.01531352046745931</v>
       </c>
       <c r="C3">
-        <v>0.000800714728455283</v>
+        <v>0.03263229603247365</v>
       </c>
       <c r="D3">
-        <v>4.762237433419489e-06</v>
+        <v>0.000311729243549786</v>
       </c>
       <c r="E3">
-        <v>0.0004206882801826107</v>
+        <v>0.01127416332469235</v>
       </c>
       <c r="F3">
-        <v>0.0001780166425648684</v>
+        <v>0.008129105521475813</v>
       </c>
       <c r="G3">
-        <v>4.343267616975807e-07</v>
+        <v>1.487110581595104e-05</v>
       </c>
       <c r="H3">
-        <v>0.001996116689559517</v>
+        <v>0.08748501772584587</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0005426323661732532</v>
+        <v>0.01374488100930202</v>
       </c>
       <c r="C4">
-        <v>0.0005220737374882619</v>
+        <v>0.01061109521891427</v>
       </c>
       <c r="D4">
-        <v>5.103845685634929e-06</v>
+        <v>0.0001332524211470246</v>
       </c>
       <c r="E4">
-        <v>0.0003293330844994325</v>
+        <v>0.01033635356585051</v>
       </c>
       <c r="F4">
-        <v>0.0001577069064317994</v>
+        <v>0.003992676820845354</v>
       </c>
       <c r="G4">
-        <v>3.513630221700608e-07</v>
+        <v>1.482836310800132e-05</v>
       </c>
       <c r="H4">
-        <v>0.001738273869197983</v>
+        <v>0.05949527400726066</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0004251985707978713</v>
+        <v>0.0117396894376979</v>
       </c>
       <c r="C5">
-        <v>0.0005098688922687361</v>
+        <v>0.01250764007753404</v>
       </c>
       <c r="D5">
-        <v>4.637245063817416e-06</v>
+        <v>0.0001224294454526061</v>
       </c>
       <c r="E5">
-        <v>0.0004061775336279141</v>
+        <v>0.009566783660605874</v>
       </c>
       <c r="F5">
-        <v>0.0001544314268771202</v>
+        <v>0.003649759369594162</v>
       </c>
       <c r="G5">
-        <v>3.921640543615628e-07</v>
+        <v>1.274171060730634e-05</v>
       </c>
       <c r="H5">
-        <v>0.001812602853197954</v>
+        <v>0.0413259525278398</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0003823820963050461</v>
+        <v>0.01753216420280942</v>
       </c>
       <c r="C6">
-        <v>0.0005661077596906116</v>
+        <v>0.02668285201075948</v>
       </c>
       <c r="D6">
-        <v>4.394119390221775e-06</v>
+        <v>0.0003811373906518282</v>
       </c>
       <c r="E6">
-        <v>0.0002968738085892267</v>
+        <v>0.01289033315572613</v>
       </c>
       <c r="F6">
-        <v>0.000164629435294395</v>
+        <v>0.009733037279532031</v>
       </c>
       <c r="G6">
-        <v>3.291519641709574e-07</v>
+        <v>2.315473318194702e-05</v>
       </c>
       <c r="H6">
-        <v>0.001924273739226228</v>
+        <v>0.09674240115456283</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0004413631763895677</v>
+        <v>0.01980870668149206</v>
       </c>
       <c r="C7">
-        <v>0.0004933317794929913</v>
+        <v>0.008689407992971217</v>
       </c>
       <c r="D7">
-        <v>5.025279346624877e-06</v>
+        <v>0.0002299830340349914</v>
       </c>
       <c r="E7">
-        <v>0.0003885993583649287</v>
+        <v>0.01027703834027559</v>
       </c>
       <c r="F7">
-        <v>0.0001605441063292853</v>
+        <v>0.004476670584555632</v>
       </c>
       <c r="G7">
-        <v>7.055087002499721e-07</v>
+        <v>1.885653183536012e-05</v>
       </c>
       <c r="H7">
-        <v>0.001729874089065707</v>
+        <v>0.04054339248233133</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0004434760710576206</v>
+        <v>0.012991691196442</v>
       </c>
       <c r="C8">
-        <v>0.0007633050822047321</v>
+        <v>0.01684285061077884</v>
       </c>
       <c r="D8">
-        <v>5.970820965407682e-06</v>
+        <v>0.0002030073090538672</v>
       </c>
       <c r="E8">
-        <v>0.000356589607951253</v>
+        <v>0.009564942056033641</v>
       </c>
       <c r="F8">
-        <v>0.0001497265381104251</v>
+        <v>0.005725526630577405</v>
       </c>
       <c r="G8">
-        <v>3.787118322893112e-07</v>
+        <v>2.180754727777753e-05</v>
       </c>
       <c r="H8">
-        <v>0.001855570739895034</v>
+        <v>0.06845124655828792</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0004370167793697274</v>
+        <v>0.01570906760410913</v>
       </c>
       <c r="C9">
-        <v>0.000387875837982953</v>
+        <v>0.01724386062905061</v>
       </c>
       <c r="D9">
-        <v>4.909041478197908e-06</v>
+        <v>0.0001659442732627206</v>
       </c>
       <c r="E9">
-        <v>0.0003571152419022683</v>
+        <v>0.009997552619278947</v>
       </c>
       <c r="F9">
-        <v>0.0001378912463088414</v>
+        <v>0.005666582353360778</v>
       </c>
       <c r="G9">
-        <v>4.090726135796978e-07</v>
+        <v>1.802848080976131e-05</v>
       </c>
       <c r="H9">
-        <v>0.001473069982076318</v>
+        <v>0.06214343613875301</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0004528667501795147</v>
+        <v>0.02029026823217617</v>
       </c>
       <c r="C10">
-        <v>0.0006508139130851206</v>
+        <v>0.01524847005811199</v>
       </c>
       <c r="D10">
-        <v>3.68843330346298e-06</v>
+        <v>0.0002063387878514546</v>
       </c>
       <c r="E10">
-        <v>0.0003496358878121467</v>
+        <v>0.0204216067415526</v>
       </c>
       <c r="F10">
-        <v>0.0001443826975482376</v>
+        <v>0.007580177134861397</v>
       </c>
       <c r="G10">
-        <v>4.305509829216121e-07</v>
+        <v>2.490846860427474e-05</v>
       </c>
       <c r="H10">
-        <v>0.001717617958998537</v>
+        <v>0.09506064800423344</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0004070538419735882</v>
+        <v>0.01794363790858044</v>
       </c>
       <c r="C11">
-        <v>0.0005985253765891144</v>
+        <v>0.02132622017640819</v>
       </c>
       <c r="D11">
-        <v>4.57826792035839e-06</v>
+        <v>0.0001787208216493743</v>
       </c>
       <c r="E11">
-        <v>0.0004426283305461985</v>
+        <v>0.01110650299685784</v>
       </c>
       <c r="F11">
-        <v>0.000160734539456705</v>
+        <v>0.007283144038592339</v>
       </c>
       <c r="G11">
-        <v>6.419951143786421e-07</v>
+        <v>1.800858552542145e-05</v>
       </c>
       <c r="H11">
-        <v>0.00194953540440483</v>
+        <v>0.1049732383387706</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0003339028025304323</v>
+        <v>0.01476383188264234</v>
       </c>
       <c r="C12">
-        <v>0.0003903496059933487</v>
+        <v>0.01478164249213893</v>
       </c>
       <c r="D12">
-        <v>3.855215787617333e-06</v>
+        <v>0.0001689433025878203</v>
       </c>
       <c r="E12">
-        <v>0.0003788941492494162</v>
+        <v>0.009109937031274161</v>
       </c>
       <c r="F12">
-        <v>0.0001422493481839647</v>
+        <v>0.004941003223939797</v>
       </c>
       <c r="G12">
-        <v>5.690664131328685e-07</v>
+        <v>1.609353633877342e-05</v>
       </c>
       <c r="H12">
-        <v>0.001559291795362651</v>
+        <v>0.05336800355197951</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0004856600751499427</v>
+        <v>0.01088157709352987</v>
       </c>
       <c r="C13">
-        <v>0.0006920570098744589</v>
+        <v>0.01616126097305043</v>
       </c>
       <c r="D13">
-        <v>4.590454037975759e-06</v>
+        <v>0.0001072565751068271</v>
       </c>
       <c r="E13">
-        <v>0.0004397983935258385</v>
+        <v>0.01101232493437493</v>
       </c>
       <c r="F13">
-        <v>0.0001588645018337962</v>
+        <v>0.004775221895288296</v>
       </c>
       <c r="G13">
-        <v>5.326795797239928e-07</v>
+        <v>1.411332317415287e-05</v>
       </c>
       <c r="H13">
-        <v>0.001918551116618937</v>
+        <v>0.07147298396522718</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0003984358077385194</v>
+        <v>0.01342848480129523</v>
       </c>
       <c r="C14">
-        <v>0.0005389951045523109</v>
+        <v>0.01292820894881292</v>
       </c>
       <c r="D14">
-        <v>5.94142602872049e-06</v>
+        <v>0.0001161315873222851</v>
       </c>
       <c r="E14">
-        <v>0.0002686709945857175</v>
+        <v>0.01436701817430136</v>
       </c>
       <c r="F14">
-        <v>0.0001518809642531043</v>
+        <v>0.005561491632843593</v>
       </c>
       <c r="G14">
-        <v>4.582842408872047e-07</v>
+        <v>1.486127420490839e-05</v>
       </c>
       <c r="H14">
-        <v>0.001965658248662662</v>
+        <v>0.06960137938338096</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0003306328735665754</v>
+        <v>0.0149428885423556</v>
       </c>
       <c r="C15">
-        <v>0.0008583838814716399</v>
+        <v>0.00865473244341375</v>
       </c>
       <c r="D15">
-        <v>4.092812914606615e-06</v>
+        <v>0.0002047082101826893</v>
       </c>
       <c r="E15">
-        <v>0.0003176986377555751</v>
+        <v>0.009481681646602793</v>
       </c>
       <c r="F15">
-        <v>0.0001290558841201959</v>
+        <v>0.004657937792752865</v>
       </c>
       <c r="G15">
-        <v>3.695302187702832e-07</v>
+        <v>1.617410563127229e-05</v>
       </c>
       <c r="H15">
-        <v>0.001362391299011084</v>
+        <v>0.04311579388706037</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0005533205433165248</v>
+        <v>0.01450450791170351</v>
       </c>
       <c r="C16">
-        <v>0.0004929298297153592</v>
+        <v>0.01494118590878791</v>
       </c>
       <c r="D16">
-        <v>5.020881589768603e-06</v>
+        <v>0.0001475066752018077</v>
       </c>
       <c r="E16">
-        <v>0.0002604395656871604</v>
+        <v>0.01005858462883324</v>
       </c>
       <c r="F16">
-        <v>0.0001262836812443164</v>
+        <v>0.005259372208544145</v>
       </c>
       <c r="G16">
-        <v>3.992006983037419e-07</v>
+        <v>1.863838879288474e-05</v>
       </c>
       <c r="H16">
-        <v>0.001552402574134731</v>
+        <v>0.06991495024103322</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0004852321533537122</v>
+        <v>0.009113629657202976</v>
       </c>
       <c r="C17">
-        <v>0.0003804331476046142</v>
+        <v>0.008065778748503973</v>
       </c>
       <c r="D17">
-        <v>4.443681512232631e-06</v>
+        <v>9.631592454742873e-05</v>
       </c>
       <c r="E17">
-        <v>0.0003597451015229006</v>
+        <v>0.008270162132877195</v>
       </c>
       <c r="F17">
-        <v>0.0001474567669434895</v>
+        <v>0.003381199304955175</v>
       </c>
       <c r="G17">
-        <v>3.307894312245517e-07</v>
+        <v>1.592964395061821e-05</v>
       </c>
       <c r="H17">
-        <v>0.001639384294999159</v>
+        <v>0.03617564178633138</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0003934285417311997</v>
+        <v>0.01960727724710962</v>
       </c>
       <c r="C18">
-        <v>0.0006507948648989877</v>
+        <v>0.01201034615131262</v>
       </c>
       <c r="D18">
-        <v>5.492078947953049e-06</v>
+        <v>0.000227842108767218</v>
       </c>
       <c r="E18">
-        <v>0.0002939213127207238</v>
+        <v>0.011704095882818</v>
       </c>
       <c r="F18">
-        <v>0.0001229532416078223</v>
+        <v>0.005761336240745653</v>
       </c>
       <c r="G18">
-        <v>3.933057018406915e-07</v>
+        <v>2.204644479817322e-05</v>
       </c>
       <c r="H18">
-        <v>0.001480855263596492</v>
+        <v>0.05296038042857022</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0003376437509051893</v>
+        <v>0.01404197780612567</v>
       </c>
       <c r="C19">
-        <v>0.0003154313994057002</v>
+        <v>0.01011634584285287</v>
       </c>
       <c r="D19">
-        <v>4.174021448205186e-06</v>
+        <v>0.0001336008645477394</v>
       </c>
       <c r="E19">
-        <v>0.0003144889035186748</v>
+        <v>0.01186379903718317</v>
       </c>
       <c r="F19">
-        <v>0.000139259062298989</v>
+        <v>0.004765464640959144</v>
       </c>
       <c r="G19">
-        <v>3.908248302278339e-07</v>
+        <v>1.492747100994349e-05</v>
       </c>
       <c r="H19">
-        <v>0.001501938759648251</v>
+        <v>0.0615024325015398</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0003391895763227316</v>
+        <v>0.02391974694974727</v>
       </c>
       <c r="C20">
-        <v>0.000392532030150138</v>
+        <v>0.01619347734453228</v>
       </c>
       <c r="D20">
-        <v>3.828717487981746e-06</v>
+        <v>0.0002656812347140887</v>
       </c>
       <c r="E20">
-        <v>0.0003262776602931335</v>
+        <v>0.01896155799717889</v>
       </c>
       <c r="F20">
-        <v>0.0001081175900852317</v>
+        <v>0.007696960892580881</v>
       </c>
       <c r="G20">
-        <v>4.558565534120954e-07</v>
+        <v>2.733016355176482e-05</v>
       </c>
       <c r="H20">
-        <v>0.001347492814219955</v>
+        <v>0.1050679555826994</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0003429273212377401</v>
+        <v>0.01416771995084504</v>
       </c>
       <c r="C21">
-        <v>0.0004786777861989533</v>
+        <v>0.02170368063349745</v>
       </c>
       <c r="D21">
-        <v>4.117975557023946e-06</v>
+        <v>0.0002791015511680337</v>
       </c>
       <c r="E21">
-        <v>0.0003161869798988483</v>
+        <v>0.01359434598526574</v>
       </c>
       <c r="F21">
-        <v>0.0001407942505348464</v>
+        <v>0.008014832781334261</v>
       </c>
       <c r="G21">
-        <v>5.008971451570231e-07</v>
+        <v>1.667838298789878e-05</v>
       </c>
       <c r="H21">
-        <v>0.001670382708185982</v>
+        <v>0.08305578499936872</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0003036731330043576</v>
+        <v>0.01390345027774721</v>
       </c>
       <c r="C22">
-        <v>0.0004754379223873945</v>
+        <v>0.01076558658917895</v>
       </c>
       <c r="D22">
-        <v>4.281900996454575e-06</v>
+        <v>0.0001359910681970942</v>
       </c>
       <c r="E22">
-        <v>0.0002984303167614155</v>
+        <v>0.009393196524476583</v>
       </c>
       <c r="F22">
-        <v>0.0001157932610710314</v>
+        <v>0.004482070062924953</v>
       </c>
       <c r="G22">
-        <v>4.874827045821362e-07</v>
+        <v>1.815046077715084e-05</v>
       </c>
       <c r="H22">
-        <v>0.001285562277557943</v>
+        <v>0.05179116446266162</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0006931545921130384</v>
+        <v>0.01144768955785861</v>
       </c>
       <c r="C23">
-        <v>0.0008490847748804897</v>
+        <v>0.02789252142599279</v>
       </c>
       <c r="D23">
-        <v>6.372286169918654e-06</v>
+        <v>0.0003618910475382203</v>
       </c>
       <c r="E23">
-        <v>0.000430660451436639</v>
+        <v>0.01492528337149305</v>
       </c>
       <c r="F23">
-        <v>0.0002308057011530109</v>
+        <v>0.009467498060272141</v>
       </c>
       <c r="G23">
-        <v>4.650669436661392e-07</v>
+        <v>1.385571827114403e-05</v>
       </c>
       <c r="H23">
-        <v>0.002685819749595314</v>
+        <v>0.09349046005308902</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0004755084038446134</v>
+        <v>0.0168297305547693</v>
       </c>
       <c r="C24">
-        <v>0.0005450684812344334</v>
+        <v>0.01258983298743692</v>
       </c>
       <c r="D24">
-        <v>5.207754054853708e-06</v>
+        <v>0.0002210353178805034</v>
       </c>
       <c r="E24">
-        <v>0.0003993746621587203</v>
+        <v>0.008250805089516146</v>
       </c>
       <c r="F24">
-        <v>0.0001418501470496783</v>
+        <v>0.004555612762968676</v>
       </c>
       <c r="G24">
-        <v>5.356103443396242e-07</v>
+        <v>2.138981346417696e-05</v>
       </c>
       <c r="H24">
-        <v>0.001748523781397418</v>
+        <v>0.06042942119938975</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0004790988401564007</v>
+        <v>0.0139647961981271</v>
       </c>
       <c r="C25">
-        <v>0.0005651452853005832</v>
+        <v>0.02478274214728721</v>
       </c>
       <c r="D25">
-        <v>5.446642981360613e-06</v>
+        <v>0.0002842096217087743</v>
       </c>
       <c r="E25">
-        <v>0.0004428154125473033</v>
+        <v>0.01375786670441058</v>
       </c>
       <c r="F25">
-        <v>0.0001937100366674247</v>
+        <v>0.008711993739738275</v>
       </c>
       <c r="G25">
-        <v>6.69468036453413e-07</v>
+        <v>1.544093507710229e-05</v>
       </c>
       <c r="H25">
-        <v>0.002221661757590643</v>
+        <v>0.09804669238931928</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0003491758622381318</v>
+        <v>0.02377564258407542</v>
       </c>
       <c r="C26">
-        <v>0.0005522322629865578</v>
+        <v>0.0262590913565863</v>
       </c>
       <c r="D26">
-        <v>5.892781805365124e-06</v>
+        <v>0.0003115451545188785</v>
       </c>
       <c r="E26">
-        <v>0.0003187603327626125</v>
+        <v>0.01248759819486639</v>
       </c>
       <c r="F26">
-        <v>0.0001448480877803662</v>
+        <v>0.01224159959228653</v>
       </c>
       <c r="G26">
-        <v>4.316978359845527e-07</v>
+        <v>1.28020573032441e-05</v>
       </c>
       <c r="H26">
-        <v>0.001614723540498949</v>
+        <v>0.1323971331754756</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0004443225515723034</v>
+        <v>0.01892727376330694</v>
       </c>
       <c r="C27">
-        <v>0.0005684149653684907</v>
+        <v>0.01062405707253771</v>
       </c>
       <c r="D27">
-        <v>4.820593155256258e-06</v>
+        <v>0.0002059023261389605</v>
       </c>
       <c r="E27">
-        <v>0.0003267727721761948</v>
+        <v>0.0120051681387691</v>
       </c>
       <c r="F27">
-        <v>0.0001480955068747262</v>
+        <v>0.005087485657925922</v>
       </c>
       <c r="G27">
-        <v>5.928386007165655e-07</v>
+        <v>2.22265444617931e-05</v>
       </c>
       <c r="H27">
-        <v>0.001861974347560116</v>
+        <v>0.04843353438939289</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0004474257218903481</v>
+        <v>0.01470935122692344</v>
       </c>
       <c r="C28">
-        <v>0.0005817019729448309</v>
+        <v>0.01038615927225283</v>
       </c>
       <c r="D28">
-        <v>4.585977971858708e-06</v>
+        <v>0.000147873624332114</v>
       </c>
       <c r="E28">
-        <v>0.0003573590681742604</v>
+        <v>0.008608854039171675</v>
       </c>
       <c r="F28">
-        <v>0.0001499278801474245</v>
+        <v>0.004131359216699796</v>
       </c>
       <c r="G28">
-        <v>4.774279365651156e-07</v>
+        <v>1.823900792828317e-05</v>
       </c>
       <c r="H28">
-        <v>0.001722232516060219</v>
+        <v>0.05491946464784186</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0004872123660058441</v>
+        <v>0.01106103709256391</v>
       </c>
       <c r="C29">
-        <v>0.0004662185039595113</v>
+        <v>0.009577121456074318</v>
       </c>
       <c r="D29">
-        <v>5.265551786353177e-06</v>
+        <v>0.0001120642094873248</v>
       </c>
       <c r="E29">
-        <v>0.000397737759470551</v>
+        <v>0.007678090287210407</v>
       </c>
       <c r="F29">
-        <v>0.0001318418363510756</v>
+        <v>0.004584875290130188</v>
       </c>
       <c r="G29">
-        <v>3.948668437779577e-07</v>
+        <v>1.105793818684201e-05</v>
       </c>
       <c r="H29">
-        <v>0.001662590811932922</v>
+        <v>0.06427641312839578</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0004975301050219741</v>
+        <v>0.01412112162973401</v>
       </c>
       <c r="C30">
-        <v>0.0006057923797151871</v>
+        <v>0.0119868902432002</v>
       </c>
       <c r="D30">
-        <v>6.110589290720913e-06</v>
+        <v>0.0001958607992907915</v>
       </c>
       <c r="E30">
-        <v>0.0003320623109290294</v>
+        <v>0.008443664154396539</v>
       </c>
       <c r="F30">
-        <v>0.0001333481087905806</v>
+        <v>0.004779932948259741</v>
       </c>
       <c r="G30">
-        <v>4.316258335951462e-07</v>
+        <v>1.391366442827295e-05</v>
       </c>
       <c r="H30">
-        <v>0.001931703638340172</v>
+        <v>0.04817190493069295</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0004660309117567313</v>
+        <v>0.02161996540671596</v>
       </c>
       <c r="C31">
-        <v>0.0006221249592048113</v>
+        <v>0.01549088554447291</v>
       </c>
       <c r="D31">
-        <v>5.675352809084015e-06</v>
+        <v>0.0002671095363321454</v>
       </c>
       <c r="E31">
-        <v>0.0003021035176646337</v>
+        <v>0.0111035199064315</v>
       </c>
       <c r="F31">
-        <v>0.0001176237906486816</v>
+        <v>0.006168839139826711</v>
       </c>
       <c r="G31">
-        <v>5.350288244662804e-07</v>
+        <v>2.572358853883003e-05</v>
       </c>
       <c r="H31">
-        <v>0.001418748132236813</v>
+        <v>0.07395351561200031</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.00056243344182587</v>
+        <v>0.01221276441396396</v>
       </c>
       <c r="C32">
-        <v>0.0004552787707964432</v>
+        <v>0.00951425250707892</v>
       </c>
       <c r="D32">
-        <v>4.58923478357699e-06</v>
+        <v>0.0001353859118632602</v>
       </c>
       <c r="E32">
-        <v>0.0002532591861416749</v>
+        <v>0.00705515334036178</v>
       </c>
       <c r="F32">
-        <v>0.0001942542492297504</v>
+        <v>0.003217021434510648</v>
       </c>
       <c r="G32">
-        <v>5.641941920441848e-07</v>
+        <v>1.183740911177463e-05</v>
       </c>
       <c r="H32">
-        <v>0.002184067300608411</v>
+        <v>0.03363762387659607</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0003759587922856484</v>
+        <v>0.01712824980860084</v>
       </c>
       <c r="C33">
-        <v>0.0005936974211871658</v>
+        <v>0.01512038851685077</v>
       </c>
       <c r="D33">
-        <v>4.072306046798543e-06</v>
+        <v>0.0001418465857688929</v>
       </c>
       <c r="E33">
-        <v>0.0003577166247111028</v>
+        <v>0.01039775853168801</v>
       </c>
       <c r="F33">
-        <v>0.0001099972723724793</v>
+        <v>0.006393430305388495</v>
       </c>
       <c r="G33">
-        <v>3.67144929835237e-07</v>
+        <v>1.881193216005422e-05</v>
       </c>
       <c r="H33">
-        <v>0.001474225767201283</v>
+        <v>0.09206803500799908</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0004394295949645441</v>
+        <v>0.009812445994070095</v>
       </c>
       <c r="C34">
-        <v>0.0005485563999296519</v>
+        <v>0.01538282737117781</v>
       </c>
       <c r="D34">
-        <v>8.062130354565672e-06</v>
+        <v>0.0001539682747771163</v>
       </c>
       <c r="E34">
-        <v>0.0003914262063400424</v>
+        <v>0.007979231946066655</v>
       </c>
       <c r="F34">
-        <v>0.0001503060536885318</v>
+        <v>0.004252435632794716</v>
       </c>
       <c r="G34">
-        <v>3.671193023836466e-07</v>
+        <v>1.08148372443017e-05</v>
       </c>
       <c r="H34">
-        <v>0.001812178209404276</v>
+        <v>0.04678046285432989</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0003945836311179265</v>
+        <v>0.011724302917205</v>
       </c>
       <c r="C35">
-        <v>0.0003853361283332908</v>
+        <v>0.01950705011179924</v>
       </c>
       <c r="D35">
-        <v>6.349352634158727e-06</v>
+        <v>0.0001212724395076656</v>
       </c>
       <c r="E35">
-        <v>0.0003580744027422756</v>
+        <v>0.01135771248784304</v>
       </c>
       <c r="F35">
-        <v>0.0001506886882921261</v>
+        <v>0.004031592103207987</v>
       </c>
       <c r="G35">
-        <v>4.128138612466521e-07</v>
+        <v>1.458861755031712e-05</v>
       </c>
       <c r="H35">
-        <v>0.001670443511154456</v>
+        <v>0.04968935129022192</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0004864899214657394</v>
+        <v>0.01326044354317233</v>
       </c>
       <c r="C36">
-        <v>0.001120522244519121</v>
+        <v>0.01891146450313205</v>
       </c>
       <c r="D36">
-        <v>4.6282614807826e-06</v>
+        <v>0.0001423868173897806</v>
       </c>
       <c r="E36">
-        <v>0.0003900261247965244</v>
+        <v>0.008442253269924756</v>
       </c>
       <c r="F36">
-        <v>0.0001552278766339314</v>
+        <v>0.004941406832908212</v>
       </c>
       <c r="G36">
-        <v>4.681036071719651e-07</v>
+        <v>1.724232421324072e-05</v>
       </c>
       <c r="H36">
-        <v>0.002120284718871246</v>
+        <v>0.07113126765047657</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0003366326748245893</v>
+        <v>0.009397747573823632</v>
       </c>
       <c r="C37">
-        <v>0.0004437862879578161</v>
+        <v>0.008903687759475748</v>
       </c>
       <c r="D37">
-        <v>5.018769459709455e-06</v>
+        <v>0.0001199320464781103</v>
       </c>
       <c r="E37">
-        <v>0.0003444125279022667</v>
+        <v>0.008139370635649465</v>
       </c>
       <c r="F37">
-        <v>0.0001257633038443232</v>
+        <v>0.00325768606555957</v>
       </c>
       <c r="G37">
-        <v>5.654562995146074e-07</v>
+        <v>1.321389613994786e-05</v>
       </c>
       <c r="H37">
-        <v>0.001376681289623181</v>
+        <v>0.03547209409410386</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0004696100475679274</v>
+        <v>0.01087650689377542</v>
       </c>
       <c r="C38">
-        <v>0.0006682963767470109</v>
+        <v>0.01188659016558258</v>
       </c>
       <c r="D38">
-        <v>5.128253619568065e-06</v>
+        <v>0.0001436834221056202</v>
       </c>
       <c r="E38">
-        <v>0.0003178657816119445</v>
+        <v>0.01010201066521093</v>
       </c>
       <c r="F38">
-        <v>0.000151984981513352</v>
+        <v>0.003592192160883853</v>
       </c>
       <c r="G38">
-        <v>3.924698598405752e-07</v>
+        <v>1.561374610146502e-05</v>
       </c>
       <c r="H38">
-        <v>0.001797628999963996</v>
+        <v>0.04349231802971166</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0003990685301845555</v>
+        <v>0.01822478196155012</v>
       </c>
       <c r="C39">
-        <v>0.0004580290320238708</v>
+        <v>0.01607972628429533</v>
       </c>
       <c r="D39">
-        <v>4.573057759352702e-06</v>
+        <v>0.0001720477871883833</v>
       </c>
       <c r="E39">
-        <v>0.0002762970289192485</v>
+        <v>0.01157773917637047</v>
       </c>
       <c r="F39">
-        <v>0.0001349473848628764</v>
+        <v>0.005836818081425385</v>
       </c>
       <c r="G39">
-        <v>4.255907282367301e-07</v>
+        <v>1.842875349600518e-05</v>
       </c>
       <c r="H39">
-        <v>0.001394032933203855</v>
+        <v>0.07914390811317645</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0004563223226690727</v>
+        <v>0.01305609470615745</v>
       </c>
       <c r="C40">
-        <v>0.0004478444110729148</v>
+        <v>0.01908374110035503</v>
       </c>
       <c r="D40">
-        <v>3.390867164959755e-06</v>
+        <v>0.0001407200127836899</v>
       </c>
       <c r="E40">
-        <v>0.0003187576407369534</v>
+        <v>0.01045999555868472</v>
       </c>
       <c r="F40">
-        <v>0.0001480542566076572</v>
+        <v>0.006458839988349361</v>
       </c>
       <c r="G40">
-        <v>3.602954367286782e-07</v>
+        <v>1.520609080657214e-05</v>
       </c>
       <c r="H40">
-        <v>0.001709627631662187</v>
+        <v>0.08963290769918897</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0005244775421843528</v>
+        <v>0.02372514529038552</v>
       </c>
       <c r="C41">
-        <v>0.0008197770088329251</v>
+        <v>0.01926465813859487</v>
       </c>
       <c r="D41">
-        <v>6.098776085088787e-06</v>
+        <v>0.0002474462856657936</v>
       </c>
       <c r="E41">
-        <v>0.0004538017135472234</v>
+        <v>0.01377292402422611</v>
       </c>
       <c r="F41">
-        <v>0.0001549414573454769</v>
+        <v>0.007114617671801621</v>
       </c>
       <c r="G41">
-        <v>4.344422344066749e-07</v>
+        <v>2.401146007746649e-05</v>
       </c>
       <c r="H41">
-        <v>0.00176302609771973</v>
+        <v>0.09017356908368267</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0004364162520172387</v>
+        <v>0.01350521995228025</v>
       </c>
       <c r="C42">
-        <v>0.0005259471211897251</v>
+        <v>0.01109352184806277</v>
       </c>
       <c r="D42">
-        <v>5.711416945991588e-06</v>
+        <v>0.0001827277082356014</v>
       </c>
       <c r="E42">
-        <v>0.0003622512604668775</v>
+        <v>0.00742355465984864</v>
       </c>
       <c r="F42">
-        <v>0.000133745982786</v>
+        <v>0.004178585692245091</v>
       </c>
       <c r="G42">
-        <v>4.371326653473394e-07</v>
+        <v>1.734242123031838e-05</v>
       </c>
       <c r="H42">
-        <v>0.00161256051676238</v>
+        <v>0.05299767515025549</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.0004977916670657248</v>
+        <v>0.02492983382200106</v>
       </c>
       <c r="C43">
-        <v>0.0004855860265507599</v>
+        <v>0.0128693450179707</v>
       </c>
       <c r="D43">
-        <v>5.511851596042908e-06</v>
+        <v>0.0002485517220582024</v>
       </c>
       <c r="E43">
-        <v>0.0004085322338762736</v>
+        <v>0.01836144656643146</v>
       </c>
       <c r="F43">
-        <v>0.0001711984529899787</v>
+        <v>0.006955425701073244</v>
       </c>
       <c r="G43">
-        <v>4.719883154405625e-07</v>
+        <v>2.343642893245141e-05</v>
       </c>
       <c r="H43">
-        <v>0.001992896987299605</v>
+        <v>0.06776219450063251</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0004295991228917659</v>
+        <v>0.01621234566113371</v>
       </c>
       <c r="C44">
-        <v>0.000623902758597468</v>
+        <v>0.02146183107631507</v>
       </c>
       <c r="D44">
-        <v>5.72646903238576e-06</v>
+        <v>0.0002195060037308299</v>
       </c>
       <c r="E44">
-        <v>0.0003761746743588648</v>
+        <v>0.01316664498228134</v>
       </c>
       <c r="F44">
-        <v>0.0001756738163554076</v>
+        <v>0.007166030841384162</v>
       </c>
       <c r="G44">
-        <v>3.605031984290146e-07</v>
+        <v>2.525254497473731e-05</v>
       </c>
       <c r="H44">
-        <v>0.001919549301282861</v>
+        <v>0.08743066857958082</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0003863888516132358</v>
+        <v>0.01268643790751746</v>
       </c>
       <c r="C45">
-        <v>0.0007571175925985553</v>
+        <v>0.02077943810507812</v>
       </c>
       <c r="D45">
-        <v>5.007591550878017e-06</v>
+        <v>0.0002039221012547009</v>
       </c>
       <c r="E45">
-        <v>0.0003217920671709906</v>
+        <v>0.01349884475856597</v>
       </c>
       <c r="F45">
-        <v>0.0001402077056109165</v>
+        <v>0.006724076734211499</v>
       </c>
       <c r="G45">
-        <v>5.736161332395484e-07</v>
+        <v>1.402845670432815e-05</v>
       </c>
       <c r="H45">
-        <v>0.00171492798630871</v>
+        <v>0.08330813833042942</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.0004948705519807167</v>
+        <v>0.01810865614559056</v>
       </c>
       <c r="C46">
-        <v>0.0004793500962793116</v>
+        <v>0.0106399888543926</v>
       </c>
       <c r="D46">
-        <v>5.247834344688308e-06</v>
+        <v>0.0001689486969750527</v>
       </c>
       <c r="E46">
-        <v>0.0003992338730203079</v>
+        <v>0.00874693207509283</v>
       </c>
       <c r="F46">
-        <v>0.000187925131923187</v>
+        <v>0.004029113413060071</v>
       </c>
       <c r="G46">
-        <v>4.146600750642543e-07</v>
+        <v>1.744104106340164e-05</v>
       </c>
       <c r="H46">
-        <v>0.002373103476488085</v>
+        <v>0.07400982130231896</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0005176689452168849</v>
+        <v>0.01357498047371192</v>
       </c>
       <c r="C47">
-        <v>0.0004838389155707576</v>
+        <v>0.01209059898777061</v>
       </c>
       <c r="D47">
-        <v>5.353393604950763e-06</v>
+        <v>0.000146938970181901</v>
       </c>
       <c r="E47">
-        <v>0.0003678786675868634</v>
+        <v>0.01070216216661577</v>
       </c>
       <c r="F47">
-        <v>0.0001725967412520113</v>
+        <v>0.005892153358638093</v>
       </c>
       <c r="G47">
-        <v>3.784152033608018e-07</v>
+        <v>1.366656104585918e-05</v>
       </c>
       <c r="H47">
-        <v>0.002172836076771355</v>
+        <v>0.06812920649519076</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.000525204454556634</v>
+        <v>0.02369920030238945</v>
       </c>
       <c r="C48">
-        <v>0.0007156274580086693</v>
+        <v>0.01450630696243265</v>
       </c>
       <c r="D48">
-        <v>5.009199898739981e-06</v>
+        <v>0.0002570450547862167</v>
       </c>
       <c r="E48">
-        <v>0.0003818196976214252</v>
+        <v>0.01161356909232736</v>
       </c>
       <c r="F48">
-        <v>0.000135923633240355</v>
+        <v>0.006178643582918985</v>
       </c>
       <c r="G48">
-        <v>4.865756175789502e-07</v>
+        <v>2.355036211339728e-05</v>
       </c>
       <c r="H48">
-        <v>0.001933464587969414</v>
+        <v>0.07023099062514671</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0004303350331820662</v>
+        <v>0.01232555562253755</v>
       </c>
       <c r="C49">
-        <v>0.0008954583332729569</v>
+        <v>0.0109035082503438</v>
       </c>
       <c r="D49">
-        <v>6.029408275952913e-06</v>
+        <v>0.0001270151161824103</v>
       </c>
       <c r="E49">
-        <v>0.0004317256993142444</v>
+        <v>0.008145045376467184</v>
       </c>
       <c r="F49">
-        <v>0.0001699474654109415</v>
+        <v>0.00362483247486828</v>
       </c>
       <c r="G49">
-        <v>4.119558007915916e-07</v>
+        <v>1.889289554102411e-05</v>
       </c>
       <c r="H49">
-        <v>0.001897169990080536</v>
+        <v>0.04468430761565611</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0004994291693689195</v>
+        <v>0.01478095497606266</v>
       </c>
       <c r="C50">
-        <v>0.0005391545464271696</v>
+        <v>0.0116489453348949</v>
       </c>
       <c r="D50">
-        <v>4.56028466773238e-06</v>
+        <v>0.0001457677036030437</v>
       </c>
       <c r="E50">
-        <v>0.0004186457695431696</v>
+        <v>0.01141105005499887</v>
       </c>
       <c r="F50">
-        <v>0.0001382143380402961</v>
+        <v>0.005024121753572281</v>
       </c>
       <c r="G50">
-        <v>5.644028062227761e-07</v>
+        <v>1.244768960578672e-05</v>
       </c>
       <c r="H50">
-        <v>0.001740568278713863</v>
+        <v>0.07462164686173453</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.000476306787185524</v>
+        <v>0.01805385828910189</v>
       </c>
       <c r="C51">
-        <v>0.0006318842261592644</v>
+        <v>0.01486998990873764</v>
       </c>
       <c r="D51">
-        <v>5.667634434670201e-06</v>
+        <v>0.0002326780519796753</v>
       </c>
       <c r="E51">
-        <v>0.0003154394385922943</v>
+        <v>0.01429976041069297</v>
       </c>
       <c r="F51">
-        <v>0.0001192067280093938</v>
+        <v>0.005956971772326059</v>
       </c>
       <c r="G51">
-        <v>4.400558834147465e-07</v>
+        <v>2.24707028972635e-05</v>
       </c>
       <c r="H51">
-        <v>0.001394952486057828</v>
+        <v>0.06485175898703516</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.000393601491782562</v>
+        <v>0.01772910728794576</v>
       </c>
       <c r="C52">
-        <v>0.0004863205467686222</v>
+        <v>0.02988705478878919</v>
       </c>
       <c r="D52">
-        <v>5.752751785664054e-06</v>
+        <v>0.0003691747967687374</v>
       </c>
       <c r="E52">
-        <v>0.000359781700057658</v>
+        <v>0.01580424399774055</v>
       </c>
       <c r="F52">
-        <v>0.0001742667069469498</v>
+        <v>0.01006832795249195</v>
       </c>
       <c r="G52">
-        <v>4.2361580276487e-07</v>
+        <v>1.83387605073851e-05</v>
       </c>
       <c r="H52">
-        <v>0.00197815803251016</v>
+        <v>0.1042393044856406</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0004940194710832114</v>
+        <v>0.02252766728672365</v>
       </c>
       <c r="C53">
-        <v>0.0006393354746959328</v>
+        <v>0.02140406204475187</v>
       </c>
       <c r="D53">
-        <v>5.244624379450643e-06</v>
+        <v>0.0003091641446707537</v>
       </c>
       <c r="E53">
-        <v>0.0003827354397601798</v>
+        <v>0.01586722440030179</v>
       </c>
       <c r="F53">
-        <v>0.0002089704420696084</v>
+        <v>0.00800770201097668</v>
       </c>
       <c r="G53">
-        <v>3.962604676395566e-07</v>
+        <v>2.737787991673981e-05</v>
       </c>
       <c r="H53">
-        <v>0.002116846636285532</v>
+        <v>0.09777923763760822</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0004152110644558517</v>
+        <v>0.01656357265936028</v>
       </c>
       <c r="C54">
-        <v>0.0003361566125925986</v>
+        <v>0.010913803190192</v>
       </c>
       <c r="D54">
-        <v>3.782559484075018e-06</v>
+        <v>0.0001740199745847509</v>
       </c>
       <c r="E54">
-        <v>0.0003467905327680727</v>
+        <v>0.01555292255589049</v>
       </c>
       <c r="F54">
-        <v>0.0001447198404206967</v>
+        <v>0.005838751923769556</v>
       </c>
       <c r="G54">
-        <v>3.261870789450131e-07</v>
+        <v>1.498707498426308e-05</v>
       </c>
       <c r="H54">
-        <v>0.001621451275502934</v>
+        <v>0.06141343643763288</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.0004966216908054571</v>
+        <v>0.02039972511102124</v>
       </c>
       <c r="C55">
-        <v>0.000710176377256609</v>
+        <v>0.02357961570673919</v>
       </c>
       <c r="D55">
-        <v>5.358136940685182e-06</v>
+        <v>0.00016725083562818</v>
       </c>
       <c r="E55">
-        <v>0.0002732530740042589</v>
+        <v>0.01687792153922478</v>
       </c>
       <c r="F55">
-        <v>0.000132837009205067</v>
+        <v>0.007709441671617843</v>
       </c>
       <c r="G55">
-        <v>4.130745976195205e-07</v>
+        <v>2.337947908942931e-05</v>
       </c>
       <c r="H55">
-        <v>0.001467908594879773</v>
+        <v>0.1126358579699368</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.00037167129194166</v>
+        <v>0.01667413671280719</v>
       </c>
       <c r="C56">
-        <v>0.0003985377214033278</v>
+        <v>0.01486370679969547</v>
       </c>
       <c r="D56">
-        <v>4.593969311294854e-06</v>
+        <v>0.0001843409418952388</v>
       </c>
       <c r="E56">
-        <v>0.0003844785863953144</v>
+        <v>0.01205239098188472</v>
       </c>
       <c r="F56">
-        <v>9.31926533218695e-05</v>
+        <v>0.007080223929924081</v>
       </c>
       <c r="G56">
-        <v>5.668092731566112e-07</v>
+        <v>1.537313829273379e-05</v>
       </c>
       <c r="H56">
-        <v>0.001183483824780143</v>
+        <v>0.07930117172572185</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0004307876734541033</v>
+        <v>0.0143816402298105</v>
       </c>
       <c r="C57">
-        <v>0.0003576271680689784</v>
+        <v>0.01625053181908795</v>
       </c>
       <c r="D57">
-        <v>4.420280822451693e-06</v>
+        <v>0.0001974272274817157</v>
       </c>
       <c r="E57">
-        <v>0.000326309523735343</v>
+        <v>0.01758506464969953</v>
       </c>
       <c r="F57">
-        <v>0.000152771914940592</v>
+        <v>0.005885377946757793</v>
       </c>
       <c r="G57">
-        <v>3.605148065648626e-07</v>
+        <v>2.335052003817686e-05</v>
       </c>
       <c r="H57">
-        <v>0.001903539368394928</v>
+        <v>0.06412775791383915</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0003954530047225415</v>
+        <v>0.02388215941533489</v>
       </c>
       <c r="C58">
-        <v>0.0004506247926780974</v>
+        <v>0.01731604709562254</v>
       </c>
       <c r="D58">
-        <v>4.947252552349436e-06</v>
+        <v>0.0002138416852309629</v>
       </c>
       <c r="E58">
-        <v>0.0003660729488161302</v>
+        <v>0.01419951691241252</v>
       </c>
       <c r="F58">
-        <v>0.0001305377300438106</v>
+        <v>0.006882189893966264</v>
       </c>
       <c r="G58">
-        <v>5.221411225694683e-07</v>
+        <v>2.485958706726296e-05</v>
       </c>
       <c r="H58">
-        <v>0.001660469871298449</v>
+        <v>0.09991766717104852</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0005530647849321922</v>
+        <v>0.01097524086998776</v>
       </c>
       <c r="C59">
-        <v>0.0005541184177555842</v>
+        <v>0.01118894789598124</v>
       </c>
       <c r="D59">
-        <v>5.495035806158039e-06</v>
+        <v>0.0001189376339292601</v>
       </c>
       <c r="E59">
-        <v>0.0003282072178334139</v>
+        <v>0.008642319475898233</v>
       </c>
       <c r="F59">
-        <v>0.0001893817760760179</v>
+        <v>0.003699534727834404</v>
       </c>
       <c r="G59">
-        <v>5.15609508105394e-07</v>
+        <v>1.621645490758727e-05</v>
       </c>
       <c r="H59">
-        <v>0.002417537435567775</v>
+        <v>0.03708769666728909</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0003386600468152188</v>
+        <v>0.0132746832408307</v>
       </c>
       <c r="C60">
-        <v>0.0005044266843081167</v>
+        <v>0.01057520449362387</v>
       </c>
       <c r="D60">
-        <v>4.090856915058055e-06</v>
+        <v>0.0001500888689758545</v>
       </c>
       <c r="E60">
-        <v>0.00043490229406436</v>
+        <v>0.009326183367902943</v>
       </c>
       <c r="F60">
-        <v>0.0001555638267077259</v>
+        <v>0.005097280699084016</v>
       </c>
       <c r="G60">
-        <v>4.61896590311338e-07</v>
+        <v>2.00708409500295e-05</v>
       </c>
       <c r="H60">
-        <v>0.001784901322457097</v>
+        <v>0.04645307651309869</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.0005220369229998346</v>
+        <v>0.02387435167241426</v>
       </c>
       <c r="C61">
-        <v>0.0009203075115117709</v>
+        <v>0.02031878447247686</v>
       </c>
       <c r="D61">
-        <v>4.956681860084349e-06</v>
+        <v>0.0003350007199342828</v>
       </c>
       <c r="E61">
-        <v>0.0003290491546518689</v>
+        <v>0.01358260239136416</v>
       </c>
       <c r="F61">
-        <v>0.000166415515034574</v>
+        <v>0.008533382342669461</v>
       </c>
       <c r="G61">
-        <v>4.814200425863967e-07</v>
+        <v>2.247818596163277e-05</v>
       </c>
       <c r="H61">
-        <v>0.001767629867577607</v>
+        <v>0.08563906143391012</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0006128947363060687</v>
+        <v>0.02067847096725369</v>
       </c>
       <c r="C62">
-        <v>0.000787701587693003</v>
+        <v>0.01614826157780497</v>
       </c>
       <c r="D62">
-        <v>8.497680909447388e-06</v>
+        <v>0.0002528470458748258</v>
       </c>
       <c r="E62">
-        <v>0.0003731232544822429</v>
+        <v>0.01096700701331758</v>
       </c>
       <c r="F62">
-        <v>0.0001527171346300405</v>
+        <v>0.00668687428724362</v>
       </c>
       <c r="G62">
-        <v>6.474829770237054e-07</v>
+        <v>2.843543352288905e-05</v>
       </c>
       <c r="H62">
-        <v>0.001772860706407606</v>
+        <v>0.05603927086445445</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0004815052057592647</v>
+        <v>0.01111123649304238</v>
       </c>
       <c r="C63">
-        <v>0.0004427061665574529</v>
+        <v>0.0112365199297149</v>
       </c>
       <c r="D63">
-        <v>4.329878158506092e-06</v>
+        <v>9.998209032364542e-05</v>
       </c>
       <c r="E63">
-        <v>0.0003568111796583827</v>
+        <v>0.007143348869018419</v>
       </c>
       <c r="F63">
-        <v>0.0001396595068194131</v>
+        <v>0.003445391456156107</v>
       </c>
       <c r="G63">
-        <v>5.240678543378504e-07</v>
+        <v>1.144411359337784e-05</v>
       </c>
       <c r="H63">
-        <v>0.001738520184726136</v>
+        <v>0.04420812129045947</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0005520787215842601</v>
+        <v>0.01430371146091189</v>
       </c>
       <c r="C64">
-        <v>0.0008265502161891082</v>
+        <v>0.01108250354917901</v>
       </c>
       <c r="D64">
-        <v>4.70869983347583e-06</v>
+        <v>0.0001378545919357165</v>
       </c>
       <c r="E64">
-        <v>0.0003963558501303214</v>
+        <v>0.01111516223289471</v>
       </c>
       <c r="F64">
-        <v>0.0001964543526000811</v>
+        <v>0.003551924063656425</v>
       </c>
       <c r="G64">
-        <v>5.530793331228205e-07</v>
+        <v>1.83388591845319e-05</v>
       </c>
       <c r="H64">
-        <v>0.002241823243994248</v>
+        <v>0.04431318914595458</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0004109890251075256</v>
+        <v>0.02262072075185345</v>
       </c>
       <c r="C65">
-        <v>0.0005719601820096073</v>
+        <v>0.01059061664979837</v>
       </c>
       <c r="D65">
-        <v>4.366543620509477e-06</v>
+        <v>0.0002937818450069456</v>
       </c>
       <c r="E65">
-        <v>0.000308978413934236</v>
+        <v>0.01377517545720085</v>
       </c>
       <c r="F65">
-        <v>0.0001239302413019404</v>
+        <v>0.006215399033583218</v>
       </c>
       <c r="G65">
-        <v>4.079784603446074e-07</v>
+        <v>2.118420130260768e-05</v>
       </c>
       <c r="H65">
-        <v>0.001623012025257443</v>
+        <v>0.05493575462075347</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.0004723001422505262</v>
+        <v>0.01176499909887911</v>
       </c>
       <c r="C66">
-        <v>0.000518497273379161</v>
+        <v>0.0147958444074397</v>
       </c>
       <c r="D66">
-        <v>5.17446482669888e-06</v>
+        <v>9.309478998694878e-05</v>
       </c>
       <c r="E66">
-        <v>0.0003868465988881595</v>
+        <v>0.01095212682796208</v>
       </c>
       <c r="F66">
-        <v>0.0001867328899884573</v>
+        <v>0.005180876383020002</v>
       </c>
       <c r="G66">
-        <v>4.384232385073549e-07</v>
+        <v>1.614222478888142e-05</v>
       </c>
       <c r="H66">
-        <v>0.001894586614244285</v>
+        <v>0.07419839625057256</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0004759939858463522</v>
+        <v>0.01607294212150766</v>
       </c>
       <c r="C67">
-        <v>0.0004743693288059543</v>
+        <v>0.0168269244498375</v>
       </c>
       <c r="D67">
-        <v>6.347510254153398e-06</v>
+        <v>0.0001416848871431894</v>
       </c>
       <c r="E67">
-        <v>0.000361357481242388</v>
+        <v>0.01541007602228375</v>
       </c>
       <c r="F67">
-        <v>0.0001646727800906714</v>
+        <v>0.006175230634055327</v>
       </c>
       <c r="G67">
-        <v>4.657317172798717e-07</v>
+        <v>1.715907989554678e-05</v>
       </c>
       <c r="H67">
-        <v>0.002059669908430644</v>
+        <v>0.08747372753252451</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.0004722911085505043</v>
+        <v>0.0174100842761786</v>
       </c>
       <c r="C68">
-        <v>0.0006359397361023194</v>
+        <v>0.01291080203973567</v>
       </c>
       <c r="D68">
-        <v>5.333708814493486e-06</v>
+        <v>0.0001792663876482371</v>
       </c>
       <c r="E68">
-        <v>0.0003421823358925869</v>
+        <v>0.008609151889758396</v>
       </c>
       <c r="F68">
-        <v>0.0001526517163935709</v>
+        <v>0.004659865536767053</v>
       </c>
       <c r="G68">
-        <v>4.138888308866208e-07</v>
+        <v>1.482112071623765e-05</v>
       </c>
       <c r="H68">
-        <v>0.00159577845514281</v>
+        <v>0.05826140366068615</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0004024967595128862</v>
+        <v>0.01858485927566522</v>
       </c>
       <c r="C69">
-        <v>0.0003263170122940216</v>
+        <v>0.0166271850709045</v>
       </c>
       <c r="D69">
-        <v>4.460968973116976e-06</v>
+        <v>0.000279776020281986</v>
       </c>
       <c r="E69">
-        <v>0.0003903018483936958</v>
+        <v>0.01173137142645065</v>
       </c>
       <c r="F69">
-        <v>0.0001135145021916078</v>
+        <v>0.006383135996804934</v>
       </c>
       <c r="G69">
-        <v>3.54252872986957e-07</v>
+        <v>2.513124458395745e-05</v>
       </c>
       <c r="H69">
-        <v>0.001323825613480345</v>
+        <v>0.05264526759389544</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0004851384480450415</v>
+        <v>0.01444251855079823</v>
       </c>
       <c r="C70">
-        <v>0.0003863950282147326</v>
+        <v>0.009514821454747682</v>
       </c>
       <c r="D70">
-        <v>4.60400337566664e-06</v>
+        <v>0.0001559194012224561</v>
       </c>
       <c r="E70">
-        <v>0.0003491999573858927</v>
+        <v>0.010630285050068</v>
       </c>
       <c r="F70">
-        <v>0.0001490673652627867</v>
+        <v>0.00390290696540972</v>
       </c>
       <c r="G70">
-        <v>4.920678558379168e-07</v>
+        <v>1.91719722364211e-05</v>
       </c>
       <c r="H70">
-        <v>0.001935221318780998</v>
+        <v>0.03879009079929798</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0003178518387512282</v>
+        <v>0.02318167126519087</v>
       </c>
       <c r="C71">
-        <v>0.0006388866892700898</v>
+        <v>0.009095144058676641</v>
       </c>
       <c r="D71">
-        <v>4.069067329387884e-06</v>
+        <v>0.0002413787985670546</v>
       </c>
       <c r="E71">
-        <v>0.0003982470281691806</v>
+        <v>0.0107465355488126</v>
       </c>
       <c r="F71">
-        <v>0.0001273484988135869</v>
+        <v>0.005547171812332505</v>
       </c>
       <c r="G71">
-        <v>4.840572945427218e-07</v>
+        <v>1.991001269404826e-05</v>
       </c>
       <c r="H71">
-        <v>0.0012759259170147</v>
+        <v>0.05650159440358866</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0003496063120829518</v>
+        <v>0.01727588763195426</v>
       </c>
       <c r="C72">
-        <v>0.0004516778837993045</v>
+        <v>0.007881048190448055</v>
       </c>
       <c r="D72">
-        <v>3.88265988455027e-06</v>
+        <v>0.0001595463895591925</v>
       </c>
       <c r="E72">
-        <v>0.000358690541668072</v>
+        <v>0.008254674806507102</v>
       </c>
       <c r="F72">
-        <v>0.0001390939795801097</v>
+        <v>0.003905819305438871</v>
       </c>
       <c r="G72">
-        <v>3.917319362709933e-07</v>
+        <v>1.862566264873147e-05</v>
       </c>
       <c r="H72">
-        <v>0.001555640322588582</v>
+        <v>0.04381206646467765</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0003686860912510339</v>
+        <v>0.01633453432339795</v>
       </c>
       <c r="C73">
-        <v>0.0004008664660965005</v>
+        <v>0.0128144939944505</v>
       </c>
       <c r="D73">
-        <v>4.351701448395641e-06</v>
+        <v>0.000161363285129205</v>
       </c>
       <c r="E73">
-        <v>0.000267151603724099</v>
+        <v>0.008134956132552849</v>
       </c>
       <c r="F73">
-        <v>0.0001726709339848829</v>
+        <v>0.004442767985629548</v>
       </c>
       <c r="G73">
-        <v>4.135906022930802e-07</v>
+        <v>1.62192652749773e-05</v>
       </c>
       <c r="H73">
-        <v>0.001874264712029646</v>
+        <v>0.04879523832543912</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0003713564774072266</v>
+        <v>0.01702013447853819</v>
       </c>
       <c r="C74">
-        <v>0.0003335714190077355</v>
+        <v>0.01342350275876797</v>
       </c>
       <c r="D74">
-        <v>3.993757014889778e-06</v>
+        <v>0.0002353594915105848</v>
       </c>
       <c r="E74">
-        <v>0.0003491889693306343</v>
+        <v>0.01111321215313838</v>
       </c>
       <c r="F74">
-        <v>0.0001405113137885616</v>
+        <v>0.004976315760640056</v>
       </c>
       <c r="G74">
-        <v>2.2268726096384e-07</v>
+        <v>1.988479920614368e-05</v>
       </c>
       <c r="H74">
-        <v>0.00160531298468476</v>
+        <v>0.05490951237074684</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0003379032852701788</v>
+        <v>0.01167489556317197</v>
       </c>
       <c r="C75">
-        <v>0.000374567128099571</v>
+        <v>0.01845443732875871</v>
       </c>
       <c r="D75">
-        <v>4.276824682563467e-06</v>
+        <v>0.0001684431714379874</v>
       </c>
       <c r="E75">
-        <v>0.0003726062245331853</v>
+        <v>0.01145051615071646</v>
       </c>
       <c r="F75">
-        <v>0.000121345435220189</v>
+        <v>0.006652966058492325</v>
       </c>
       <c r="G75">
-        <v>5.533945359964708e-07</v>
+        <v>1.334188001929747e-05</v>
       </c>
       <c r="H75">
-        <v>0.001409446575110232</v>
+        <v>0.08103165820112214</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0003302378832714767</v>
+        <v>0.01589817683394877</v>
       </c>
       <c r="C76">
-        <v>0.0004137647764802554</v>
+        <v>0.01116810485944791</v>
       </c>
       <c r="D76">
-        <v>3.668767954640232e-06</v>
+        <v>0.0001482244575236468</v>
       </c>
       <c r="E76">
-        <v>0.0003552929514548883</v>
+        <v>0.01266700382030244</v>
       </c>
       <c r="F76">
-        <v>0.0001282777452820465</v>
+        <v>0.005007320455532332</v>
       </c>
       <c r="G76">
-        <v>3.237312623630548e-07</v>
+        <v>2.051246499718903e-05</v>
       </c>
       <c r="H76">
-        <v>0.001500340951011471</v>
+        <v>0.05323325432091829</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0005203318349406169</v>
+        <v>0.02086161940245362</v>
       </c>
       <c r="C77">
-        <v>0.0004030917352196278</v>
+        <v>0.01688244960752626</v>
       </c>
       <c r="D77">
-        <v>5.063168864363052e-06</v>
+        <v>0.0002968041312991857</v>
       </c>
       <c r="E77">
-        <v>0.000352377176444066</v>
+        <v>0.01130149454771695</v>
       </c>
       <c r="F77">
-        <v>0.0001990643409629973</v>
+        <v>0.007627297103851027</v>
       </c>
       <c r="G77">
-        <v>3.926043645249744e-07</v>
+        <v>2.253458866928172e-05</v>
       </c>
       <c r="H77">
-        <v>0.002119134799591486</v>
+        <v>0.07036187856026349</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0004150892209267706</v>
+        <v>0.01311841020844773</v>
       </c>
       <c r="C78">
-        <v>0.0005477911084138531</v>
+        <v>0.01925983045263078</v>
       </c>
       <c r="D78">
-        <v>4.618405631481932e-06</v>
+        <v>0.0001527968212089671</v>
       </c>
       <c r="E78">
-        <v>0.0003226208665779781</v>
+        <v>0.01199565758195753</v>
       </c>
       <c r="F78">
-        <v>0.0001732256481526519</v>
+        <v>0.003425277975429621</v>
       </c>
       <c r="G78">
-        <v>4.089937137699853e-07</v>
+        <v>1.748064732673015e-05</v>
       </c>
       <c r="H78">
-        <v>0.002115066046040175</v>
+        <v>0.04259843346522808</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0002919264616958791</v>
+        <v>0.01471817591667143</v>
       </c>
       <c r="C79">
-        <v>0.0004452050129206399</v>
+        <v>0.01504095149150548</v>
       </c>
       <c r="D79">
-        <v>4.418930896820763e-06</v>
+        <v>0.0002130145135432618</v>
       </c>
       <c r="E79">
-        <v>0.000329747088268571</v>
+        <v>0.009631426034317575</v>
       </c>
       <c r="F79">
-        <v>0.0001089787627119552</v>
+        <v>0.00453667975774829</v>
       </c>
       <c r="G79">
-        <v>3.21747576742754e-07</v>
+        <v>1.196323684660847e-05</v>
       </c>
       <c r="H79">
-        <v>0.001288235752898484</v>
+        <v>0.06218683828554611</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0004363036642549696</v>
+        <v>0.01607315801842225</v>
       </c>
       <c r="C80">
-        <v>0.001267641482303258</v>
+        <v>0.01442378773849798</v>
       </c>
       <c r="D80">
-        <v>4.328115567209347e-06</v>
+        <v>0.0001964774983852542</v>
       </c>
       <c r="E80">
-        <v>0.0004598057171899316</v>
+        <v>0.01062786513397197</v>
       </c>
       <c r="F80">
-        <v>0.0001695582544385019</v>
+        <v>0.004319149658970988</v>
       </c>
       <c r="G80">
-        <v>3.504613781953488e-07</v>
+        <v>1.718407142985823e-05</v>
       </c>
       <c r="H80">
-        <v>0.002005464423474985</v>
+        <v>0.04130226766435074</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.000411873479273732</v>
+        <v>0.01083118530116151</v>
       </c>
       <c r="C81">
-        <v>0.0008679031970013651</v>
+        <v>0.02414705251505566</v>
       </c>
       <c r="D81">
-        <v>5.224288211844282e-06</v>
+        <v>0.0001671935625152112</v>
       </c>
       <c r="E81">
-        <v>0.0003788690701472149</v>
+        <v>0.01134950775126435</v>
       </c>
       <c r="F81">
-        <v>0.0001645469135466081</v>
+        <v>0.004258104381388616</v>
       </c>
       <c r="G81">
-        <v>4.727233916915027e-07</v>
+        <v>1.877313738112503e-05</v>
       </c>
       <c r="H81">
-        <v>0.001715112652648943</v>
+        <v>0.04139577999306302</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0003821388870998632</v>
+        <v>0.01257879366124277</v>
       </c>
       <c r="C82">
-        <v>0.0003913328313026827</v>
+        <v>0.01069162986003452</v>
       </c>
       <c r="D82">
-        <v>3.770045924403863e-06</v>
+        <v>0.0001732559941771073</v>
       </c>
       <c r="E82">
-        <v>0.0003565170017952346</v>
+        <v>0.01628258584275663</v>
       </c>
       <c r="F82">
-        <v>0.0001477356271926701</v>
+        <v>0.005601899498131862</v>
       </c>
       <c r="G82">
-        <v>3.662590149579504e-07</v>
+        <v>2.550821370331011e-05</v>
       </c>
       <c r="H82">
-        <v>0.001705602930961567</v>
+        <v>0.05384740591549216</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0003990045498453118</v>
+        <v>0.02742496815619861</v>
       </c>
       <c r="C83">
-        <v>0.0007589312058993032</v>
+        <v>0.02293063504652399</v>
       </c>
       <c r="D83">
-        <v>4.634421362615126e-06</v>
+        <v>0.0002044723092198065</v>
       </c>
       <c r="E83">
-        <v>0.0004161510130911973</v>
+        <v>0.01754395639873719</v>
       </c>
       <c r="F83">
-        <v>0.0001598945168358288</v>
+        <v>0.008351997790263648</v>
       </c>
       <c r="G83">
-        <v>5.515337385998741e-07</v>
+        <v>2.718772674231173e-05</v>
       </c>
       <c r="H83">
-        <v>0.002017450196377413</v>
+        <v>0.1221370796234462</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0004313545735153306</v>
+        <v>0.01297971836793867</v>
       </c>
       <c r="C84">
-        <v>0.0004291180122408026</v>
+        <v>0.01572541417463634</v>
       </c>
       <c r="D84">
-        <v>6.002898818004608e-06</v>
+        <v>0.000145505934436413</v>
       </c>
       <c r="E84">
-        <v>0.000344814728873287</v>
+        <v>0.01038423178063685</v>
       </c>
       <c r="F84">
-        <v>0.0001336264445880662</v>
+        <v>0.005054852734213459</v>
       </c>
       <c r="G84">
-        <v>4.546951433892209e-07</v>
+        <v>1.258312667472133e-05</v>
       </c>
       <c r="H84">
-        <v>0.001579787417031553</v>
+        <v>0.06089196256601745</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0005094121288301617</v>
+        <v>0.01201270649620574</v>
       </c>
       <c r="C85">
-        <v>0.000646888075433206</v>
+        <v>0.02087034983097483</v>
       </c>
       <c r="D85">
-        <v>4.572931019672195e-06</v>
+        <v>0.0001886795937606541</v>
       </c>
       <c r="E85">
-        <v>0.000377757594019314</v>
+        <v>0.0122670255381237</v>
       </c>
       <c r="F85">
-        <v>0.0001826627383573985</v>
+        <v>0.007102126870649563</v>
       </c>
       <c r="G85">
-        <v>6.407930638614379e-07</v>
+        <v>1.484888819507399e-05</v>
       </c>
       <c r="H85">
-        <v>0.002005907430228121</v>
+        <v>0.08984745394786496</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0004222207246096948</v>
+        <v>0.01841746846237903</v>
       </c>
       <c r="C86">
-        <v>0.0003642381755942713</v>
+        <v>0.01519420523864013</v>
       </c>
       <c r="D86">
-        <v>4.336612048664921e-06</v>
+        <v>0.0001908836184517441</v>
       </c>
       <c r="E86">
-        <v>0.0003106880138604582</v>
+        <v>0.015485287323768</v>
       </c>
       <c r="F86">
-        <v>0.0001463331638766296</v>
+        <v>0.007632842201855928</v>
       </c>
       <c r="G86">
-        <v>3.793901642141612e-07</v>
+        <v>1.980182440580345e-05</v>
       </c>
       <c r="H86">
-        <v>0.001815026900533698</v>
+        <v>0.0874347100319708</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0004772362525148937</v>
+        <v>0.02271317286213469</v>
       </c>
       <c r="C87">
-        <v>0.0005641727078527584</v>
+        <v>0.01032182375902303</v>
       </c>
       <c r="D87">
-        <v>5.039001357561014e-06</v>
+        <v>0.0002488146056967267</v>
       </c>
       <c r="E87">
-        <v>0.0003189869024132176</v>
+        <v>0.01121549486109668</v>
       </c>
       <c r="F87">
-        <v>0.0001616064940803373</v>
+        <v>0.006018289492129048</v>
       </c>
       <c r="G87">
-        <v>5.598421508601789e-07</v>
+        <v>2.357224155845432e-05</v>
       </c>
       <c r="H87">
-        <v>0.002013095159326444</v>
+        <v>0.05971991740661042</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0003507193883337197</v>
+        <v>0.02110176550221676</v>
       </c>
       <c r="C88">
-        <v>0.0005669043114476479</v>
+        <v>0.01784616252062127</v>
       </c>
       <c r="D88">
-        <v>4.215198897170814e-06</v>
+        <v>0.000247011419525644</v>
       </c>
       <c r="E88">
-        <v>0.0003683207823599653</v>
+        <v>0.01291522405244736</v>
       </c>
       <c r="F88">
-        <v>0.0001539353082004195</v>
+        <v>0.007311717580440759</v>
       </c>
       <c r="G88">
-        <v>4.688199864988128e-07</v>
+        <v>1.828394508707482e-05</v>
       </c>
       <c r="H88">
-        <v>0.001749916718722784</v>
+        <v>0.0963669088184477</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0003992661517449405</v>
+        <v>0.0135393112209233</v>
       </c>
       <c r="C89">
-        <v>0.0003785663281470409</v>
+        <v>0.01403555705550622</v>
       </c>
       <c r="D89">
-        <v>4.135762869197583e-06</v>
+        <v>0.0001358809201048333</v>
       </c>
       <c r="E89">
-        <v>0.0003478007450824161</v>
+        <v>0.01353236077787976</v>
       </c>
       <c r="F89">
-        <v>0.0001713481005945641</v>
+        <v>0.005164434474365695</v>
       </c>
       <c r="G89">
-        <v>4.733164034527006e-07</v>
+        <v>1.304732570999968e-05</v>
       </c>
       <c r="H89">
-        <v>0.00178570546273417</v>
+        <v>0.07136240444654236</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0004359139024215153</v>
+        <v>0.01611601530017084</v>
       </c>
       <c r="C90">
-        <v>0.0005833187126860698</v>
+        <v>0.01468853833596137</v>
       </c>
       <c r="D90">
-        <v>5.549643258645011e-06</v>
+        <v>0.0002356441149181994</v>
       </c>
       <c r="E90">
-        <v>0.00034581238757702</v>
+        <v>0.009885637148049619</v>
       </c>
       <c r="F90">
-        <v>0.0001485956735196298</v>
+        <v>0.006268541605811683</v>
       </c>
       <c r="G90">
-        <v>4.545056023737771e-07</v>
+        <v>1.880575004118667e-05</v>
       </c>
       <c r="H90">
-        <v>0.00157728649336655</v>
+        <v>0.08316668745704586</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0004356241350992229</v>
+        <v>0.009650675935221025</v>
       </c>
       <c r="C91">
-        <v>0.0006794036836974039</v>
+        <v>0.01502401698224231</v>
       </c>
       <c r="D91">
-        <v>4.401243781016258e-06</v>
+        <v>0.0001407987342637624</v>
       </c>
       <c r="E91">
-        <v>0.0004060034806937664</v>
+        <v>0.007713167850153482</v>
       </c>
       <c r="F91">
-        <v>0.0001687285818532482</v>
+        <v>0.004774009656314719</v>
       </c>
       <c r="G91">
-        <v>4.489877679612818e-07</v>
+        <v>1.145604248339558e-05</v>
       </c>
       <c r="H91">
-        <v>0.001755039910034404</v>
+        <v>0.06059251235112036</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0004190233773539716</v>
+        <v>0.02149524225639138</v>
       </c>
       <c r="C92">
-        <v>0.0004651875182974422</v>
+        <v>0.01223867961231597</v>
       </c>
       <c r="D92">
-        <v>4.389381948954632e-06</v>
+        <v>0.0001654134408167556</v>
       </c>
       <c r="E92">
-        <v>0.0004499669626389555</v>
+        <v>0.01140743075256033</v>
       </c>
       <c r="F92">
-        <v>0.0001826139383183314</v>
+        <v>0.005670708462608149</v>
       </c>
       <c r="G92">
-        <v>5.432137216483219e-07</v>
+        <v>2.601036936512571e-05</v>
       </c>
       <c r="H92">
-        <v>0.0019620773973168</v>
+        <v>0.06866759874731526</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0004115618896204717</v>
+        <v>0.01888902536699925</v>
       </c>
       <c r="C93">
-        <v>0.0005977244492808356</v>
+        <v>0.007893007749386931</v>
       </c>
       <c r="D93">
-        <v>5.629624033498997e-06</v>
+        <v>0.0001884921282141161</v>
       </c>
       <c r="E93">
-        <v>0.0003805225629426684</v>
+        <v>0.01402821623258267</v>
       </c>
       <c r="F93">
-        <v>0.0001432315543093954</v>
+        <v>0.004578626900141779</v>
       </c>
       <c r="G93">
-        <v>4.498616624833488e-07</v>
+        <v>1.973251511950534e-05</v>
       </c>
       <c r="H93">
-        <v>0.001593833070353861</v>
+        <v>0.04444358998939592</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0004526098155807548</v>
+        <v>0.01358056631114877</v>
       </c>
       <c r="C94">
-        <v>0.0004580206812580327</v>
+        <v>0.01162489610320081</v>
       </c>
       <c r="D94">
-        <v>4.261151990273885e-06</v>
+        <v>0.0001742494725397525</v>
       </c>
       <c r="E94">
-        <v>0.0003019518418930162</v>
+        <v>0.009063557071964948</v>
       </c>
       <c r="F94">
-        <v>0.0001329196073602749</v>
+        <v>0.00436968637054859</v>
       </c>
       <c r="G94">
-        <v>5.025013601820272e-07</v>
+        <v>2.026098511673045e-05</v>
       </c>
       <c r="H94">
-        <v>0.001662488526012171</v>
+        <v>0.0470590883463484</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.0004169278088938137</v>
+        <v>0.008736614137973508</v>
       </c>
       <c r="C95">
-        <v>0.0005348677387277167</v>
+        <v>0.01131995072941241</v>
       </c>
       <c r="D95">
-        <v>4.628664967958722e-06</v>
+        <v>7.77525043807585e-05</v>
       </c>
       <c r="E95">
-        <v>0.0003873155480210907</v>
+        <v>0.005978866092681091</v>
       </c>
       <c r="F95">
-        <v>0.0001487309965725242</v>
+        <v>0.002518476328214204</v>
       </c>
       <c r="G95">
-        <v>2.994423107835992e-07</v>
+        <v>1.215476801985931e-05</v>
       </c>
       <c r="H95">
-        <v>0.001724789557134634</v>
+        <v>0.02694461813967318</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0003471554154234026</v>
+        <v>0.0191885847625896</v>
       </c>
       <c r="C96">
-        <v>0.0005861912519525937</v>
+        <v>0.04231750769749427</v>
       </c>
       <c r="D96">
-        <v>4.664479056332665e-06</v>
+        <v>0.0002551780897800003</v>
       </c>
       <c r="E96">
-        <v>0.0004196672456829621</v>
+        <v>0.0116820397917763</v>
       </c>
       <c r="F96">
-        <v>0.0001351933407662479</v>
+        <v>0.005984441219386991</v>
       </c>
       <c r="G96">
-        <v>3.360093160897454e-07</v>
+        <v>2.056962587325402e-05</v>
       </c>
       <c r="H96">
-        <v>0.001534563003667228</v>
+        <v>0.06181647264570983</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.0004835654652432431</v>
+        <v>0.01663087662891352</v>
       </c>
       <c r="C97">
-        <v>0.0004837352244039652</v>
+        <v>0.01735230990882885</v>
       </c>
       <c r="D97">
-        <v>4.137843602682348e-06</v>
+        <v>0.000188120707921781</v>
       </c>
       <c r="E97">
-        <v>0.0003538582391384645</v>
+        <v>0.01976613155536372</v>
       </c>
       <c r="F97">
-        <v>0.0001374250250975276</v>
+        <v>0.00844174745250852</v>
       </c>
       <c r="G97">
-        <v>4.955795468478447e-07</v>
+        <v>1.433981067928699e-05</v>
       </c>
       <c r="H97">
-        <v>0.001598278262953075</v>
+        <v>0.09430136360112831</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0005720998567353537</v>
+        <v>0.01606898715796759</v>
       </c>
       <c r="C98">
-        <v>0.0005354861002448601</v>
+        <v>0.01068979783685222</v>
       </c>
       <c r="D98">
-        <v>5.45736058450096e-06</v>
+        <v>0.00019798067658278</v>
       </c>
       <c r="E98">
-        <v>0.0003368892655589578</v>
+        <v>0.01048555057458534</v>
       </c>
       <c r="F98">
-        <v>0.0001346242952910551</v>
+        <v>0.004518587105501517</v>
       </c>
       <c r="G98">
-        <v>4.856948158696498e-07</v>
+        <v>1.642667120557091e-05</v>
       </c>
       <c r="H98">
-        <v>0.001804672929984294</v>
+        <v>0.04099670045530286</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.0004900254877700954</v>
+        <v>0.0179596678061514</v>
       </c>
       <c r="C99">
-        <v>0.0003846678114561793</v>
+        <v>0.009641592298995373</v>
       </c>
       <c r="D99">
-        <v>4.764191100085039e-06</v>
+        <v>0.000204307538241568</v>
       </c>
       <c r="E99">
-        <v>0.0003253991188206164</v>
+        <v>0.01072243602968919</v>
       </c>
       <c r="F99">
-        <v>0.0001509353320492812</v>
+        <v>0.005149618653658599</v>
       </c>
       <c r="G99">
-        <v>4.800601109139713e-07</v>
+        <v>1.843986220522811e-05</v>
       </c>
       <c r="H99">
-        <v>0.001793099564723508</v>
+        <v>0.05524032021269539</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0003692022570541941</v>
+        <v>0.01635545220147105</v>
       </c>
       <c r="C100">
-        <v>0.0003249292549706165</v>
+        <v>0.02039181155758501</v>
       </c>
       <c r="D100">
-        <v>4.635404911662466e-06</v>
+        <v>0.000290915209887891</v>
       </c>
       <c r="E100">
-        <v>0.0003360193047833336</v>
+        <v>0.01066583487450881</v>
       </c>
       <c r="F100">
-        <v>0.0001776588017715933</v>
+        <v>0.007462711312400405</v>
       </c>
       <c r="G100">
-        <v>3.349972673197925e-07</v>
+        <v>1.529628729433466e-05</v>
       </c>
       <c r="H100">
-        <v>0.001854918321540455</v>
+        <v>0.07459861295192648</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0004759078867530073</v>
+        <v>0.01114157453712012</v>
       </c>
       <c r="C101">
-        <v>0.0004395907330060943</v>
+        <v>0.009979382041799878</v>
       </c>
       <c r="D101">
-        <v>7.305775056352754e-06</v>
+        <v>0.0001236626115756837</v>
       </c>
       <c r="E101">
-        <v>0.0003906492219697625</v>
+        <v>0.007211486314516537</v>
       </c>
       <c r="F101">
-        <v>0.0001551517162432721</v>
+        <v>0.003644742442324525</v>
       </c>
       <c r="G101">
-        <v>6.154475736440855e-07</v>
+        <v>1.54203111681659e-05</v>
       </c>
       <c r="H101">
-        <v>0.001803521510670611</v>
+        <v>0.03626499719903187</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0004301497086778874</v>
+        <v>0.01374893887253962</v>
       </c>
       <c r="C102">
-        <v>0.0005938960857537713</v>
+        <v>0.01105633701868187</v>
       </c>
       <c r="D102">
-        <v>6.000350266074553e-06</v>
+        <v>0.0001979793887918822</v>
       </c>
       <c r="E102">
-        <v>0.0004470233472822618</v>
+        <v>0.01399507038521717</v>
       </c>
       <c r="F102">
-        <v>0.0001896330746725375</v>
+        <v>0.005315953262405732</v>
       </c>
       <c r="G102">
-        <v>5.319312963005597e-07</v>
+        <v>1.988958723866183e-05</v>
       </c>
       <c r="H102">
-        <v>0.002164537127319401</v>
+        <v>0.05503464835129022</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.000419353640899689</v>
+        <v>0.01495777158706369</v>
       </c>
       <c r="C103">
-        <v>0.0004315802312829677</v>
+        <v>0.008554312910106573</v>
       </c>
       <c r="D103">
-        <v>4.107625139197198e-06</v>
+        <v>0.0001523408720780083</v>
       </c>
       <c r="E103">
-        <v>0.0004036849561734271</v>
+        <v>0.01065461098799907</v>
       </c>
       <c r="F103">
-        <v>0.0001491888119469602</v>
+        <v>0.004293373336558071</v>
       </c>
       <c r="G103">
-        <v>4.631780779879457e-07</v>
+        <v>1.791317023518127e-05</v>
       </c>
       <c r="H103">
-        <v>0.001732916359147618</v>
+        <v>0.04566380593485447</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.0005302185259463178</v>
+        <v>0.01642068361029778</v>
       </c>
       <c r="C104">
-        <v>0.0005629060569505451</v>
+        <v>0.01261847796933949</v>
       </c>
       <c r="D104">
-        <v>6.57827490202043e-06</v>
+        <v>0.0001316777875640717</v>
       </c>
       <c r="E104">
-        <v>0.0004205213941366819</v>
+        <v>0.009579451393464371</v>
       </c>
       <c r="F104">
-        <v>0.0001709051292308282</v>
+        <v>0.004527536361826843</v>
       </c>
       <c r="G104">
-        <v>7.016328075021151e-07</v>
+        <v>1.822027480264694e-05</v>
       </c>
       <c r="H104">
-        <v>0.001882419314384238</v>
+        <v>0.06236234158874601</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0004204592012508049</v>
+        <v>0.01018396107388156</v>
       </c>
       <c r="C105">
-        <v>0.0004301879496243952</v>
+        <v>0.01897277941402331</v>
       </c>
       <c r="D105">
-        <v>6.352168387173263e-06</v>
+        <v>0.0001387418252124133</v>
       </c>
       <c r="E105">
-        <v>0.0003191495488185875</v>
+        <v>0.01107621059173972</v>
       </c>
       <c r="F105">
-        <v>0.0001409373193259152</v>
+        <v>0.005799896716720686</v>
       </c>
       <c r="G105">
-        <v>4.818652201257202e-07</v>
+        <v>1.153220526837488e-05</v>
       </c>
       <c r="H105">
-        <v>0.001588975439877589</v>
+        <v>0.07833744112353284</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0004929711813508427</v>
+        <v>0.01088938463048253</v>
       </c>
       <c r="C106">
-        <v>0.0007361133746186645</v>
+        <v>0.01846048362752348</v>
       </c>
       <c r="D106">
-        <v>7.100220154828261e-06</v>
+        <v>0.0002258125174872484</v>
       </c>
       <c r="E106">
-        <v>0.0004196515948325196</v>
+        <v>0.009851385308237402</v>
       </c>
       <c r="F106">
-        <v>0.0002022799925559986</v>
+        <v>0.006046841056610934</v>
       </c>
       <c r="G106">
-        <v>5.466085853010496e-07</v>
+        <v>1.315363252066153e-05</v>
       </c>
       <c r="H106">
-        <v>0.002371525893661269</v>
+        <v>0.06470454833120171</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.0003547836086400123</v>
+        <v>0.01370163611930953</v>
       </c>
       <c r="C107">
-        <v>0.0004506201446111308</v>
+        <v>0.01576216687953507</v>
       </c>
       <c r="D107">
-        <v>4.101463472379622e-06</v>
+        <v>0.0001784436333464874</v>
       </c>
       <c r="E107">
-        <v>0.0003765567948166912</v>
+        <v>0.01253724863253074</v>
       </c>
       <c r="F107">
-        <v>0.0001660416614112897</v>
+        <v>0.005518036185388121</v>
       </c>
       <c r="G107">
-        <v>5.225785018210065e-07</v>
+        <v>2.560002286766085e-05</v>
       </c>
       <c r="H107">
-        <v>0.001761058432738029</v>
+        <v>0.06880716292199349</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0004394674899190109</v>
+        <v>0.0101331788991653</v>
       </c>
       <c r="C108">
-        <v>0.0004662906065889693</v>
+        <v>0.01418989532782473</v>
       </c>
       <c r="D108">
-        <v>4.270725696219075e-06</v>
+        <v>0.0001383201390346025</v>
       </c>
       <c r="E108">
-        <v>0.00034396178908551</v>
+        <v>0.007730025706803513</v>
       </c>
       <c r="F108">
-        <v>0.000154951666420758</v>
+        <v>0.003441584348106915</v>
       </c>
       <c r="G108">
-        <v>5.394960913824574e-07</v>
+        <v>1.502366826082712e-05</v>
       </c>
       <c r="H108">
-        <v>0.001646401198761906</v>
+        <v>0.03464737606243419</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0003498391234035558</v>
+        <v>0.01099821809849124</v>
       </c>
       <c r="C109">
-        <v>0.0004351393290692971</v>
+        <v>0.01622744103002471</v>
       </c>
       <c r="D109">
-        <v>4.356534556504571e-06</v>
+        <v>0.0001897769720055491</v>
       </c>
       <c r="E109">
-        <v>0.0003867835104579976</v>
+        <v>0.01077200268879694</v>
       </c>
       <c r="F109">
-        <v>0.0001402471977750629</v>
+        <v>0.005330406087164479</v>
       </c>
       <c r="G109">
-        <v>4.860114266879475e-07</v>
+        <v>1.165534797952301e-05</v>
       </c>
       <c r="H109">
-        <v>0.001458198921564363</v>
+        <v>0.05744099248199769</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0004564014767387822</v>
+        <v>0.02160406392771435</v>
       </c>
       <c r="C110">
-        <v>0.0007400766451500426</v>
+        <v>0.02225112178345158</v>
       </c>
       <c r="D110">
-        <v>5.104921486220572e-06</v>
+        <v>0.000230604155103482</v>
       </c>
       <c r="E110">
-        <v>0.0004525363849761484</v>
+        <v>0.01448493456039063</v>
       </c>
       <c r="F110">
-        <v>0.0001752153074893104</v>
+        <v>0.007676449379048642</v>
       </c>
       <c r="G110">
-        <v>4.512841650397705e-07</v>
+        <v>2.67363183070978e-05</v>
       </c>
       <c r="H110">
-        <v>0.001943429618582861</v>
+        <v>0.0943791263936468</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0003273421475116189</v>
+        <v>0.01577569085767844</v>
       </c>
       <c r="C111">
-        <v>0.000589631965083954</v>
+        <v>0.009166633490415833</v>
       </c>
       <c r="D111">
-        <v>4.211882653226524e-06</v>
+        <v>0.0001624205921616168</v>
       </c>
       <c r="E111">
-        <v>0.0003788659425439638</v>
+        <v>0.009863939448111635</v>
       </c>
       <c r="F111">
-        <v>0.0001135938694985273</v>
+        <v>0.005098446859078216</v>
       </c>
       <c r="G111">
-        <v>4.185912428624178e-07</v>
+        <v>1.515537564797044e-05</v>
       </c>
       <c r="H111">
-        <v>0.001241607038780332</v>
+        <v>0.05051463484176594</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0006780381069090414</v>
+        <v>0.01274285064994906</v>
       </c>
       <c r="C112">
-        <v>0.0005465808902728394</v>
+        <v>0.01487417368598913</v>
       </c>
       <c r="D112">
-        <v>6.333506934450207e-06</v>
+        <v>0.0001289139771616795</v>
       </c>
       <c r="E112">
-        <v>0.0004293020531825251</v>
+        <v>0.01071393996149518</v>
       </c>
       <c r="F112">
-        <v>0.0001707296503401249</v>
+        <v>0.00494243678893256</v>
       </c>
       <c r="G112">
-        <v>5.41458352485714e-07</v>
+        <v>1.241779223879233e-05</v>
       </c>
       <c r="H112">
-        <v>0.00198035060486745</v>
+        <v>0.06382377915446918</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.000497088349054888</v>
+        <v>0.01397506371427772</v>
       </c>
       <c r="C113">
-        <v>0.0005553055063908546</v>
+        <v>0.009348039691604106</v>
       </c>
       <c r="D113">
-        <v>5.902967178810263e-06</v>
+        <v>0.0001967750245588135</v>
       </c>
       <c r="E113">
-        <v>0.0005107069464746187</v>
+        <v>0.008185166835970255</v>
       </c>
       <c r="F113">
-        <v>0.0002215137639024746</v>
+        <v>0.004028411828153769</v>
       </c>
       <c r="G113">
-        <v>5.609912413075765e-07</v>
+        <v>2.197057418119293e-05</v>
       </c>
       <c r="H113">
-        <v>0.002597190663423017</v>
+        <v>0.033989919355953</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0003469376353495965</v>
+        <v>0.01377473835067656</v>
       </c>
       <c r="C114">
-        <v>0.0006646779347754138</v>
+        <v>0.01991152681294931</v>
       </c>
       <c r="D114">
-        <v>4.407630800278332e-06</v>
+        <v>0.0001821738452346907</v>
       </c>
       <c r="E114">
-        <v>0.0003319778749014233</v>
+        <v>0.01209560947909876</v>
       </c>
       <c r="F114">
-        <v>0.0001243762507741669</v>
+        <v>0.006624679131823599</v>
       </c>
       <c r="G114">
-        <v>4.81471096029158e-07</v>
+        <v>1.85285250686186e-05</v>
       </c>
       <c r="H114">
-        <v>0.001277565590782975</v>
+        <v>0.08863285770408373</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0004796474433537687</v>
+        <v>0.0179873105328764</v>
       </c>
       <c r="C115">
-        <v>0.000451598923119159</v>
+        <v>0.01444892475923666</v>
       </c>
       <c r="D115">
-        <v>4.841380093129247e-06</v>
+        <v>0.0003037357761763148</v>
       </c>
       <c r="E115">
-        <v>0.0003285609925481337</v>
+        <v>0.01148099702336359</v>
       </c>
       <c r="F115">
-        <v>0.0001882114619754222</v>
+        <v>0.00626555811114094</v>
       </c>
       <c r="G115">
-        <v>4.355609131589521e-07</v>
+        <v>2.639275564603836e-05</v>
       </c>
       <c r="H115">
-        <v>0.002271755426578009</v>
+        <v>0.04694780224672718</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0003797149210306948</v>
+        <v>0.007910742455641396</v>
       </c>
       <c r="C116">
-        <v>0.0006094578275654502</v>
+        <v>0.009780769136269879</v>
       </c>
       <c r="D116">
-        <v>4.575795704141174e-06</v>
+        <v>0.0001118435574659184</v>
       </c>
       <c r="E116">
-        <v>0.0003776832949582801</v>
+        <v>0.007408293944472823</v>
       </c>
       <c r="F116">
-        <v>0.0001231539302270552</v>
+        <v>0.00255882111572697</v>
       </c>
       <c r="G116">
-        <v>4.224752236774309e-07</v>
+        <v>1.00415966971621e-05</v>
       </c>
       <c r="H116">
-        <v>0.001414439538680281</v>
+        <v>0.02836402900027334</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0004891352723336432</v>
+        <v>0.009702330120071266</v>
       </c>
       <c r="C117">
-        <v>0.0003887923806301353</v>
+        <v>0.00957002422989206</v>
       </c>
       <c r="D117">
-        <v>4.859272124070195e-06</v>
+        <v>0.0001145633778370274</v>
       </c>
       <c r="E117">
-        <v>0.0003337054838547225</v>
+        <v>0.006911285312106118</v>
       </c>
       <c r="F117">
-        <v>0.0001327774412356029</v>
+        <v>0.003580700250406871</v>
       </c>
       <c r="G117">
-        <v>3.586062547341346e-07</v>
+        <v>1.295654241498714e-05</v>
       </c>
       <c r="H117">
-        <v>0.001773248341176935</v>
+        <v>0.03997466473455349</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0004759020991436452</v>
+        <v>0.01896911242737743</v>
       </c>
       <c r="C118">
-        <v>0.0003647967415313339</v>
+        <v>0.01393802828474078</v>
       </c>
       <c r="D118">
-        <v>4.859454905394645e-06</v>
+        <v>0.0001789938921919688</v>
       </c>
       <c r="E118">
-        <v>0.0003397324059398212</v>
+        <v>0.01079601231517281</v>
       </c>
       <c r="F118">
-        <v>0.0001670539913599121</v>
+        <v>0.005352974312903679</v>
       </c>
       <c r="G118">
-        <v>4.816540486623536e-07</v>
+        <v>1.908451061288945e-05</v>
       </c>
       <c r="H118">
-        <v>0.001767313146661689</v>
+        <v>0.06220518768775251</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0003770886153836947</v>
+        <v>0.009923213407071836</v>
       </c>
       <c r="C119">
-        <v>0.0006490074254820917</v>
+        <v>0.01447293170325084</v>
       </c>
       <c r="D119">
-        <v>4.873514036849038e-06</v>
+        <v>0.0001772232247842827</v>
       </c>
       <c r="E119">
-        <v>0.0004175339663153195</v>
+        <v>0.01014450327723786</v>
       </c>
       <c r="F119">
-        <v>0.0001298588473230434</v>
+        <v>0.004891527130241467</v>
       </c>
       <c r="G119">
-        <v>4.290287703530032e-07</v>
+        <v>1.215845738972711e-05</v>
       </c>
       <c r="H119">
-        <v>0.001391436291892512</v>
+        <v>0.05316722102302715</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0004108101922299148</v>
+        <v>0.01584065749646884</v>
       </c>
       <c r="C120">
-        <v>0.000602541322843593</v>
+        <v>0.01498295469495193</v>
       </c>
       <c r="D120">
-        <v>4.255135910070904e-06</v>
+        <v>0.0002063178158573607</v>
       </c>
       <c r="E120">
-        <v>0.0003316299715178829</v>
+        <v>0.01244333765248738</v>
       </c>
       <c r="F120">
-        <v>0.0001481448192947298</v>
+        <v>0.005336170394325769</v>
       </c>
       <c r="G120">
-        <v>4.862805458982026e-07</v>
+        <v>2.520835556073211e-05</v>
       </c>
       <c r="H120">
-        <v>0.001676611818083167</v>
+        <v>0.07065987550150463</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.0003329175354232802</v>
+        <v>0.0145524691232299</v>
       </c>
       <c r="C121">
-        <v>0.0005068729225742246</v>
+        <v>0.02139323531553033</v>
       </c>
       <c r="D121">
-        <v>5.234021395842215e-06</v>
+        <v>0.0001405242646801003</v>
       </c>
       <c r="E121">
-        <v>0.0003566350480699618</v>
+        <v>0.009293251622044724</v>
       </c>
       <c r="F121">
-        <v>0.0001204934675070579</v>
+        <v>0.004018950853000299</v>
       </c>
       <c r="G121">
-        <v>7.39756161389e-07</v>
+        <v>1.597652242324276e-05</v>
       </c>
       <c r="H121">
-        <v>0.001375642955086966</v>
+        <v>0.05385722927695354</v>
       </c>
     </row>
   </sheetData>

--- a/FOMC2_bse.xlsx
+++ b/FOMC2_bse.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0122362956274475</v>
+        <v>0.006922233180865426</v>
       </c>
       <c r="C2">
-        <v>0.008008725357606182</v>
+        <v>0.008088412961086887</v>
       </c>
       <c r="D2">
-        <v>0.0001356734845461706</v>
+        <v>7.488799036010831e-05</v>
       </c>
       <c r="E2">
-        <v>0.007568751717615224</v>
+        <v>0.004867351195758768</v>
       </c>
       <c r="F2">
-        <v>0.002804615919545862</v>
+        <v>0.00223289725046444</v>
       </c>
       <c r="G2">
-        <v>1.436626462905784e-05</v>
+        <v>8.123006020709525e-06</v>
       </c>
       <c r="H2">
-        <v>0.03019986785262202</v>
+        <v>0.02646147975427452</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01531352046745931</v>
+        <v>0.006315144075962176</v>
       </c>
       <c r="C3">
-        <v>0.03263229603247365</v>
+        <v>0.007951898453530523</v>
       </c>
       <c r="D3">
-        <v>0.000311729243549786</v>
+        <v>8.026133950995147e-05</v>
       </c>
       <c r="E3">
-        <v>0.01127416332469235</v>
+        <v>0.004780542200596529</v>
       </c>
       <c r="F3">
-        <v>0.008129105521475813</v>
+        <v>0.002451323982654761</v>
       </c>
       <c r="G3">
-        <v>1.487110581595104e-05</v>
+        <v>8.750923737658682e-06</v>
       </c>
       <c r="H3">
-        <v>0.08748501772584587</v>
+        <v>0.02725350904051788</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01374488100930202</v>
+        <v>0.006066082012727771</v>
       </c>
       <c r="C4">
-        <v>0.01061109521891427</v>
+        <v>0.007851984958589435</v>
       </c>
       <c r="D4">
-        <v>0.0001332524211470246</v>
+        <v>6.69578475767547e-05</v>
       </c>
       <c r="E4">
-        <v>0.01033635356585051</v>
+        <v>0.004182073378944837</v>
       </c>
       <c r="F4">
-        <v>0.003992676820845354</v>
+        <v>0.001967332704806927</v>
       </c>
       <c r="G4">
-        <v>1.482836310800132e-05</v>
+        <v>7.227453097767498e-06</v>
       </c>
       <c r="H4">
-        <v>0.05949527400726066</v>
+        <v>0.02230242823112251</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0117396894376979</v>
+        <v>0.007199996669121977</v>
       </c>
       <c r="C5">
-        <v>0.01250764007753404</v>
+        <v>0.008739511290624223</v>
       </c>
       <c r="D5">
-        <v>0.0001224294454526061</v>
+        <v>5.580201161760889e-05</v>
       </c>
       <c r="E5">
-        <v>0.009566783660605874</v>
+        <v>0.005185002348848116</v>
       </c>
       <c r="F5">
-        <v>0.003649759369594162</v>
+        <v>0.002196269662116417</v>
       </c>
       <c r="G5">
-        <v>1.274171060730634e-05</v>
+        <v>7.767117410774535e-06</v>
       </c>
       <c r="H5">
-        <v>0.0413259525278398</v>
+        <v>0.0287834333766342</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01753216420280942</v>
+        <v>0.006845313845999301</v>
       </c>
       <c r="C6">
-        <v>0.02668285201075948</v>
+        <v>0.008165886505469322</v>
       </c>
       <c r="D6">
-        <v>0.0003811373906518282</v>
+        <v>5.924745117388185e-05</v>
       </c>
       <c r="E6">
-        <v>0.01289033315572613</v>
+        <v>0.004965641175706032</v>
       </c>
       <c r="F6">
-        <v>0.009733037279532031</v>
+        <v>0.002032008551576756</v>
       </c>
       <c r="G6">
-        <v>2.315473318194702e-05</v>
+        <v>7.137075860812702e-06</v>
       </c>
       <c r="H6">
-        <v>0.09674240115456283</v>
+        <v>0.02557443786244838</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01980870668149206</v>
+        <v>0.006614689794921242</v>
       </c>
       <c r="C7">
-        <v>0.008689407992971217</v>
+        <v>0.007218832984858407</v>
       </c>
       <c r="D7">
-        <v>0.0002299830340349914</v>
+        <v>4.397517498274384e-05</v>
       </c>
       <c r="E7">
-        <v>0.01027703834027559</v>
+        <v>0.003830234858925419</v>
       </c>
       <c r="F7">
-        <v>0.004476670584555632</v>
+        <v>0.002235116894705164</v>
       </c>
       <c r="G7">
-        <v>1.885653183536012e-05</v>
+        <v>5.980865499582714e-06</v>
       </c>
       <c r="H7">
-        <v>0.04054339248233133</v>
+        <v>0.02645642508356572</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.012991691196442</v>
+        <v>0.006339176207850487</v>
       </c>
       <c r="C8">
-        <v>0.01684285061077884</v>
+        <v>0.006593616018854963</v>
       </c>
       <c r="D8">
-        <v>0.0002030073090538672</v>
+        <v>8.680157474355421e-05</v>
       </c>
       <c r="E8">
-        <v>0.009564942056033641</v>
+        <v>0.004553248702151592</v>
       </c>
       <c r="F8">
-        <v>0.005725526630577405</v>
+        <v>0.001930237829712316</v>
       </c>
       <c r="G8">
-        <v>2.180754727777753e-05</v>
+        <v>7.763886907250092e-06</v>
       </c>
       <c r="H8">
-        <v>0.06845124655828792</v>
+        <v>0.02450470385664686</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01570906760410913</v>
+        <v>0.007120243536558953</v>
       </c>
       <c r="C9">
-        <v>0.01724386062905061</v>
+        <v>0.007814903085600931</v>
       </c>
       <c r="D9">
-        <v>0.0001659442732627206</v>
+        <v>6.615645616266552e-05</v>
       </c>
       <c r="E9">
-        <v>0.009997552619278947</v>
+        <v>0.005123539475717158</v>
       </c>
       <c r="F9">
-        <v>0.005666582353360778</v>
+        <v>0.001922376631453041</v>
       </c>
       <c r="G9">
-        <v>1.802848080976131e-05</v>
+        <v>7.772994974484787e-06</v>
       </c>
       <c r="H9">
-        <v>0.06214343613875301</v>
+        <v>0.02261710548904215</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02029026823217617</v>
+        <v>0.005494283739959675</v>
       </c>
       <c r="C10">
-        <v>0.01524847005811199</v>
+        <v>0.007829259534490689</v>
       </c>
       <c r="D10">
-        <v>0.0002063387878514546</v>
+        <v>0.000101380476372195</v>
       </c>
       <c r="E10">
-        <v>0.0204216067415526</v>
+        <v>0.005169696903039364</v>
       </c>
       <c r="F10">
-        <v>0.007580177134861397</v>
+        <v>0.002315380155100852</v>
       </c>
       <c r="G10">
-        <v>2.490846860427474e-05</v>
+        <v>1.142420744452601e-05</v>
       </c>
       <c r="H10">
-        <v>0.09506064800423344</v>
+        <v>0.02163142218294607</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01794363790858044</v>
+        <v>0.007690650452533085</v>
       </c>
       <c r="C11">
-        <v>0.02132622017640819</v>
+        <v>0.007427497280671265</v>
       </c>
       <c r="D11">
-        <v>0.0001787208216493743</v>
+        <v>9.574455861628963e-05</v>
       </c>
       <c r="E11">
-        <v>0.01110650299685784</v>
+        <v>0.005171592487932881</v>
       </c>
       <c r="F11">
-        <v>0.007283144038592339</v>
+        <v>0.001960766136274911</v>
       </c>
       <c r="G11">
-        <v>1.800858552542145e-05</v>
+        <v>8.993100701305611e-06</v>
       </c>
       <c r="H11">
-        <v>0.1049732383387706</v>
+        <v>0.0240843939201802</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01476383188264234</v>
+        <v>0.007496014164927386</v>
       </c>
       <c r="C12">
-        <v>0.01478164249213893</v>
+        <v>0.007659445377893965</v>
       </c>
       <c r="D12">
-        <v>0.0001689433025878203</v>
+        <v>7.97801027017685e-05</v>
       </c>
       <c r="E12">
-        <v>0.009109937031274161</v>
+        <v>0.0047055247704648</v>
       </c>
       <c r="F12">
-        <v>0.004941003223939797</v>
+        <v>0.002021602269034281</v>
       </c>
       <c r="G12">
-        <v>1.609353633877342e-05</v>
+        <v>7.957130161400267e-06</v>
       </c>
       <c r="H12">
-        <v>0.05336800355197951</v>
+        <v>0.02463778693711047</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01088157709352987</v>
+        <v>0.005357884869385515</v>
       </c>
       <c r="C13">
-        <v>0.01616126097305043</v>
+        <v>0.008097994195030199</v>
       </c>
       <c r="D13">
-        <v>0.0001072565751068271</v>
+        <v>6.859762166343378e-05</v>
       </c>
       <c r="E13">
-        <v>0.01101232493437493</v>
+        <v>0.004027929716630708</v>
       </c>
       <c r="F13">
-        <v>0.004775221895288296</v>
+        <v>0.001918676023722076</v>
       </c>
       <c r="G13">
-        <v>1.411332317415287e-05</v>
+        <v>7.359120182475382e-06</v>
       </c>
       <c r="H13">
-        <v>0.07147298396522718</v>
+        <v>0.02144140358098364</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01342848480129523</v>
+        <v>0.00785933797198711</v>
       </c>
       <c r="C14">
-        <v>0.01292820894881292</v>
+        <v>0.007157839080439466</v>
       </c>
       <c r="D14">
-        <v>0.0001161315873222851</v>
+        <v>7.424048919660728e-05</v>
       </c>
       <c r="E14">
-        <v>0.01436701817430136</v>
+        <v>0.005022250403154118</v>
       </c>
       <c r="F14">
-        <v>0.005561491632843593</v>
+        <v>0.002054777161710584</v>
       </c>
       <c r="G14">
-        <v>1.486127420490839e-05</v>
+        <v>8.38298161963531e-06</v>
       </c>
       <c r="H14">
-        <v>0.06960137938338096</v>
+        <v>0.02843346078225744</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0149428885423556</v>
+        <v>0.005840977275223363</v>
       </c>
       <c r="C15">
-        <v>0.00865473244341375</v>
+        <v>0.006384291737311527</v>
       </c>
       <c r="D15">
-        <v>0.0002047082101826893</v>
+        <v>6.628156937879349e-05</v>
       </c>
       <c r="E15">
-        <v>0.009481681646602793</v>
+        <v>0.004193941901709066</v>
       </c>
       <c r="F15">
-        <v>0.004657937792752865</v>
+        <v>0.001810860425861167</v>
       </c>
       <c r="G15">
-        <v>1.617410563127229e-05</v>
+        <v>7.547435462717052e-06</v>
       </c>
       <c r="H15">
-        <v>0.04311579388706037</v>
+        <v>0.02311639642416759</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01450450791170351</v>
+        <v>0.005408794929184009</v>
       </c>
       <c r="C16">
-        <v>0.01494118590878791</v>
+        <v>0.007762162726486495</v>
       </c>
       <c r="D16">
-        <v>0.0001475066752018077</v>
+        <v>5.164402426959882e-05</v>
       </c>
       <c r="E16">
-        <v>0.01005858462883324</v>
+        <v>0.004258327802064104</v>
       </c>
       <c r="F16">
-        <v>0.005259372208544145</v>
+        <v>0.001658502666535284</v>
       </c>
       <c r="G16">
-        <v>1.863838879288474e-05</v>
+        <v>5.894508758884938e-06</v>
       </c>
       <c r="H16">
-        <v>0.06991495024103322</v>
+        <v>0.02221951863834812</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.009113629657202976</v>
+        <v>0.005052662387609556</v>
       </c>
       <c r="C17">
-        <v>0.008065778748503973</v>
+        <v>0.007807021024138583</v>
       </c>
       <c r="D17">
-        <v>9.631592454742873e-05</v>
+        <v>5.828204202591306e-05</v>
       </c>
       <c r="E17">
-        <v>0.008270162132877195</v>
+        <v>0.004747746952629559</v>
       </c>
       <c r="F17">
-        <v>0.003381199304955175</v>
+        <v>0.001697328600035594</v>
       </c>
       <c r="G17">
-        <v>1.592964395061821e-05</v>
+        <v>8.444980610618252e-06</v>
       </c>
       <c r="H17">
-        <v>0.03617564178633138</v>
+        <v>0.01954597787284144</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01960727724710962</v>
+        <v>0.007324181695135325</v>
       </c>
       <c r="C18">
-        <v>0.01201034615131262</v>
+        <v>0.006140954822971114</v>
       </c>
       <c r="D18">
-        <v>0.000227842108767218</v>
+        <v>7.582369711654375e-05</v>
       </c>
       <c r="E18">
-        <v>0.011704095882818</v>
+        <v>0.005025608052350972</v>
       </c>
       <c r="F18">
-        <v>0.005761336240745653</v>
+        <v>0.002759767293071221</v>
       </c>
       <c r="G18">
-        <v>2.204644479817322e-05</v>
+        <v>8.182234557908097e-06</v>
       </c>
       <c r="H18">
-        <v>0.05296038042857022</v>
+        <v>0.04119971685697688</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01404197780612567</v>
+        <v>0.007536357223451104</v>
       </c>
       <c r="C19">
-        <v>0.01011634584285287</v>
+        <v>0.009958734898550092</v>
       </c>
       <c r="D19">
-        <v>0.0001336008645477394</v>
+        <v>7.198266481843807e-05</v>
       </c>
       <c r="E19">
-        <v>0.01186379903718317</v>
+        <v>0.005222129481160412</v>
       </c>
       <c r="F19">
-        <v>0.004765464640959144</v>
+        <v>0.002658004053066098</v>
       </c>
       <c r="G19">
-        <v>1.492747100994349e-05</v>
+        <v>7.68044431424001e-06</v>
       </c>
       <c r="H19">
-        <v>0.0615024325015398</v>
+        <v>0.0319612012120367</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.02391974694974727</v>
+        <v>0.008197675501402827</v>
       </c>
       <c r="C20">
-        <v>0.01619347734453228</v>
+        <v>0.007631317985418219</v>
       </c>
       <c r="D20">
-        <v>0.0002656812347140887</v>
+        <v>7.260571323812665e-05</v>
       </c>
       <c r="E20">
-        <v>0.01896155799717889</v>
+        <v>0.005660302701242088</v>
       </c>
       <c r="F20">
-        <v>0.007696960892580881</v>
+        <v>0.002369990635683059</v>
       </c>
       <c r="G20">
-        <v>2.733016355176482e-05</v>
+        <v>7.252479906292864e-06</v>
       </c>
       <c r="H20">
-        <v>0.1050679555826994</v>
+        <v>0.03096813594696772</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01416771995084504</v>
+        <v>0.007587244372836689</v>
       </c>
       <c r="C21">
-        <v>0.02170368063349745</v>
+        <v>0.007365866047354242</v>
       </c>
       <c r="D21">
-        <v>0.0002791015511680337</v>
+        <v>7.669137825564529e-05</v>
       </c>
       <c r="E21">
-        <v>0.01359434598526574</v>
+        <v>0.004406156974187888</v>
       </c>
       <c r="F21">
-        <v>0.008014832781334261</v>
+        <v>0.002328795842310006</v>
       </c>
       <c r="G21">
-        <v>1.667838298789878e-05</v>
+        <v>9.172682406337516e-06</v>
       </c>
       <c r="H21">
-        <v>0.08305578499936872</v>
+        <v>0.02736727432240429</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01390345027774721</v>
+        <v>0.00463836721954733</v>
       </c>
       <c r="C22">
-        <v>0.01076558658917895</v>
+        <v>0.006203436611169474</v>
       </c>
       <c r="D22">
-        <v>0.0001359910681970942</v>
+        <v>4.679580397324079e-05</v>
       </c>
       <c r="E22">
-        <v>0.009393196524476583</v>
+        <v>0.003921839921158024</v>
       </c>
       <c r="F22">
-        <v>0.004482070062924953</v>
+        <v>0.001756244082815986</v>
       </c>
       <c r="G22">
-        <v>1.815046077715084e-05</v>
+        <v>6.230365250636878e-06</v>
       </c>
       <c r="H22">
-        <v>0.05179116446266162</v>
+        <v>0.02262898203295472</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.01144768955785861</v>
+        <v>0.005675651281721524</v>
       </c>
       <c r="C23">
-        <v>0.02789252142599279</v>
+        <v>0.007784016695786388</v>
       </c>
       <c r="D23">
-        <v>0.0003618910475382203</v>
+        <v>6.626762805184776e-05</v>
       </c>
       <c r="E23">
-        <v>0.01492528337149305</v>
+        <v>0.004697133078339617</v>
       </c>
       <c r="F23">
-        <v>0.009467498060272141</v>
+        <v>0.001708593823730366</v>
       </c>
       <c r="G23">
-        <v>1.385571827114403e-05</v>
+        <v>8.391870790767015e-06</v>
       </c>
       <c r="H23">
-        <v>0.09349046005308902</v>
+        <v>0.02229229004874468</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0168297305547693</v>
+        <v>0.005710737858632208</v>
       </c>
       <c r="C24">
-        <v>0.01258983298743692</v>
+        <v>0.006856611730046479</v>
       </c>
       <c r="D24">
-        <v>0.0002210353178805034</v>
+        <v>6.274557192884216e-05</v>
       </c>
       <c r="E24">
-        <v>0.008250805089516146</v>
+        <v>0.004838250063297019</v>
       </c>
       <c r="F24">
-        <v>0.004555612762968676</v>
+        <v>0.002024507684646401</v>
       </c>
       <c r="G24">
-        <v>2.138981346417696e-05</v>
+        <v>6.927863527615255e-06</v>
       </c>
       <c r="H24">
-        <v>0.06042942119938975</v>
+        <v>0.02575321647204518</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0139647961981271</v>
+        <v>0.007211370574629572</v>
       </c>
       <c r="C25">
-        <v>0.02478274214728721</v>
+        <v>0.009699640188443272</v>
       </c>
       <c r="D25">
-        <v>0.0002842096217087743</v>
+        <v>5.917017535239182e-05</v>
       </c>
       <c r="E25">
-        <v>0.01375786670441058</v>
+        <v>0.00486458479725548</v>
       </c>
       <c r="F25">
-        <v>0.008711993739738275</v>
+        <v>0.002024359975873207</v>
       </c>
       <c r="G25">
-        <v>1.544093507710229e-05</v>
+        <v>5.832705694306411e-06</v>
       </c>
       <c r="H25">
-        <v>0.09804669238931928</v>
+        <v>0.02449240960788612</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.02377564258407542</v>
+        <v>0.006702646381007583</v>
       </c>
       <c r="C26">
-        <v>0.0262590913565863</v>
+        <v>0.007718593845877433</v>
       </c>
       <c r="D26">
-        <v>0.0003115451545188785</v>
+        <v>7.136196518857123e-05</v>
       </c>
       <c r="E26">
-        <v>0.01248759819486639</v>
+        <v>0.004234902122296921</v>
       </c>
       <c r="F26">
-        <v>0.01224159959228653</v>
+        <v>0.00210015196506022</v>
       </c>
       <c r="G26">
-        <v>1.28020573032441e-05</v>
+        <v>8.717914735125072e-06</v>
       </c>
       <c r="H26">
-        <v>0.1323971331754756</v>
+        <v>0.02535558487223654</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.01892727376330694</v>
+        <v>0.007132229221381277</v>
       </c>
       <c r="C27">
-        <v>0.01062405707253771</v>
+        <v>0.008263825097703383</v>
       </c>
       <c r="D27">
-        <v>0.0002059023261389605</v>
+        <v>7.35608223111122e-05</v>
       </c>
       <c r="E27">
-        <v>0.0120051681387691</v>
+        <v>0.004773111678650376</v>
       </c>
       <c r="F27">
-        <v>0.005087485657925922</v>
+        <v>0.002109276472506956</v>
       </c>
       <c r="G27">
-        <v>2.22265444617931e-05</v>
+        <v>6.997108469399589e-06</v>
       </c>
       <c r="H27">
-        <v>0.04843353438939289</v>
+        <v>0.02664342836708849</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.01470935122692344</v>
+        <v>0.007818354702005623</v>
       </c>
       <c r="C28">
-        <v>0.01038615927225283</v>
+        <v>0.006019045863714735</v>
       </c>
       <c r="D28">
-        <v>0.000147873624332114</v>
+        <v>6.780788333909661e-05</v>
       </c>
       <c r="E28">
-        <v>0.008608854039171675</v>
+        <v>0.004736257828742983</v>
       </c>
       <c r="F28">
-        <v>0.004131359216699796</v>
+        <v>0.002469918615094787</v>
       </c>
       <c r="G28">
-        <v>1.823900792828317e-05</v>
+        <v>8.708128054740325e-06</v>
       </c>
       <c r="H28">
-        <v>0.05491946464784186</v>
+        <v>0.03011450295586119</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.01106103709256391</v>
+        <v>0.008540524073020658</v>
       </c>
       <c r="C29">
-        <v>0.009577121456074318</v>
+        <v>0.005932424378131629</v>
       </c>
       <c r="D29">
-        <v>0.0001120642094873248</v>
+        <v>9.16949428570814e-05</v>
       </c>
       <c r="E29">
-        <v>0.007678090287210407</v>
+        <v>0.005084360688700401</v>
       </c>
       <c r="F29">
-        <v>0.004584875290130188</v>
+        <v>0.002550203741912805</v>
       </c>
       <c r="G29">
-        <v>1.105793818684201e-05</v>
+        <v>1.012865629231101e-05</v>
       </c>
       <c r="H29">
-        <v>0.06427641312839578</v>
+        <v>0.02740266417255804</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.01412112162973401</v>
+        <v>0.005582147348589937</v>
       </c>
       <c r="C30">
-        <v>0.0119868902432002</v>
+        <v>0.007582345284373589</v>
       </c>
       <c r="D30">
-        <v>0.0001958607992907915</v>
+        <v>5.609349456563507e-05</v>
       </c>
       <c r="E30">
-        <v>0.008443664154396539</v>
+        <v>0.004418548853798576</v>
       </c>
       <c r="F30">
-        <v>0.004779932948259741</v>
+        <v>0.001612237371025524</v>
       </c>
       <c r="G30">
-        <v>1.391366442827295e-05</v>
+        <v>8.511771702631026e-06</v>
       </c>
       <c r="H30">
-        <v>0.04817190493069295</v>
+        <v>0.01905578024085525</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.02161996540671596</v>
+        <v>0.006088846062385423</v>
       </c>
       <c r="C31">
-        <v>0.01549088554447291</v>
+        <v>0.01042730604404252</v>
       </c>
       <c r="D31">
-        <v>0.0002671095363321454</v>
+        <v>8.704579535112565e-05</v>
       </c>
       <c r="E31">
-        <v>0.0111035199064315</v>
+        <v>0.004602384471059408</v>
       </c>
       <c r="F31">
-        <v>0.006168839139826711</v>
+        <v>0.001852350772390822</v>
       </c>
       <c r="G31">
-        <v>2.572358853883003e-05</v>
+        <v>5.282411414521658e-06</v>
       </c>
       <c r="H31">
-        <v>0.07395351561200031</v>
+        <v>0.02180977789318463</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.01221276441396396</v>
+        <v>0.006854662693519174</v>
       </c>
       <c r="C32">
-        <v>0.00951425250707892</v>
+        <v>0.01008296048182656</v>
       </c>
       <c r="D32">
-        <v>0.0001353859118632602</v>
+        <v>6.807903181242522e-05</v>
       </c>
       <c r="E32">
-        <v>0.00705515334036178</v>
+        <v>0.00454088770797695</v>
       </c>
       <c r="F32">
-        <v>0.003217021434510648</v>
+        <v>0.00199265856346316</v>
       </c>
       <c r="G32">
-        <v>1.183740911177463e-05</v>
+        <v>8.53138262106213e-06</v>
       </c>
       <c r="H32">
-        <v>0.03363762387659607</v>
+        <v>0.02201655858410494</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.01712824980860084</v>
+        <v>0.007804517282909199</v>
       </c>
       <c r="C33">
-        <v>0.01512038851685077</v>
+        <v>0.006739796234542354</v>
       </c>
       <c r="D33">
-        <v>0.0001418465857688929</v>
+        <v>7.307565029487406e-05</v>
       </c>
       <c r="E33">
-        <v>0.01039775853168801</v>
+        <v>0.005409362343207881</v>
       </c>
       <c r="F33">
-        <v>0.006393430305388495</v>
+        <v>0.002652560067369338</v>
       </c>
       <c r="G33">
-        <v>1.881193216005422e-05</v>
+        <v>9.609603002306764e-06</v>
       </c>
       <c r="H33">
-        <v>0.09206803500799908</v>
+        <v>0.03018840671352159</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.009812445994070095</v>
+        <v>0.007008476741145996</v>
       </c>
       <c r="C34">
-        <v>0.01538282737117781</v>
+        <v>0.009454321953336569</v>
       </c>
       <c r="D34">
-        <v>0.0001539682747771163</v>
+        <v>7.563600220551969e-05</v>
       </c>
       <c r="E34">
-        <v>0.007979231946066655</v>
+        <v>0.005318624990219781</v>
       </c>
       <c r="F34">
-        <v>0.004252435632794716</v>
+        <v>0.002438581299002334</v>
       </c>
       <c r="G34">
-        <v>1.08148372443017e-05</v>
+        <v>7.443843033852928e-06</v>
       </c>
       <c r="H34">
-        <v>0.04678046285432989</v>
+        <v>0.03070609738271018</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.011724302917205</v>
+        <v>0.008360161545236926</v>
       </c>
       <c r="C35">
-        <v>0.01950705011179924</v>
+        <v>0.008932530087883465</v>
       </c>
       <c r="D35">
-        <v>0.0001212724395076656</v>
+        <v>8.033025843488952e-05</v>
       </c>
       <c r="E35">
-        <v>0.01135771248784304</v>
+        <v>0.006251307259000501</v>
       </c>
       <c r="F35">
-        <v>0.004031592103207987</v>
+        <v>0.002890479760299966</v>
       </c>
       <c r="G35">
-        <v>1.458861755031712e-05</v>
+        <v>1.150621484359973e-05</v>
       </c>
       <c r="H35">
-        <v>0.04968935129022192</v>
+        <v>0.04233175821744406</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.01326044354317233</v>
+        <v>0.006239634006501737</v>
       </c>
       <c r="C36">
-        <v>0.01891146450313205</v>
+        <v>0.006529698716475556</v>
       </c>
       <c r="D36">
-        <v>0.0001423868173897806</v>
+        <v>5.923585266472061e-05</v>
       </c>
       <c r="E36">
-        <v>0.008442253269924756</v>
+        <v>0.004591777026368436</v>
       </c>
       <c r="F36">
-        <v>0.004941406832908212</v>
+        <v>0.002169544615206972</v>
       </c>
       <c r="G36">
-        <v>1.724232421324072e-05</v>
+        <v>8.462317651655737e-06</v>
       </c>
       <c r="H36">
-        <v>0.07113126765047657</v>
+        <v>0.02759867145717257</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.009397747573823632</v>
+        <v>0.00601767311995892</v>
       </c>
       <c r="C37">
-        <v>0.008903687759475748</v>
+        <v>0.0133044458561128</v>
       </c>
       <c r="D37">
-        <v>0.0001199320464781103</v>
+        <v>6.611637852217751e-05</v>
       </c>
       <c r="E37">
-        <v>0.008139370635649465</v>
+        <v>0.005312982583210757</v>
       </c>
       <c r="F37">
-        <v>0.00325768606555957</v>
+        <v>0.002205455839768683</v>
       </c>
       <c r="G37">
-        <v>1.321389613994786e-05</v>
+        <v>7.408923249526637e-06</v>
       </c>
       <c r="H37">
-        <v>0.03547209409410386</v>
+        <v>0.0238723199278575</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.01087650689377542</v>
+        <v>0.006644231046908046</v>
       </c>
       <c r="C38">
-        <v>0.01188659016558258</v>
+        <v>0.01040888886323104</v>
       </c>
       <c r="D38">
-        <v>0.0001436834221056202</v>
+        <v>8.916572593899123e-05</v>
       </c>
       <c r="E38">
-        <v>0.01010201066521093</v>
+        <v>0.005748673705891575</v>
       </c>
       <c r="F38">
-        <v>0.003592192160883853</v>
+        <v>0.002526559123192499</v>
       </c>
       <c r="G38">
-        <v>1.561374610146502e-05</v>
+        <v>9.441091656186167e-06</v>
       </c>
       <c r="H38">
-        <v>0.04349231802971166</v>
+        <v>0.02653351777802966</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.01822478196155012</v>
+        <v>0.006604460277582825</v>
       </c>
       <c r="C39">
-        <v>0.01607972628429533</v>
+        <v>0.007569041559593638</v>
       </c>
       <c r="D39">
-        <v>0.0001720477871883833</v>
+        <v>6.14239950673333e-05</v>
       </c>
       <c r="E39">
-        <v>0.01157773917637047</v>
+        <v>0.00531314976564643</v>
       </c>
       <c r="F39">
-        <v>0.005836818081425385</v>
+        <v>0.002349914692068318</v>
       </c>
       <c r="G39">
-        <v>1.842875349600518e-05</v>
+        <v>7.018188077789597e-06</v>
       </c>
       <c r="H39">
-        <v>0.07914390811317645</v>
+        <v>0.02934141550644884</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.01305609470615745</v>
+        <v>0.005642565820444744</v>
       </c>
       <c r="C40">
-        <v>0.01908374110035503</v>
+        <v>0.005229699593628723</v>
       </c>
       <c r="D40">
-        <v>0.0001407200127836899</v>
+        <v>6.355344212527334e-05</v>
       </c>
       <c r="E40">
-        <v>0.01045999555868472</v>
+        <v>0.004464484212494867</v>
       </c>
       <c r="F40">
-        <v>0.006458839988349361</v>
+        <v>0.001883473937906958</v>
       </c>
       <c r="G40">
-        <v>1.520609080657214e-05</v>
+        <v>1.127876984484079e-05</v>
       </c>
       <c r="H40">
-        <v>0.08963290769918897</v>
+        <v>0.02261295295212883</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.02372514529038552</v>
+        <v>0.006306196398039534</v>
       </c>
       <c r="C41">
-        <v>0.01926465813859487</v>
+        <v>0.007608198330078919</v>
       </c>
       <c r="D41">
-        <v>0.0002474462856657936</v>
+        <v>6.257014393948562e-05</v>
       </c>
       <c r="E41">
-        <v>0.01377292402422611</v>
+        <v>0.004802153904024313</v>
       </c>
       <c r="F41">
-        <v>0.007114617671801621</v>
+        <v>0.002077754216928218</v>
       </c>
       <c r="G41">
-        <v>2.401146007746649e-05</v>
+        <v>9.583945142791621e-06</v>
       </c>
       <c r="H41">
-        <v>0.09017356908368267</v>
+        <v>0.02717765161858002</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.01350521995228025</v>
+        <v>0.006799221450083468</v>
       </c>
       <c r="C42">
-        <v>0.01109352184806277</v>
+        <v>0.008296117812260861</v>
       </c>
       <c r="D42">
-        <v>0.0001827277082356014</v>
+        <v>8.144930835699845e-05</v>
       </c>
       <c r="E42">
-        <v>0.00742355465984864</v>
+        <v>0.00498053541267524</v>
       </c>
       <c r="F42">
-        <v>0.004178585692245091</v>
+        <v>0.00204545917348323</v>
       </c>
       <c r="G42">
-        <v>1.734242123031838e-05</v>
+        <v>8.469750584075309e-06</v>
       </c>
       <c r="H42">
-        <v>0.05299767515025549</v>
+        <v>0.02617154660951897</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.02492983382200106</v>
+        <v>0.006551552032371314</v>
       </c>
       <c r="C43">
-        <v>0.0128693450179707</v>
+        <v>0.007499733556325535</v>
       </c>
       <c r="D43">
-        <v>0.0002485517220582024</v>
+        <v>5.997576741542164e-05</v>
       </c>
       <c r="E43">
-        <v>0.01836144656643146</v>
+        <v>0.004941022053467704</v>
       </c>
       <c r="F43">
-        <v>0.006955425701073244</v>
+        <v>0.00248981844988273</v>
       </c>
       <c r="G43">
-        <v>2.343642893245141e-05</v>
+        <v>8.684872813527711e-06</v>
       </c>
       <c r="H43">
-        <v>0.06776219450063251</v>
+        <v>0.03374890683538213</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.01621234566113371</v>
+        <v>0.009355272612635874</v>
       </c>
       <c r="C44">
-        <v>0.02146183107631507</v>
+        <v>0.004803197252185492</v>
       </c>
       <c r="D44">
-        <v>0.0002195060037308299</v>
+        <v>9.636321018633287e-05</v>
       </c>
       <c r="E44">
-        <v>0.01316664498228134</v>
+        <v>0.004871788321415495</v>
       </c>
       <c r="F44">
-        <v>0.007166030841384162</v>
+        <v>0.002390407567429473</v>
       </c>
       <c r="G44">
-        <v>2.525254497473731e-05</v>
+        <v>9.257492714652333e-06</v>
       </c>
       <c r="H44">
-        <v>0.08743066857958082</v>
+        <v>0.02726209519695807</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.01268643790751746</v>
+        <v>0.005917487044191432</v>
       </c>
       <c r="C45">
-        <v>0.02077943810507812</v>
+        <v>0.009694216042156584</v>
       </c>
       <c r="D45">
-        <v>0.0002039221012547009</v>
+        <v>7.592053864463042e-05</v>
       </c>
       <c r="E45">
-        <v>0.01349884475856597</v>
+        <v>0.005027725771748414</v>
       </c>
       <c r="F45">
-        <v>0.006724076734211499</v>
+        <v>0.001989468381775244</v>
       </c>
       <c r="G45">
-        <v>1.402845670432815e-05</v>
+        <v>8.9643623314471e-06</v>
       </c>
       <c r="H45">
-        <v>0.08330813833042942</v>
+        <v>0.02352437389313673</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.01810865614559056</v>
+        <v>0.006442183129242285</v>
       </c>
       <c r="C46">
-        <v>0.0106399888543926</v>
+        <v>0.005825200622063013</v>
       </c>
       <c r="D46">
-        <v>0.0001689486969750527</v>
+        <v>5.927288754525464e-05</v>
       </c>
       <c r="E46">
-        <v>0.00874693207509283</v>
+        <v>0.004042783001114801</v>
       </c>
       <c r="F46">
-        <v>0.004029113413060071</v>
+        <v>0.001743275911396548</v>
       </c>
       <c r="G46">
-        <v>1.744104106340164e-05</v>
+        <v>6.467639435752453e-06</v>
       </c>
       <c r="H46">
-        <v>0.07400982130231896</v>
+        <v>0.02363085229478969</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.01357498047371192</v>
+        <v>0.006158394216948518</v>
       </c>
       <c r="C47">
-        <v>0.01209059898777061</v>
+        <v>0.006303496474868431</v>
       </c>
       <c r="D47">
-        <v>0.000146938970181901</v>
+        <v>5.781437705644936e-05</v>
       </c>
       <c r="E47">
-        <v>0.01070216216661577</v>
+        <v>0.004404920157400168</v>
       </c>
       <c r="F47">
-        <v>0.005892153358638093</v>
+        <v>0.002125086160279184</v>
       </c>
       <c r="G47">
-        <v>1.366656104585918e-05</v>
+        <v>7.840766928432624e-06</v>
       </c>
       <c r="H47">
-        <v>0.06812920649519076</v>
+        <v>0.02782016284262522</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.02369920030238945</v>
+        <v>0.005804202618887229</v>
       </c>
       <c r="C48">
-        <v>0.01450630696243265</v>
+        <v>0.006510424548682515</v>
       </c>
       <c r="D48">
-        <v>0.0002570450547862167</v>
+        <v>7.667537452548435e-05</v>
       </c>
       <c r="E48">
-        <v>0.01161356909232736</v>
+        <v>0.004778230509085893</v>
       </c>
       <c r="F48">
-        <v>0.006178643582918985</v>
+        <v>0.002096218793651273</v>
       </c>
       <c r="G48">
-        <v>2.355036211339728e-05</v>
+        <v>8.735299027378664e-06</v>
       </c>
       <c r="H48">
-        <v>0.07023099062514671</v>
+        <v>0.02283445954259835</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01232555562253755</v>
+        <v>0.005946217802301086</v>
       </c>
       <c r="C49">
-        <v>0.0109035082503438</v>
+        <v>0.01029884764143123</v>
       </c>
       <c r="D49">
-        <v>0.0001270151161824103</v>
+        <v>7.780916989031862e-05</v>
       </c>
       <c r="E49">
-        <v>0.008145045376467184</v>
+        <v>0.004422608585156077</v>
       </c>
       <c r="F49">
-        <v>0.00362483247486828</v>
+        <v>0.001688280450455508</v>
       </c>
       <c r="G49">
-        <v>1.889289554102411e-05</v>
+        <v>5.546682267823191e-06</v>
       </c>
       <c r="H49">
-        <v>0.04468430761565611</v>
+        <v>0.01990683872173359</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.01478095497606266</v>
+        <v>0.006742373306703296</v>
       </c>
       <c r="C50">
-        <v>0.0116489453348949</v>
+        <v>0.008118257868109751</v>
       </c>
       <c r="D50">
-        <v>0.0001457677036030437</v>
+        <v>9.058323939387671e-05</v>
       </c>
       <c r="E50">
-        <v>0.01141105005499887</v>
+        <v>0.005257359703363755</v>
       </c>
       <c r="F50">
-        <v>0.005024121753572281</v>
+        <v>0.002354497861200189</v>
       </c>
       <c r="G50">
-        <v>1.244768960578672e-05</v>
+        <v>7.201369500754747e-06</v>
       </c>
       <c r="H50">
-        <v>0.07462164686173453</v>
+        <v>0.02930171526660581</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.01805385828910189</v>
+        <v>0.006105713566114594</v>
       </c>
       <c r="C51">
-        <v>0.01486998990873764</v>
+        <v>0.005632627725200498</v>
       </c>
       <c r="D51">
-        <v>0.0002326780519796753</v>
+        <v>6.604819948461064e-05</v>
       </c>
       <c r="E51">
-        <v>0.01429976041069297</v>
+        <v>0.004886184985970801</v>
       </c>
       <c r="F51">
-        <v>0.005956971772326059</v>
+        <v>0.001995634967458868</v>
       </c>
       <c r="G51">
-        <v>2.24707028972635e-05</v>
+        <v>7.003731872745817e-06</v>
       </c>
       <c r="H51">
-        <v>0.06485175898703516</v>
+        <v>0.02344464355095538</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.01772910728794576</v>
+        <v>0.00604789015780182</v>
       </c>
       <c r="C52">
-        <v>0.02988705478878919</v>
+        <v>0.005554414185656764</v>
       </c>
       <c r="D52">
-        <v>0.0003691747967687374</v>
+        <v>6.848976025462613e-05</v>
       </c>
       <c r="E52">
-        <v>0.01580424399774055</v>
+        <v>0.004671014064279904</v>
       </c>
       <c r="F52">
-        <v>0.01006832795249195</v>
+        <v>0.002140252119586533</v>
       </c>
       <c r="G52">
-        <v>1.83387605073851e-05</v>
+        <v>7.898293066446732e-06</v>
       </c>
       <c r="H52">
-        <v>0.1042393044856406</v>
+        <v>0.02463889037614478</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.02252766728672365</v>
+        <v>0.006583947300780419</v>
       </c>
       <c r="C53">
-        <v>0.02140406204475187</v>
+        <v>0.006647250596998762</v>
       </c>
       <c r="D53">
-        <v>0.0003091641446707537</v>
+        <v>6.504114734246903e-05</v>
       </c>
       <c r="E53">
-        <v>0.01586722440030179</v>
+        <v>0.004419758324193769</v>
       </c>
       <c r="F53">
-        <v>0.00800770201097668</v>
+        <v>0.001921628362803404</v>
       </c>
       <c r="G53">
-        <v>2.737787991673981e-05</v>
+        <v>7.708849612996958e-06</v>
       </c>
       <c r="H53">
-        <v>0.09777923763760822</v>
+        <v>0.02445133055825633</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.01656357265936028</v>
+        <v>0.00591825003586877</v>
       </c>
       <c r="C54">
-        <v>0.010913803190192</v>
+        <v>0.006383065691460182</v>
       </c>
       <c r="D54">
-        <v>0.0001740199745847509</v>
+        <v>5.374493140334404e-05</v>
       </c>
       <c r="E54">
-        <v>0.01555292255589049</v>
+        <v>0.004713497217135879</v>
       </c>
       <c r="F54">
-        <v>0.005838751923769556</v>
+        <v>0.001840612085310108</v>
       </c>
       <c r="G54">
-        <v>1.498707498426308e-05</v>
+        <v>7.828846085294067e-06</v>
       </c>
       <c r="H54">
-        <v>0.06141343643763288</v>
+        <v>0.02405283518591922</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.02039972511102124</v>
+        <v>0.004810406559267027</v>
       </c>
       <c r="C55">
-        <v>0.02357961570673919</v>
+        <v>0.008030089662750461</v>
       </c>
       <c r="D55">
-        <v>0.00016725083562818</v>
+        <v>6.516327945898121e-05</v>
       </c>
       <c r="E55">
-        <v>0.01687792153922478</v>
+        <v>0.005462325539970412</v>
       </c>
       <c r="F55">
-        <v>0.007709441671617843</v>
+        <v>0.00158311460502479</v>
       </c>
       <c r="G55">
-        <v>2.337947908942931e-05</v>
+        <v>7.010301632695358e-06</v>
       </c>
       <c r="H55">
-        <v>0.1126358579699368</v>
+        <v>0.01775371285245743</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.01667413671280719</v>
+        <v>0.006705944406374476</v>
       </c>
       <c r="C56">
-        <v>0.01486370679969547</v>
+        <v>0.008700645071455329</v>
       </c>
       <c r="D56">
-        <v>0.0001843409418952388</v>
+        <v>6.880503280547329e-05</v>
       </c>
       <c r="E56">
-        <v>0.01205239098188472</v>
+        <v>0.005603672529303836</v>
       </c>
       <c r="F56">
-        <v>0.007080223929924081</v>
+        <v>0.002523840029439013</v>
       </c>
       <c r="G56">
-        <v>1.537313829273379e-05</v>
+        <v>9.847033901712606e-06</v>
       </c>
       <c r="H56">
-        <v>0.07930117172572185</v>
+        <v>0.03325667236986745</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0143816402298105</v>
+        <v>0.006954038765795248</v>
       </c>
       <c r="C57">
-        <v>0.01625053181908795</v>
+        <v>0.007506113556902731</v>
       </c>
       <c r="D57">
-        <v>0.0001974272274817157</v>
+        <v>6.236684800800491e-05</v>
       </c>
       <c r="E57">
-        <v>0.01758506464969953</v>
+        <v>0.004997284781458353</v>
       </c>
       <c r="F57">
-        <v>0.005885377946757793</v>
+        <v>0.001934395150474213</v>
       </c>
       <c r="G57">
-        <v>2.335052003817686e-05</v>
+        <v>9.103463924024958e-06</v>
       </c>
       <c r="H57">
-        <v>0.06412775791383915</v>
+        <v>0.0239931267537572</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.02388215941533489</v>
+        <v>0.008571799516783231</v>
       </c>
       <c r="C58">
-        <v>0.01731604709562254</v>
+        <v>0.006552015612796132</v>
       </c>
       <c r="D58">
-        <v>0.0002138416852309629</v>
+        <v>8.65370012659481e-05</v>
       </c>
       <c r="E58">
-        <v>0.01419951691241252</v>
+        <v>0.005592731529211045</v>
       </c>
       <c r="F58">
-        <v>0.006882189893966264</v>
+        <v>0.002228749502107711</v>
       </c>
       <c r="G58">
-        <v>2.485958706726296e-05</v>
+        <v>9.042981122550146e-06</v>
       </c>
       <c r="H58">
-        <v>0.09991766717104852</v>
+        <v>0.02420879543420118</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.01097524086998776</v>
+        <v>0.007271704980328629</v>
       </c>
       <c r="C59">
-        <v>0.01118894789598124</v>
+        <v>0.00860771584105402</v>
       </c>
       <c r="D59">
-        <v>0.0001189376339292601</v>
+        <v>9.67273114704381e-05</v>
       </c>
       <c r="E59">
-        <v>0.008642319475898233</v>
+        <v>0.004575549246549772</v>
       </c>
       <c r="F59">
-        <v>0.003699534727834404</v>
+        <v>0.002148588257175266</v>
       </c>
       <c r="G59">
-        <v>1.621645490758727e-05</v>
+        <v>7.375275685939758e-06</v>
       </c>
       <c r="H59">
-        <v>0.03708769666728909</v>
+        <v>0.02947530814709065</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0132746832408307</v>
+        <v>0.006273368634034808</v>
       </c>
       <c r="C60">
-        <v>0.01057520449362387</v>
+        <v>0.01178209104523524</v>
       </c>
       <c r="D60">
-        <v>0.0001500888689758545</v>
+        <v>9.119566230800537e-05</v>
       </c>
       <c r="E60">
-        <v>0.009326183367902943</v>
+        <v>0.005398846833966866</v>
       </c>
       <c r="F60">
-        <v>0.005097280699084016</v>
+        <v>0.002702060116548762</v>
       </c>
       <c r="G60">
-        <v>2.00708409500295e-05</v>
+        <v>6.848914727527058e-06</v>
       </c>
       <c r="H60">
-        <v>0.04645307651309869</v>
+        <v>0.02848746081282279</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.02387435167241426</v>
+        <v>0.006202864659784802</v>
       </c>
       <c r="C61">
-        <v>0.02031878447247686</v>
+        <v>0.007404936535409693</v>
       </c>
       <c r="D61">
-        <v>0.0003350007199342828</v>
+        <v>7.690499985681363e-05</v>
       </c>
       <c r="E61">
-        <v>0.01358260239136416</v>
+        <v>0.004256900635808919</v>
       </c>
       <c r="F61">
-        <v>0.008533382342669461</v>
+        <v>0.002067465251825759</v>
       </c>
       <c r="G61">
-        <v>2.247818596163277e-05</v>
+        <v>7.059036215551814e-06</v>
       </c>
       <c r="H61">
-        <v>0.08563906143391012</v>
+        <v>0.02669679436310804</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.02067847096725369</v>
+        <v>0.005966486698823137</v>
       </c>
       <c r="C62">
-        <v>0.01614826157780497</v>
+        <v>0.007369367461741147</v>
       </c>
       <c r="D62">
-        <v>0.0002528470458748258</v>
+        <v>6.112524807362791e-05</v>
       </c>
       <c r="E62">
-        <v>0.01096700701331758</v>
+        <v>0.00440836423657991</v>
       </c>
       <c r="F62">
-        <v>0.00668687428724362</v>
+        <v>0.001902443519834104</v>
       </c>
       <c r="G62">
-        <v>2.843543352288905e-05</v>
+        <v>8.11063476720946e-06</v>
       </c>
       <c r="H62">
-        <v>0.05603927086445445</v>
+        <v>0.02188198592371355</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.01111123649304238</v>
+        <v>0.007275114386252723</v>
       </c>
       <c r="C63">
-        <v>0.0112365199297149</v>
+        <v>0.007610299671234102</v>
       </c>
       <c r="D63">
-        <v>9.998209032364542e-05</v>
+        <v>8.536322774288065e-05</v>
       </c>
       <c r="E63">
-        <v>0.007143348869018419</v>
+        <v>0.005086347814281644</v>
       </c>
       <c r="F63">
-        <v>0.003445391456156107</v>
+        <v>0.00229784800941635</v>
       </c>
       <c r="G63">
-        <v>1.144411359337784e-05</v>
+        <v>9.270341095919787e-06</v>
       </c>
       <c r="H63">
-        <v>0.04420812129045947</v>
+        <v>0.02537886312459131</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.01430371146091189</v>
+        <v>0.005869348563761546</v>
       </c>
       <c r="C64">
-        <v>0.01108250354917901</v>
+        <v>0.009826497862181713</v>
       </c>
       <c r="D64">
-        <v>0.0001378545919357165</v>
+        <v>8.061414874640416e-05</v>
       </c>
       <c r="E64">
-        <v>0.01111516223289471</v>
+        <v>0.005365789528669965</v>
       </c>
       <c r="F64">
-        <v>0.003551924063656425</v>
+        <v>0.002079750018334092</v>
       </c>
       <c r="G64">
-        <v>1.83388591845319e-05</v>
+        <v>8.514564793061585e-06</v>
       </c>
       <c r="H64">
-        <v>0.04431318914595458</v>
+        <v>0.02448242268078013</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.02262072075185345</v>
+        <v>0.007141910890253865</v>
       </c>
       <c r="C65">
-        <v>0.01059061664979837</v>
+        <v>0.006737304139678875</v>
       </c>
       <c r="D65">
-        <v>0.0002937818450069456</v>
+        <v>7.574764552075396e-05</v>
       </c>
       <c r="E65">
-        <v>0.01377517545720085</v>
+        <v>0.004608896478098787</v>
       </c>
       <c r="F65">
-        <v>0.006215399033583218</v>
+        <v>0.002207026520190218</v>
       </c>
       <c r="G65">
-        <v>2.118420130260768e-05</v>
+        <v>7.83649972668977e-06</v>
       </c>
       <c r="H65">
-        <v>0.05493575462075347</v>
+        <v>0.02732527960458589</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.01176499909887911</v>
+        <v>0.005690035955771929</v>
       </c>
       <c r="C66">
-        <v>0.0147958444074397</v>
+        <v>0.004984929099841866</v>
       </c>
       <c r="D66">
-        <v>9.309478998694878e-05</v>
+        <v>6.564826636831423e-05</v>
       </c>
       <c r="E66">
-        <v>0.01095212682796208</v>
+        <v>0.004703116261352041</v>
       </c>
       <c r="F66">
-        <v>0.005180876383020002</v>
+        <v>0.00175097418943043</v>
       </c>
       <c r="G66">
-        <v>1.614222478888142e-05</v>
+        <v>8.082097676373803e-06</v>
       </c>
       <c r="H66">
-        <v>0.07419839625057256</v>
+        <v>0.02466196300947488</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.01607294212150766</v>
+        <v>0.009029628960328367</v>
       </c>
       <c r="C67">
-        <v>0.0168269244498375</v>
+        <v>0.008850457393794463</v>
       </c>
       <c r="D67">
-        <v>0.0001416848871431894</v>
+        <v>8.35745679604973e-05</v>
       </c>
       <c r="E67">
-        <v>0.01541007602228375</v>
+        <v>0.004996826514444992</v>
       </c>
       <c r="F67">
-        <v>0.006175230634055327</v>
+        <v>0.002528976016420809</v>
       </c>
       <c r="G67">
-        <v>1.715907989554678e-05</v>
+        <v>7.914148213228587e-06</v>
       </c>
       <c r="H67">
-        <v>0.08747372753252451</v>
+        <v>0.03389169851214969</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.0174100842761786</v>
+        <v>0.007321423157191532</v>
       </c>
       <c r="C68">
-        <v>0.01291080203973567</v>
+        <v>0.01921970692671543</v>
       </c>
       <c r="D68">
-        <v>0.0001792663876482371</v>
+        <v>8.615900969344861e-05</v>
       </c>
       <c r="E68">
-        <v>0.008609151889758396</v>
+        <v>0.007293868722213566</v>
       </c>
       <c r="F68">
-        <v>0.004659865536767053</v>
+        <v>0.002391731100831368</v>
       </c>
       <c r="G68">
-        <v>1.482112071623765e-05</v>
+        <v>1.092434486411346e-05</v>
       </c>
       <c r="H68">
-        <v>0.05826140366068615</v>
+        <v>0.02423599721168278</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.01858485927566522</v>
+        <v>0.00473898481043588</v>
       </c>
       <c r="C69">
-        <v>0.0166271850709045</v>
+        <v>0.006481493435541538</v>
       </c>
       <c r="D69">
-        <v>0.000279776020281986</v>
+        <v>5.798282322055254e-05</v>
       </c>
       <c r="E69">
-        <v>0.01173137142645065</v>
+        <v>0.004215862422979907</v>
       </c>
       <c r="F69">
-        <v>0.006383135996804934</v>
+        <v>0.001876246438578653</v>
       </c>
       <c r="G69">
-        <v>2.513124458395745e-05</v>
+        <v>7.972003061298857e-06</v>
       </c>
       <c r="H69">
-        <v>0.05264526759389544</v>
+        <v>0.0225133445337119</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.01444251855079823</v>
+        <v>0.006614124067979188</v>
       </c>
       <c r="C70">
-        <v>0.009514821454747682</v>
+        <v>0.007384913803153464</v>
       </c>
       <c r="D70">
-        <v>0.0001559194012224561</v>
+        <v>6.235429479184533e-05</v>
       </c>
       <c r="E70">
-        <v>0.010630285050068</v>
+        <v>0.005211229464696049</v>
       </c>
       <c r="F70">
-        <v>0.00390290696540972</v>
+        <v>0.001884638007028223</v>
       </c>
       <c r="G70">
-        <v>1.91719722364211e-05</v>
+        <v>7.507045703169308e-06</v>
       </c>
       <c r="H70">
-        <v>0.03879009079929798</v>
+        <v>0.02238511809071226</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.02318167126519087</v>
+        <v>0.007251522656404062</v>
       </c>
       <c r="C71">
-        <v>0.009095144058676641</v>
+        <v>0.006883341124262613</v>
       </c>
       <c r="D71">
-        <v>0.0002413787985670546</v>
+        <v>5.146852281053249e-05</v>
       </c>
       <c r="E71">
-        <v>0.0107465355488126</v>
+        <v>0.004719703602814312</v>
       </c>
       <c r="F71">
-        <v>0.005547171812332505</v>
+        <v>0.002059838346092028</v>
       </c>
       <c r="G71">
-        <v>1.991001269404826e-05</v>
+        <v>7.904251212163392e-06</v>
       </c>
       <c r="H71">
-        <v>0.05650159440358866</v>
+        <v>0.02641403206601563</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.01727588763195426</v>
+        <v>0.007002627872461698</v>
       </c>
       <c r="C72">
-        <v>0.007881048190448055</v>
+        <v>0.005700927650695738</v>
       </c>
       <c r="D72">
-        <v>0.0001595463895591925</v>
+        <v>6.571754307659835e-05</v>
       </c>
       <c r="E72">
-        <v>0.008254674806507102</v>
+        <v>0.004400058967213771</v>
       </c>
       <c r="F72">
-        <v>0.003905819305438871</v>
+        <v>0.002347494917548433</v>
       </c>
       <c r="G72">
-        <v>1.862566264873147e-05</v>
+        <v>8.951979936258786e-06</v>
       </c>
       <c r="H72">
-        <v>0.04381206646467765</v>
+        <v>0.02692991798579795</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.01633453432339795</v>
+        <v>0.005996287437352484</v>
       </c>
       <c r="C73">
-        <v>0.0128144939944505</v>
+        <v>0.006954637109531462</v>
       </c>
       <c r="D73">
-        <v>0.000161363285129205</v>
+        <v>7.946265810742589e-05</v>
       </c>
       <c r="E73">
-        <v>0.008134956132552849</v>
+        <v>0.004829449637008239</v>
       </c>
       <c r="F73">
-        <v>0.004442767985629548</v>
+        <v>0.001724410431103255</v>
       </c>
       <c r="G73">
-        <v>1.62192652749773e-05</v>
+        <v>7.685002122660026e-06</v>
       </c>
       <c r="H73">
-        <v>0.04879523832543912</v>
+        <v>0.01938194737305243</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.01702013447853819</v>
+        <v>0.006332154734886252</v>
       </c>
       <c r="C74">
-        <v>0.01342350275876797</v>
+        <v>0.006700738182984361</v>
       </c>
       <c r="D74">
-        <v>0.0002353594915105848</v>
+        <v>7.878398661833192e-05</v>
       </c>
       <c r="E74">
-        <v>0.01111321215313838</v>
+        <v>0.005285465275505173</v>
       </c>
       <c r="F74">
-        <v>0.004976315760640056</v>
+        <v>0.002176042404100139</v>
       </c>
       <c r="G74">
-        <v>1.988479920614368e-05</v>
+        <v>1.142129586715222e-05</v>
       </c>
       <c r="H74">
-        <v>0.05490951237074684</v>
+        <v>0.02621584518227776</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.01167489556317197</v>
+        <v>0.006634456977397417</v>
       </c>
       <c r="C75">
-        <v>0.01845443732875871</v>
+        <v>0.008434213899881483</v>
       </c>
       <c r="D75">
-        <v>0.0001684431714379874</v>
+        <v>4.795601619062297e-05</v>
       </c>
       <c r="E75">
-        <v>0.01145051615071646</v>
+        <v>0.004001971991145692</v>
       </c>
       <c r="F75">
-        <v>0.006652966058492325</v>
+        <v>0.002099393064503138</v>
       </c>
       <c r="G75">
-        <v>1.334188001929747e-05</v>
+        <v>7.640936261386558e-06</v>
       </c>
       <c r="H75">
-        <v>0.08103165820112214</v>
+        <v>0.02720987082797683</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.01589817683394877</v>
+        <v>0.0074869706239981</v>
       </c>
       <c r="C76">
-        <v>0.01116810485944791</v>
+        <v>0.005717463647224807</v>
       </c>
       <c r="D76">
-        <v>0.0001482244575236468</v>
+        <v>6.240923529045883e-05</v>
       </c>
       <c r="E76">
-        <v>0.01266700382030244</v>
+        <v>0.004504069680146799</v>
       </c>
       <c r="F76">
-        <v>0.005007320455532332</v>
+        <v>0.002065403132180913</v>
       </c>
       <c r="G76">
-        <v>2.051246499718903e-05</v>
+        <v>7.819969271344087e-06</v>
       </c>
       <c r="H76">
-        <v>0.05323325432091829</v>
+        <v>0.02562605856103672</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.02086161940245362</v>
+        <v>0.006022705260454093</v>
       </c>
       <c r="C77">
-        <v>0.01688244960752626</v>
+        <v>0.006303425587009909</v>
       </c>
       <c r="D77">
-        <v>0.0002968041312991857</v>
+        <v>6.221632307921154e-05</v>
       </c>
       <c r="E77">
-        <v>0.01130149454771695</v>
+        <v>0.004941236624290309</v>
       </c>
       <c r="F77">
-        <v>0.007627297103851027</v>
+        <v>0.002251635067583071</v>
       </c>
       <c r="G77">
-        <v>2.253458866928172e-05</v>
+        <v>7.354171373504901e-06</v>
       </c>
       <c r="H77">
-        <v>0.07036187856026349</v>
+        <v>0.0279283758120693</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.01311841020844773</v>
+        <v>0.00708281694297766</v>
       </c>
       <c r="C78">
-        <v>0.01925983045263078</v>
+        <v>0.008109857486210025</v>
       </c>
       <c r="D78">
-        <v>0.0001527968212089671</v>
+        <v>9.930720436150202e-05</v>
       </c>
       <c r="E78">
-        <v>0.01199565758195753</v>
+        <v>0.004495391392782108</v>
       </c>
       <c r="F78">
-        <v>0.003425277975429621</v>
+        <v>0.002051851135405337</v>
       </c>
       <c r="G78">
-        <v>1.748064732673015e-05</v>
+        <v>7.817891236154989e-06</v>
       </c>
       <c r="H78">
-        <v>0.04259843346522808</v>
+        <v>0.02266369309764779</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.01471817591667143</v>
+        <v>0.006231982123029698</v>
       </c>
       <c r="C79">
-        <v>0.01504095149150548</v>
+        <v>0.007265496291865413</v>
       </c>
       <c r="D79">
-        <v>0.0002130145135432618</v>
+        <v>7.148655558322206e-05</v>
       </c>
       <c r="E79">
-        <v>0.009631426034317575</v>
+        <v>0.004365141883023073</v>
       </c>
       <c r="F79">
-        <v>0.00453667975774829</v>
+        <v>0.00195472873677416</v>
       </c>
       <c r="G79">
-        <v>1.196323684660847e-05</v>
+        <v>8.502135388545153e-06</v>
       </c>
       <c r="H79">
-        <v>0.06218683828554611</v>
+        <v>0.0225606207485347</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.01607315801842225</v>
+        <v>0.005964116421426923</v>
       </c>
       <c r="C80">
-        <v>0.01442378773849798</v>
+        <v>0.006044904558148731</v>
       </c>
       <c r="D80">
-        <v>0.0001964774983852542</v>
+        <v>7.687864321004086e-05</v>
       </c>
       <c r="E80">
-        <v>0.01062786513397197</v>
+        <v>0.005000447573480867</v>
       </c>
       <c r="F80">
-        <v>0.004319149658970988</v>
+        <v>0.001871341502337028</v>
       </c>
       <c r="G80">
-        <v>1.718407142985823e-05</v>
+        <v>6.349080052588975e-06</v>
       </c>
       <c r="H80">
-        <v>0.04130226766435074</v>
+        <v>0.0234179531667455</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.01083118530116151</v>
+        <v>0.006480213296030326</v>
       </c>
       <c r="C81">
-        <v>0.02414705251505566</v>
+        <v>0.005874055045925614</v>
       </c>
       <c r="D81">
-        <v>0.0001671935625152112</v>
+        <v>7.309745311517678e-05</v>
       </c>
       <c r="E81">
-        <v>0.01134950775126435</v>
+        <v>0.004531589579016664</v>
       </c>
       <c r="F81">
-        <v>0.004258104381388616</v>
+        <v>0.002377675636913337</v>
       </c>
       <c r="G81">
-        <v>1.877313738112503e-05</v>
+        <v>9.231467801175916e-06</v>
       </c>
       <c r="H81">
-        <v>0.04139577999306302</v>
+        <v>0.02572458757544925</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.01257879366124277</v>
+        <v>0.007437124865690604</v>
       </c>
       <c r="C82">
-        <v>0.01069162986003452</v>
+        <v>0.006015834970836664</v>
       </c>
       <c r="D82">
-        <v>0.0001732559941771073</v>
+        <v>7.205742659671844e-05</v>
       </c>
       <c r="E82">
-        <v>0.01628258584275663</v>
+        <v>0.005299635424846371</v>
       </c>
       <c r="F82">
-        <v>0.005601899498131862</v>
+        <v>0.00220127814118337</v>
       </c>
       <c r="G82">
-        <v>2.550821370331011e-05</v>
+        <v>7.70893403707576e-06</v>
       </c>
       <c r="H82">
-        <v>0.05384740591549216</v>
+        <v>0.02569184795886192</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.02742496815619861</v>
+        <v>0.008089620702085494</v>
       </c>
       <c r="C83">
-        <v>0.02293063504652399</v>
+        <v>0.005722845593317503</v>
       </c>
       <c r="D83">
-        <v>0.0002044723092198065</v>
+        <v>9.084979600331384e-05</v>
       </c>
       <c r="E83">
-        <v>0.01754395639873719</v>
+        <v>0.004316421955506864</v>
       </c>
       <c r="F83">
-        <v>0.008351997790263648</v>
+        <v>0.002264717870121682</v>
       </c>
       <c r="G83">
-        <v>2.718772674231173e-05</v>
+        <v>8.224436229790651e-06</v>
       </c>
       <c r="H83">
-        <v>0.1221370796234462</v>
+        <v>0.02630795753350471</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.01297971836793867</v>
+        <v>0.006677805841833338</v>
       </c>
       <c r="C84">
-        <v>0.01572541417463634</v>
+        <v>0.007523319007156022</v>
       </c>
       <c r="D84">
-        <v>0.000145505934436413</v>
+        <v>7.460348475017415e-05</v>
       </c>
       <c r="E84">
-        <v>0.01038423178063685</v>
+        <v>0.005069243023852126</v>
       </c>
       <c r="F84">
-        <v>0.005054852734213459</v>
+        <v>0.002501330597552718</v>
       </c>
       <c r="G84">
-        <v>1.258312667472133e-05</v>
+        <v>7.732402544078471e-06</v>
       </c>
       <c r="H84">
-        <v>0.06089196256601745</v>
+        <v>0.03268353017718943</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.01201270649620574</v>
+        <v>0.006976669441821986</v>
       </c>
       <c r="C85">
-        <v>0.02087034983097483</v>
+        <v>0.008317145535271976</v>
       </c>
       <c r="D85">
-        <v>0.0001886795937606541</v>
+        <v>8.05171198528318e-05</v>
       </c>
       <c r="E85">
-        <v>0.0122670255381237</v>
+        <v>0.004325421016923714</v>
       </c>
       <c r="F85">
-        <v>0.007102126870649563</v>
+        <v>0.001929308710124488</v>
       </c>
       <c r="G85">
-        <v>1.484888819507399e-05</v>
+        <v>7.036483206964446e-06</v>
       </c>
       <c r="H85">
-        <v>0.08984745394786496</v>
+        <v>0.02530557853860875</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.01841746846237903</v>
+        <v>0.006396094843157376</v>
       </c>
       <c r="C86">
-        <v>0.01519420523864013</v>
+        <v>0.01121901887645177</v>
       </c>
       <c r="D86">
-        <v>0.0001908836184517441</v>
+        <v>6.436349855493935e-05</v>
       </c>
       <c r="E86">
-        <v>0.015485287323768</v>
+        <v>0.005397347094306898</v>
       </c>
       <c r="F86">
-        <v>0.007632842201855928</v>
+        <v>0.001795422972537825</v>
       </c>
       <c r="G86">
-        <v>1.980182440580345e-05</v>
+        <v>8.44950090264365e-06</v>
       </c>
       <c r="H86">
-        <v>0.0874347100319708</v>
+        <v>0.02175313727054365</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.02271317286213469</v>
+        <v>0.007118252467442407</v>
       </c>
       <c r="C87">
-        <v>0.01032182375902303</v>
+        <v>0.006274403082328335</v>
       </c>
       <c r="D87">
-        <v>0.0002488146056967267</v>
+        <v>7.778725534286989e-05</v>
       </c>
       <c r="E87">
-        <v>0.01121549486109668</v>
+        <v>0.005572922968416925</v>
       </c>
       <c r="F87">
-        <v>0.006018289492129048</v>
+        <v>0.001968665913655493</v>
       </c>
       <c r="G87">
-        <v>2.357224155845432e-05</v>
+        <v>8.12984057307138e-06</v>
       </c>
       <c r="H87">
-        <v>0.05971991740661042</v>
+        <v>0.02584620425960336</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.02110176550221676</v>
+        <v>0.006839883368925176</v>
       </c>
       <c r="C88">
-        <v>0.01784616252062127</v>
+        <v>0.007045897941828213</v>
       </c>
       <c r="D88">
-        <v>0.000247011419525644</v>
+        <v>7.145313448117225e-05</v>
       </c>
       <c r="E88">
-        <v>0.01291522405244736</v>
+        <v>0.004723702791385181</v>
       </c>
       <c r="F88">
-        <v>0.007311717580440759</v>
+        <v>0.002031182184121816</v>
       </c>
       <c r="G88">
-        <v>1.828394508707482e-05</v>
+        <v>9.19404966862422e-06</v>
       </c>
       <c r="H88">
-        <v>0.0963669088184477</v>
+        <v>0.02197657856030338</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0135393112209233</v>
+        <v>0.006203077529456548</v>
       </c>
       <c r="C89">
-        <v>0.01403555705550622</v>
+        <v>0.005584044199298564</v>
       </c>
       <c r="D89">
-        <v>0.0001358809201048333</v>
+        <v>4.906527672440703e-05</v>
       </c>
       <c r="E89">
-        <v>0.01353236077787976</v>
+        <v>0.00379310392446576</v>
       </c>
       <c r="F89">
-        <v>0.005164434474365695</v>
+        <v>0.001861181997886704</v>
       </c>
       <c r="G89">
-        <v>1.304732570999968e-05</v>
+        <v>5.897560971917935e-06</v>
       </c>
       <c r="H89">
-        <v>0.07136240444654236</v>
+        <v>0.02357624347376967</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.01611601530017084</v>
+        <v>0.006056244141413322</v>
       </c>
       <c r="C90">
-        <v>0.01468853833596137</v>
+        <v>0.008384260184256214</v>
       </c>
       <c r="D90">
-        <v>0.0002356441149181994</v>
+        <v>8.608247239862088e-05</v>
       </c>
       <c r="E90">
-        <v>0.009885637148049619</v>
+        <v>0.006061334954018185</v>
       </c>
       <c r="F90">
-        <v>0.006268541605811683</v>
+        <v>0.003015084984960668</v>
       </c>
       <c r="G90">
-        <v>1.880575004118667e-05</v>
+        <v>8.712676031189886e-06</v>
       </c>
       <c r="H90">
-        <v>0.08316668745704586</v>
+        <v>0.03411282486307805</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.009650675935221025</v>
+        <v>0.005975748802192942</v>
       </c>
       <c r="C91">
-        <v>0.01502401698224231</v>
+        <v>0.00597721006410941</v>
       </c>
       <c r="D91">
-        <v>0.0001407987342637624</v>
+        <v>6.489574767126399e-05</v>
       </c>
       <c r="E91">
-        <v>0.007713167850153482</v>
+        <v>0.004552216007476101</v>
       </c>
       <c r="F91">
-        <v>0.004774009656314719</v>
+        <v>0.00182956381592236</v>
       </c>
       <c r="G91">
-        <v>1.145604248339558e-05</v>
+        <v>7.264730701155567e-06</v>
       </c>
       <c r="H91">
-        <v>0.06059251235112036</v>
+        <v>0.02286052797249621</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.02149524225639138</v>
+        <v>0.008031020450485616</v>
       </c>
       <c r="C92">
-        <v>0.01223867961231597</v>
+        <v>0.007952170027441958</v>
       </c>
       <c r="D92">
-        <v>0.0001654134408167556</v>
+        <v>6.815576360652644e-05</v>
       </c>
       <c r="E92">
-        <v>0.01140743075256033</v>
+        <v>0.005456977621538777</v>
       </c>
       <c r="F92">
-        <v>0.005670708462608149</v>
+        <v>0.002682513205789993</v>
       </c>
       <c r="G92">
-        <v>2.601036936512571e-05</v>
+        <v>1.006556749632971e-05</v>
       </c>
       <c r="H92">
-        <v>0.06866759874731526</v>
+        <v>0.02688319494291238</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.01888902536699925</v>
+        <v>0.005523548052474389</v>
       </c>
       <c r="C93">
-        <v>0.007893007749386931</v>
+        <v>0.009386468051475454</v>
       </c>
       <c r="D93">
-        <v>0.0001884921282141161</v>
+        <v>7.220654948862267e-05</v>
       </c>
       <c r="E93">
-        <v>0.01402821623258267</v>
+        <v>0.004798018816737102</v>
       </c>
       <c r="F93">
-        <v>0.004578626900141779</v>
+        <v>0.00238632778794044</v>
       </c>
       <c r="G93">
-        <v>1.973251511950534e-05</v>
+        <v>6.441303176244736e-06</v>
       </c>
       <c r="H93">
-        <v>0.04444358998939592</v>
+        <v>0.02723220374144196</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.01358056631114877</v>
+        <v>0.007968021331054868</v>
       </c>
       <c r="C94">
-        <v>0.01162489610320081</v>
+        <v>0.007410745692123099</v>
       </c>
       <c r="D94">
-        <v>0.0001742494725397525</v>
+        <v>6.642494409053699e-05</v>
       </c>
       <c r="E94">
-        <v>0.009063557071964948</v>
+        <v>0.005518654615301276</v>
       </c>
       <c r="F94">
-        <v>0.00436968637054859</v>
+        <v>0.002210717726186923</v>
       </c>
       <c r="G94">
-        <v>2.026098511673045e-05</v>
+        <v>9.773564266381459e-06</v>
       </c>
       <c r="H94">
-        <v>0.0470590883463484</v>
+        <v>0.03521505375232825</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.008736614137973508</v>
+        <v>0.00717010209952293</v>
       </c>
       <c r="C95">
-        <v>0.01131995072941241</v>
+        <v>0.006711950268808661</v>
       </c>
       <c r="D95">
-        <v>7.77525043807585e-05</v>
+        <v>6.689871167417382e-05</v>
       </c>
       <c r="E95">
-        <v>0.005978866092681091</v>
+        <v>0.0043299411917057</v>
       </c>
       <c r="F95">
-        <v>0.002518476328214204</v>
+        <v>0.001829504599371742</v>
       </c>
       <c r="G95">
-        <v>1.215476801985931e-05</v>
+        <v>7.748200409350511e-06</v>
       </c>
       <c r="H95">
-        <v>0.02694461813967318</v>
+        <v>0.02458058926254646</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0191885847625896</v>
+        <v>0.007240890299628861</v>
       </c>
       <c r="C96">
-        <v>0.04231750769749427</v>
+        <v>0.006963829700785059</v>
       </c>
       <c r="D96">
-        <v>0.0002551780897800003</v>
+        <v>8.765252671935943e-05</v>
       </c>
       <c r="E96">
-        <v>0.0116820397917763</v>
+        <v>0.004705438595723374</v>
       </c>
       <c r="F96">
-        <v>0.005984441219386991</v>
+        <v>0.002108343475465832</v>
       </c>
       <c r="G96">
-        <v>2.056962587325402e-05</v>
+        <v>7.705987082876997e-06</v>
       </c>
       <c r="H96">
-        <v>0.06181647264570983</v>
+        <v>0.0266392577107878</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.01663087662891352</v>
+        <v>0.005949901557121732</v>
       </c>
       <c r="C97">
-        <v>0.01735230990882885</v>
+        <v>0.008053814140478599</v>
       </c>
       <c r="D97">
-        <v>0.000188120707921781</v>
+        <v>5.944772553364796e-05</v>
       </c>
       <c r="E97">
-        <v>0.01976613155536372</v>
+        <v>0.004743484232831539</v>
       </c>
       <c r="F97">
-        <v>0.00844174745250852</v>
+        <v>0.002086233747685634</v>
       </c>
       <c r="G97">
-        <v>1.433981067928699e-05</v>
+        <v>7.631990588583495e-06</v>
       </c>
       <c r="H97">
-        <v>0.09430136360112831</v>
+        <v>0.02782804642711437</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.01606898715796759</v>
+        <v>0.00716656065499556</v>
       </c>
       <c r="C98">
-        <v>0.01068979783685222</v>
+        <v>0.008390096049024211</v>
       </c>
       <c r="D98">
-        <v>0.00019798067658278</v>
+        <v>6.665131953694634e-05</v>
       </c>
       <c r="E98">
-        <v>0.01048555057458534</v>
+        <v>0.005130064365041667</v>
       </c>
       <c r="F98">
-        <v>0.004518587105501517</v>
+        <v>0.002604294266243904</v>
       </c>
       <c r="G98">
-        <v>1.642667120557091e-05</v>
+        <v>8.442758818208868e-06</v>
       </c>
       <c r="H98">
-        <v>0.04099670045530286</v>
+        <v>0.03446954506520249</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.0179596678061514</v>
+        <v>0.009001260889272193</v>
       </c>
       <c r="C99">
-        <v>0.009641592298995373</v>
+        <v>0.007924899531422247</v>
       </c>
       <c r="D99">
-        <v>0.000204307538241568</v>
+        <v>8.062622249006239e-05</v>
       </c>
       <c r="E99">
-        <v>0.01072243602968919</v>
+        <v>0.005332398039816103</v>
       </c>
       <c r="F99">
-        <v>0.005149618653658599</v>
+        <v>0.002515974554254839</v>
       </c>
       <c r="G99">
-        <v>1.843986220522811e-05</v>
+        <v>1.236887656591981e-05</v>
       </c>
       <c r="H99">
-        <v>0.05524032021269539</v>
+        <v>0.03289055416444617</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.01635545220147105</v>
+        <v>0.006854968595880103</v>
       </c>
       <c r="C100">
-        <v>0.02039181155758501</v>
+        <v>0.007568825041763912</v>
       </c>
       <c r="D100">
-        <v>0.000290915209887891</v>
+        <v>7.311999450441009e-05</v>
       </c>
       <c r="E100">
-        <v>0.01066583487450881</v>
+        <v>0.005432224953225021</v>
       </c>
       <c r="F100">
-        <v>0.007462711312400405</v>
+        <v>0.002270729710954166</v>
       </c>
       <c r="G100">
-        <v>1.529628729433466e-05</v>
+        <v>9.402071926646528e-06</v>
       </c>
       <c r="H100">
-        <v>0.07459861295192648</v>
+        <v>0.02359495047818863</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.01114157453712012</v>
+        <v>0.006397838518454172</v>
       </c>
       <c r="C101">
-        <v>0.009979382041799878</v>
+        <v>0.006157547555468923</v>
       </c>
       <c r="D101">
-        <v>0.0001236626115756837</v>
+        <v>6.481119769681753e-05</v>
       </c>
       <c r="E101">
-        <v>0.007211486314516537</v>
+        <v>0.004695795071922213</v>
       </c>
       <c r="F101">
-        <v>0.003644742442324525</v>
+        <v>0.001930716882527357</v>
       </c>
       <c r="G101">
-        <v>1.54203111681659e-05</v>
+        <v>7.820330209323929e-06</v>
       </c>
       <c r="H101">
-        <v>0.03626499719903187</v>
+        <v>0.02543810990508319</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.01374893887253962</v>
+        <v>0.006221042140972305</v>
       </c>
       <c r="C102">
-        <v>0.01105633701868187</v>
+        <v>0.008352185728113543</v>
       </c>
       <c r="D102">
-        <v>0.0001979793887918822</v>
+        <v>8.029275756974676e-05</v>
       </c>
       <c r="E102">
-        <v>0.01399507038521717</v>
+        <v>0.0043241653254159</v>
       </c>
       <c r="F102">
-        <v>0.005315953262405732</v>
+        <v>0.00195340081718564</v>
       </c>
       <c r="G102">
-        <v>1.988958723866183e-05</v>
+        <v>6.902533595213902e-06</v>
       </c>
       <c r="H102">
-        <v>0.05503464835129022</v>
+        <v>0.02366474607567897</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.01495777158706369</v>
+        <v>0.006041720559126943</v>
       </c>
       <c r="C103">
-        <v>0.008554312910106573</v>
+        <v>0.006753332835724665</v>
       </c>
       <c r="D103">
-        <v>0.0001523408720780083</v>
+        <v>5.958022523617663e-05</v>
       </c>
       <c r="E103">
-        <v>0.01065461098799907</v>
+        <v>0.004259948724346297</v>
       </c>
       <c r="F103">
-        <v>0.004293373336558071</v>
+        <v>0.001843091086793847</v>
       </c>
       <c r="G103">
-        <v>1.791317023518127e-05</v>
+        <v>6.764404270832163e-06</v>
       </c>
       <c r="H103">
-        <v>0.04566380593485447</v>
+        <v>0.0234499642728189</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.01642068361029778</v>
+        <v>0.008576461060746811</v>
       </c>
       <c r="C104">
-        <v>0.01261847796933949</v>
+        <v>0.01076081908322274</v>
       </c>
       <c r="D104">
-        <v>0.0001316777875640717</v>
+        <v>9.215798894078707e-05</v>
       </c>
       <c r="E104">
-        <v>0.009579451393464371</v>
+        <v>0.005754402771153702</v>
       </c>
       <c r="F104">
-        <v>0.004527536361826843</v>
+        <v>0.002242289530351461</v>
       </c>
       <c r="G104">
-        <v>1.822027480264694e-05</v>
+        <v>1.312900921515404e-05</v>
       </c>
       <c r="H104">
-        <v>0.06236234158874601</v>
+        <v>0.02664396220565667</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.01018396107388156</v>
+        <v>0.00673525326578642</v>
       </c>
       <c r="C105">
-        <v>0.01897277941402331</v>
+        <v>0.00742078289571332</v>
       </c>
       <c r="D105">
-        <v>0.0001387418252124133</v>
+        <v>6.166828470016922e-05</v>
       </c>
       <c r="E105">
-        <v>0.01107621059173972</v>
+        <v>0.004789107756991661</v>
       </c>
       <c r="F105">
-        <v>0.005799896716720686</v>
+        <v>0.0023789913783248</v>
       </c>
       <c r="G105">
-        <v>1.153220526837488e-05</v>
+        <v>8.098730395428186e-06</v>
       </c>
       <c r="H105">
-        <v>0.07833744112353284</v>
+        <v>0.03046413954567925</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.01088938463048253</v>
+        <v>0.007144180496101006</v>
       </c>
       <c r="C106">
-        <v>0.01846048362752348</v>
+        <v>0.01041992295251657</v>
       </c>
       <c r="D106">
-        <v>0.0002258125174872484</v>
+        <v>6.833860285208479e-05</v>
       </c>
       <c r="E106">
-        <v>0.009851385308237402</v>
+        <v>0.005780093558757938</v>
       </c>
       <c r="F106">
-        <v>0.006046841056610934</v>
+        <v>0.002214471355793689</v>
       </c>
       <c r="G106">
-        <v>1.315363252066153e-05</v>
+        <v>8.811945072893832e-06</v>
       </c>
       <c r="H106">
-        <v>0.06470454833120171</v>
+        <v>0.02796647371689768</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.01370163611930953</v>
+        <v>0.006974912653168455</v>
       </c>
       <c r="C107">
-        <v>0.01576216687953507</v>
+        <v>0.01002087471635702</v>
       </c>
       <c r="D107">
-        <v>0.0001784436333464874</v>
+        <v>6.603088395723189e-05</v>
       </c>
       <c r="E107">
-        <v>0.01253724863253074</v>
+        <v>0.006735585385770024</v>
       </c>
       <c r="F107">
-        <v>0.005518036185388121</v>
+        <v>0.00218419290524955</v>
       </c>
       <c r="G107">
-        <v>2.560002286766085e-05</v>
+        <v>8.501555087218453e-06</v>
       </c>
       <c r="H107">
-        <v>0.06880716292199349</v>
+        <v>0.02936953247979983</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0101331788991653</v>
+        <v>0.005559940246115859</v>
       </c>
       <c r="C108">
-        <v>0.01418989532782473</v>
+        <v>0.007787429167776388</v>
       </c>
       <c r="D108">
-        <v>0.0001383201390346025</v>
+        <v>7.227364644969175e-05</v>
       </c>
       <c r="E108">
-        <v>0.007730025706803513</v>
+        <v>0.004491744430961766</v>
       </c>
       <c r="F108">
-        <v>0.003441584348106915</v>
+        <v>0.002165976693996784</v>
       </c>
       <c r="G108">
-        <v>1.502366826082712e-05</v>
+        <v>5.678859811398557e-06</v>
       </c>
       <c r="H108">
-        <v>0.03464737606243419</v>
+        <v>0.02565913325904961</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.01099821809849124</v>
+        <v>0.006432588281520259</v>
       </c>
       <c r="C109">
-        <v>0.01622744103002471</v>
+        <v>0.006927597110019784</v>
       </c>
       <c r="D109">
-        <v>0.0001897769720055491</v>
+        <v>9.432681552084423e-05</v>
       </c>
       <c r="E109">
-        <v>0.01077200268879694</v>
+        <v>0.005537836795785262</v>
       </c>
       <c r="F109">
-        <v>0.005330406087164479</v>
+        <v>0.00213364854265638</v>
       </c>
       <c r="G109">
-        <v>1.165534797952301e-05</v>
+        <v>8.841839001319537e-06</v>
       </c>
       <c r="H109">
-        <v>0.05744099248199769</v>
+        <v>0.02372881341305223</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.02160406392771435</v>
+        <v>0.005907445177274232</v>
       </c>
       <c r="C110">
-        <v>0.02225112178345158</v>
+        <v>0.008103579088448356</v>
       </c>
       <c r="D110">
-        <v>0.000230604155103482</v>
+        <v>6.692346289025298e-05</v>
       </c>
       <c r="E110">
-        <v>0.01448493456039063</v>
+        <v>0.004633008731377983</v>
       </c>
       <c r="F110">
-        <v>0.007676449379048642</v>
+        <v>0.001830169526343676</v>
       </c>
       <c r="G110">
-        <v>2.67363183070978e-05</v>
+        <v>5.860425454459257e-06</v>
       </c>
       <c r="H110">
-        <v>0.0943791263936468</v>
+        <v>0.02317693479225028</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.01577569085767844</v>
+        <v>0.005802399596515876</v>
       </c>
       <c r="C111">
-        <v>0.009166633490415833</v>
+        <v>0.007442890972429977</v>
       </c>
       <c r="D111">
-        <v>0.0001624205921616168</v>
+        <v>6.65059316987043e-05</v>
       </c>
       <c r="E111">
-        <v>0.009863939448111635</v>
+        <v>0.004046763906432195</v>
       </c>
       <c r="F111">
-        <v>0.005098446859078216</v>
+        <v>0.001546207067009236</v>
       </c>
       <c r="G111">
-        <v>1.515537564797044e-05</v>
+        <v>7.276142012146668e-06</v>
       </c>
       <c r="H111">
-        <v>0.05051463484176594</v>
+        <v>0.01906579081252974</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.01274285064994906</v>
+        <v>0.005080818873075721</v>
       </c>
       <c r="C112">
-        <v>0.01487417368598913</v>
+        <v>0.00559233299085024</v>
       </c>
       <c r="D112">
-        <v>0.0001289139771616795</v>
+        <v>6.146403012506433e-05</v>
       </c>
       <c r="E112">
-        <v>0.01071393996149518</v>
+        <v>0.005358597431289499</v>
       </c>
       <c r="F112">
-        <v>0.00494243678893256</v>
+        <v>0.001564409411162381</v>
       </c>
       <c r="G112">
-        <v>1.241779223879233e-05</v>
+        <v>6.146939225394485e-06</v>
       </c>
       <c r="H112">
-        <v>0.06382377915446918</v>
+        <v>0.01925111657578789</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.01397506371427772</v>
+        <v>0.008131278638088405</v>
       </c>
       <c r="C113">
-        <v>0.009348039691604106</v>
+        <v>0.01004535989558875</v>
       </c>
       <c r="D113">
-        <v>0.0001967750245588135</v>
+        <v>0.0001054478812721026</v>
       </c>
       <c r="E113">
-        <v>0.008185166835970255</v>
+        <v>0.004792810130096646</v>
       </c>
       <c r="F113">
-        <v>0.004028411828153769</v>
+        <v>0.002718197035085702</v>
       </c>
       <c r="G113">
-        <v>2.197057418119293e-05</v>
+        <v>8.280888195148203e-06</v>
       </c>
       <c r="H113">
-        <v>0.033989919355953</v>
+        <v>0.03333871166286814</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.01377473835067656</v>
+        <v>0.006584319764368366</v>
       </c>
       <c r="C114">
-        <v>0.01991152681294931</v>
+        <v>0.00896516181583016</v>
       </c>
       <c r="D114">
-        <v>0.0001821738452346907</v>
+        <v>5.813031213523624e-05</v>
       </c>
       <c r="E114">
-        <v>0.01209560947909876</v>
+        <v>0.005500835215357013</v>
       </c>
       <c r="F114">
-        <v>0.006624679131823599</v>
+        <v>0.002198478422808414</v>
       </c>
       <c r="G114">
-        <v>1.85285250686186e-05</v>
+        <v>9.802975161262543e-06</v>
       </c>
       <c r="H114">
-        <v>0.08863285770408373</v>
+        <v>0.02557163993390282</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0179873105328764</v>
+        <v>0.00731011153602379</v>
       </c>
       <c r="C115">
-        <v>0.01444892475923666</v>
+        <v>0.009991374384127028</v>
       </c>
       <c r="D115">
-        <v>0.0003037357761763148</v>
+        <v>6.847552465368304e-05</v>
       </c>
       <c r="E115">
-        <v>0.01148099702336359</v>
+        <v>0.005110670477500067</v>
       </c>
       <c r="F115">
-        <v>0.00626555811114094</v>
+        <v>0.002113421786822313</v>
       </c>
       <c r="G115">
-        <v>2.639275564603836e-05</v>
+        <v>7.660226303057593e-06</v>
       </c>
       <c r="H115">
-        <v>0.04694780224672718</v>
+        <v>0.0251447165431674</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.007910742455641396</v>
+        <v>0.006161204313297585</v>
       </c>
       <c r="C116">
-        <v>0.009780769136269879</v>
+        <v>0.008809835282283832</v>
       </c>
       <c r="D116">
-        <v>0.0001118435574659184</v>
+        <v>6.377842597867341e-05</v>
       </c>
       <c r="E116">
-        <v>0.007408293944472823</v>
+        <v>0.004364216095944402</v>
       </c>
       <c r="F116">
-        <v>0.00255882111572697</v>
+        <v>0.001886025763906741</v>
       </c>
       <c r="G116">
-        <v>1.00415966971621e-05</v>
+        <v>6.004086881985278e-06</v>
       </c>
       <c r="H116">
-        <v>0.02836402900027334</v>
+        <v>0.02291531723953036</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.009702330120071266</v>
+        <v>0.006790081468906918</v>
       </c>
       <c r="C117">
-        <v>0.00957002422989206</v>
+        <v>0.007513547210507808</v>
       </c>
       <c r="D117">
-        <v>0.0001145633778370274</v>
+        <v>6.628240213509969e-05</v>
       </c>
       <c r="E117">
-        <v>0.006911285312106118</v>
+        <v>0.004687901871258535</v>
       </c>
       <c r="F117">
-        <v>0.003580700250406871</v>
+        <v>0.002340346962446083</v>
       </c>
       <c r="G117">
-        <v>1.295654241498714e-05</v>
+        <v>7.315898756570364e-06</v>
       </c>
       <c r="H117">
-        <v>0.03997466473455349</v>
+        <v>0.02829286644259212</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.01896911242737743</v>
+        <v>0.005673653084515234</v>
       </c>
       <c r="C118">
-        <v>0.01393802828474078</v>
+        <v>0.007349514425079692</v>
       </c>
       <c r="D118">
-        <v>0.0001789938921919688</v>
+        <v>6.52520782770814e-05</v>
       </c>
       <c r="E118">
-        <v>0.01079601231517281</v>
+        <v>0.004528189994484073</v>
       </c>
       <c r="F118">
-        <v>0.005352974312903679</v>
+        <v>0.001888176264173465</v>
       </c>
       <c r="G118">
-        <v>1.908451061288945e-05</v>
+        <v>7.517298177214979e-06</v>
       </c>
       <c r="H118">
-        <v>0.06220518768775251</v>
+        <v>0.02117000562539412</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.009923213407071836</v>
+        <v>0.007338022787058679</v>
       </c>
       <c r="C119">
-        <v>0.01447293170325084</v>
+        <v>0.00960996197683734</v>
       </c>
       <c r="D119">
-        <v>0.0001772232247842827</v>
+        <v>9.940722008404351e-05</v>
       </c>
       <c r="E119">
-        <v>0.01014450327723786</v>
+        <v>0.00575336302903594</v>
       </c>
       <c r="F119">
-        <v>0.004891527130241467</v>
+        <v>0.002854689028254139</v>
       </c>
       <c r="G119">
-        <v>1.215845738972711e-05</v>
+        <v>8.96744889635347e-06</v>
       </c>
       <c r="H119">
-        <v>0.05316722102302715</v>
+        <v>0.03112175419317429</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.01584065749646884</v>
+        <v>0.008469939277400773</v>
       </c>
       <c r="C120">
-        <v>0.01498295469495193</v>
+        <v>0.01182131077585604</v>
       </c>
       <c r="D120">
-        <v>0.0002063178158573607</v>
+        <v>7.519584977232794e-05</v>
       </c>
       <c r="E120">
-        <v>0.01244333765248738</v>
+        <v>0.006198029556993588</v>
       </c>
       <c r="F120">
-        <v>0.005336170394325769</v>
+        <v>0.002876543389693792</v>
       </c>
       <c r="G120">
-        <v>2.520835556073211e-05</v>
+        <v>8.936338534357691e-06</v>
       </c>
       <c r="H120">
-        <v>0.07065987550150463</v>
+        <v>0.03393238221175236</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.0145524691232299</v>
+        <v>0.006492493417920338</v>
       </c>
       <c r="C121">
-        <v>0.02139323531553033</v>
+        <v>0.01125648337809152</v>
       </c>
       <c r="D121">
-        <v>0.0001405242646801003</v>
+        <v>7.344575961393881e-05</v>
       </c>
       <c r="E121">
-        <v>0.009293251622044724</v>
+        <v>0.005410330315583323</v>
       </c>
       <c r="F121">
-        <v>0.004018950853000299</v>
+        <v>0.002237407077491477</v>
       </c>
       <c r="G121">
-        <v>1.597652242324276e-05</v>
+        <v>7.604031666145932e-06</v>
       </c>
       <c r="H121">
-        <v>0.05385722927695354</v>
+        <v>0.02696960838170407</v>
       </c>
     </row>
   </sheetData>

--- a/FOMC2_bse.xlsx
+++ b/FOMC2_bse.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.006922233180865426</v>
+        <v>0.001256595830540881</v>
       </c>
       <c r="C2">
-        <v>0.008088412961086887</v>
+        <v>0.002519619804245552</v>
       </c>
       <c r="D2">
-        <v>7.488799036010831e-05</v>
+        <v>1.752939832792555e-05</v>
       </c>
       <c r="E2">
-        <v>0.004867351195758768</v>
+        <v>0.001663869948007006</v>
       </c>
       <c r="F2">
-        <v>0.00223289725046444</v>
+        <v>0.0005167999245302703</v>
       </c>
       <c r="G2">
-        <v>8.123006020709525e-06</v>
+        <v>1.526543794295717e-06</v>
       </c>
       <c r="H2">
-        <v>0.02646147975427452</v>
+        <v>0.00661594557016717</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006315144075962176</v>
+        <v>0.0009704114060092209</v>
       </c>
       <c r="C3">
-        <v>0.007951898453530523</v>
+        <v>0.001111054812528823</v>
       </c>
       <c r="D3">
-        <v>8.026133950995147e-05</v>
+        <v>1.104704832595015e-05</v>
       </c>
       <c r="E3">
-        <v>0.004780542200596529</v>
+        <v>0.0008052744622621417</v>
       </c>
       <c r="F3">
-        <v>0.002451323982654761</v>
+        <v>0.0002901463573057929</v>
       </c>
       <c r="G3">
-        <v>8.750923737658682e-06</v>
+        <v>7.453040224112368e-07</v>
       </c>
       <c r="H3">
-        <v>0.02725350904051788</v>
+        <v>0.003094086940821454</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.006066082012727771</v>
+        <v>0.0009435801688044527</v>
       </c>
       <c r="C4">
-        <v>0.007851984958589435</v>
+        <v>0.001764644245247335</v>
       </c>
       <c r="D4">
-        <v>6.69578475767547e-05</v>
+        <v>1.11714382762541e-05</v>
       </c>
       <c r="E4">
-        <v>0.004182073378944837</v>
+        <v>0.0009347474657465293</v>
       </c>
       <c r="F4">
-        <v>0.001967332704806927</v>
+        <v>0.0003558661588323328</v>
       </c>
       <c r="G4">
-        <v>7.227453097767498e-06</v>
+        <v>8.26467320294529e-07</v>
       </c>
       <c r="H4">
-        <v>0.02230242823112251</v>
+        <v>0.00440039199888558</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007199996669121977</v>
+        <v>0.0009453254560159974</v>
       </c>
       <c r="C5">
-        <v>0.008739511290624223</v>
+        <v>0.001473040924738162</v>
       </c>
       <c r="D5">
-        <v>5.580201161760889e-05</v>
+        <v>1.073451683615959e-05</v>
       </c>
       <c r="E5">
-        <v>0.005185002348848116</v>
+        <v>0.001043158296572584</v>
       </c>
       <c r="F5">
-        <v>0.002196269662116417</v>
+        <v>0.0002697226666880552</v>
       </c>
       <c r="G5">
-        <v>7.767117410774535e-06</v>
+        <v>1.669260015405703e-06</v>
       </c>
       <c r="H5">
-        <v>0.0287834333766342</v>
+        <v>0.002689652780853236</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.006845313845999301</v>
+        <v>0.0004824947613340164</v>
       </c>
       <c r="C6">
-        <v>0.008165886505469322</v>
+        <v>0.0007493425911673571</v>
       </c>
       <c r="D6">
-        <v>5.924745117388185e-05</v>
+        <v>5.826842836414018e-06</v>
       </c>
       <c r="E6">
-        <v>0.004965641175706032</v>
+        <v>0.0004416358883105814</v>
       </c>
       <c r="F6">
-        <v>0.002032008551576756</v>
+        <v>0.0001684679752413262</v>
       </c>
       <c r="G6">
-        <v>7.137075860812702e-06</v>
+        <v>4.870900699704241e-07</v>
       </c>
       <c r="H6">
-        <v>0.02557443786244838</v>
+        <v>0.001880658133921947</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.006614689794921242</v>
+        <v>0.002552032872498396</v>
       </c>
       <c r="C7">
-        <v>0.007218832984858407</v>
+        <v>0.003370125288957492</v>
       </c>
       <c r="D7">
-        <v>4.397517498274384e-05</v>
+        <v>3.699521239162537e-05</v>
       </c>
       <c r="E7">
-        <v>0.003830234858925419</v>
+        <v>0.002006123827694844</v>
       </c>
       <c r="F7">
-        <v>0.002235116894705164</v>
+        <v>0.000978597755331303</v>
       </c>
       <c r="G7">
-        <v>5.980865499582714e-06</v>
+        <v>2.149846712003791e-06</v>
       </c>
       <c r="H7">
-        <v>0.02645642508356572</v>
+        <v>0.01127667769216162</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.006339176207850487</v>
+        <v>0.0008079834462482787</v>
       </c>
       <c r="C8">
-        <v>0.006593616018854963</v>
+        <v>0.001061809598372823</v>
       </c>
       <c r="D8">
-        <v>8.680157474355421e-05</v>
+        <v>1.086845776422955e-05</v>
       </c>
       <c r="E8">
-        <v>0.004553248702151592</v>
+        <v>0.0009790565660586889</v>
       </c>
       <c r="F8">
-        <v>0.001930237829712316</v>
+        <v>0.0002808341468835889</v>
       </c>
       <c r="G8">
-        <v>7.763886907250092e-06</v>
+        <v>1.129281801679677e-06</v>
       </c>
       <c r="H8">
-        <v>0.02450470385664686</v>
+        <v>0.003021035981658173</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.007120243536558953</v>
+        <v>0.002534066917402396</v>
       </c>
       <c r="C9">
-        <v>0.007814903085600931</v>
+        <v>0.004448559034276389</v>
       </c>
       <c r="D9">
-        <v>6.615645616266552e-05</v>
+        <v>2.873745468132934e-05</v>
       </c>
       <c r="E9">
-        <v>0.005123539475717158</v>
+        <v>0.00245953668273349</v>
       </c>
       <c r="F9">
-        <v>0.001922376631453041</v>
+        <v>0.0009117777202653906</v>
       </c>
       <c r="G9">
-        <v>7.772994974484787e-06</v>
+        <v>2.634681594225247e-06</v>
       </c>
       <c r="H9">
-        <v>0.02261710548904215</v>
+        <v>0.01054374244855812</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.005494283739959675</v>
+        <v>0.0005289486550846443</v>
       </c>
       <c r="C10">
-        <v>0.007829259534490689</v>
+        <v>0.001759640503615149</v>
       </c>
       <c r="D10">
-        <v>0.000101380476372195</v>
+        <v>8.14976764991081e-06</v>
       </c>
       <c r="E10">
-        <v>0.005169696903039364</v>
+        <v>0.0005250538919945975</v>
       </c>
       <c r="F10">
-        <v>0.002315380155100852</v>
+        <v>0.0003095093936274829</v>
       </c>
       <c r="G10">
-        <v>1.142420744452601e-05</v>
+        <v>6.323509784385289e-07</v>
       </c>
       <c r="H10">
-        <v>0.02163142218294607</v>
+        <v>0.003191241841767966</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.007690650452533085</v>
+        <v>0.0001053434604921954</v>
       </c>
       <c r="C11">
-        <v>0.007427497280671265</v>
+        <v>0.0001614084260875055</v>
       </c>
       <c r="D11">
-        <v>9.574455861628963e-05</v>
+        <v>1.376663872159135e-06</v>
       </c>
       <c r="E11">
-        <v>0.005171592487932881</v>
+        <v>0.0001270192193989507</v>
       </c>
       <c r="F11">
-        <v>0.001960766136274911</v>
+        <v>4.521655891464217e-05</v>
       </c>
       <c r="G11">
-        <v>8.993100701305611e-06</v>
+        <v>1.429104050852785e-07</v>
       </c>
       <c r="H11">
-        <v>0.0240843939201802</v>
+        <v>0.0005348232557326055</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.007496014164927386</v>
+        <v>0.002247379304188578</v>
       </c>
       <c r="C12">
-        <v>0.007659445377893965</v>
+        <v>0.001681356283478238</v>
       </c>
       <c r="D12">
-        <v>7.97801027017685e-05</v>
+        <v>2.728534903332831e-05</v>
       </c>
       <c r="E12">
-        <v>0.0047055247704648</v>
+        <v>0.001716173518600795</v>
       </c>
       <c r="F12">
-        <v>0.002021602269034281</v>
+        <v>0.000798185522224625</v>
       </c>
       <c r="G12">
-        <v>7.957130161400267e-06</v>
+        <v>2.42455536966109e-06</v>
       </c>
       <c r="H12">
-        <v>0.02463778693711047</v>
+        <v>0.009081571366688461</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.005357884869385515</v>
+        <v>0.0001313485423389421</v>
       </c>
       <c r="C13">
-        <v>0.008097994195030199</v>
+        <v>0.0001397014834978587</v>
       </c>
       <c r="D13">
-        <v>6.859762166343378e-05</v>
+        <v>1.936714759704544e-06</v>
       </c>
       <c r="E13">
-        <v>0.004027929716630708</v>
+        <v>0.0001300343309867235</v>
       </c>
       <c r="F13">
-        <v>0.001918676023722076</v>
+        <v>5.024676451927905e-05</v>
       </c>
       <c r="G13">
-        <v>7.359120182475382e-06</v>
+        <v>2.429360244730788e-07</v>
       </c>
       <c r="H13">
-        <v>0.02144140358098364</v>
+        <v>0.0005059400254869178</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.00785933797198711</v>
+        <v>0.0002481847397654913</v>
       </c>
       <c r="C14">
-        <v>0.007157839080439466</v>
+        <v>0.0002712950160426512</v>
       </c>
       <c r="D14">
-        <v>7.424048919660728e-05</v>
+        <v>3.489814359492056e-06</v>
       </c>
       <c r="E14">
-        <v>0.005022250403154118</v>
+        <v>0.0002241111728951333</v>
       </c>
       <c r="F14">
-        <v>0.002054777161710584</v>
+        <v>0.0001192760793655004</v>
       </c>
       <c r="G14">
-        <v>8.38298161963531e-06</v>
+        <v>2.797011775954359e-07</v>
       </c>
       <c r="H14">
-        <v>0.02843346078225744</v>
+        <v>0.001386924011697034</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.005840977275223363</v>
+        <v>0.001532156034115765</v>
       </c>
       <c r="C15">
-        <v>0.006384291737311527</v>
+        <v>0.003079480789299436</v>
       </c>
       <c r="D15">
-        <v>6.628156937879349e-05</v>
+        <v>1.619478387197214e-05</v>
       </c>
       <c r="E15">
-        <v>0.004193941901709066</v>
+        <v>0.001690471149591748</v>
       </c>
       <c r="F15">
-        <v>0.001810860425861167</v>
+        <v>0.0005778044132138941</v>
       </c>
       <c r="G15">
-        <v>7.547435462717052e-06</v>
+        <v>1.69342825797397e-06</v>
       </c>
       <c r="H15">
-        <v>0.02311639642416759</v>
+        <v>0.006101748690309258</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.005408794929184009</v>
+        <v>0.0008391558872123579</v>
       </c>
       <c r="C16">
-        <v>0.007762162726486495</v>
+        <v>0.0008563162843233177</v>
       </c>
       <c r="D16">
-        <v>5.164402426959882e-05</v>
+        <v>9.307311891232487e-06</v>
       </c>
       <c r="E16">
-        <v>0.004258327802064104</v>
+        <v>0.0007073005715993516</v>
       </c>
       <c r="F16">
-        <v>0.001658502666535284</v>
+        <v>0.0003874354044605281</v>
       </c>
       <c r="G16">
-        <v>5.894508758884938e-06</v>
+        <v>9.409338563758347e-07</v>
       </c>
       <c r="H16">
-        <v>0.02221951863834812</v>
+        <v>0.003987392606443313</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.005052662387609556</v>
+        <v>0.000130717638197175</v>
       </c>
       <c r="C17">
-        <v>0.007807021024138583</v>
+        <v>0.0001018888611419581</v>
       </c>
       <c r="D17">
-        <v>5.828204202591306e-05</v>
+        <v>1.218127148904644e-06</v>
       </c>
       <c r="E17">
-        <v>0.004747746952629559</v>
+        <v>0.0001163766453490724</v>
       </c>
       <c r="F17">
-        <v>0.001697328600035594</v>
+        <v>4.993963743363548e-05</v>
       </c>
       <c r="G17">
-        <v>8.444980610618252e-06</v>
+        <v>1.311532646554803e-07</v>
       </c>
       <c r="H17">
-        <v>0.01954597787284144</v>
+        <v>0.0005323953130886705</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.007324181695135325</v>
+        <v>0.002152800562430099</v>
       </c>
       <c r="C18">
-        <v>0.006140954822971114</v>
+        <v>0.003958074853205894</v>
       </c>
       <c r="D18">
-        <v>7.582369711654375e-05</v>
+        <v>1.860218522260064e-05</v>
       </c>
       <c r="E18">
-        <v>0.005025608052350972</v>
+        <v>0.002270686705032349</v>
       </c>
       <c r="F18">
-        <v>0.002759767293071221</v>
+        <v>0.0008528766056585308</v>
       </c>
       <c r="G18">
-        <v>8.182234557908097e-06</v>
+        <v>2.056735006962434e-06</v>
       </c>
       <c r="H18">
-        <v>0.04119971685697688</v>
+        <v>0.009952364655650577</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.007536357223451104</v>
+        <v>0.0002567095340955209</v>
       </c>
       <c r="C19">
-        <v>0.009958734898550092</v>
+        <v>0.0002708790597011481</v>
       </c>
       <c r="D19">
-        <v>7.198266481843807e-05</v>
+        <v>3.524514116265544e-06</v>
       </c>
       <c r="E19">
-        <v>0.005222129481160412</v>
+        <v>0.0002921058150142298</v>
       </c>
       <c r="F19">
-        <v>0.002658004053066098</v>
+        <v>0.0001018151777178865</v>
       </c>
       <c r="G19">
-        <v>7.68044431424001e-06</v>
+        <v>3.677322895625949e-07</v>
       </c>
       <c r="H19">
-        <v>0.0319612012120367</v>
+        <v>0.001074974657493531</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.008197675501402827</v>
+        <v>0.001355190370430226</v>
       </c>
       <c r="C20">
-        <v>0.007631317985418219</v>
+        <v>0.001505578187572718</v>
       </c>
       <c r="D20">
-        <v>7.260571323812665e-05</v>
+        <v>1.780119509055294e-05</v>
       </c>
       <c r="E20">
-        <v>0.005660302701242088</v>
+        <v>0.001011644134576618</v>
       </c>
       <c r="F20">
-        <v>0.002369990635683059</v>
+        <v>0.0005244284145357351</v>
       </c>
       <c r="G20">
-        <v>7.252479906292864e-06</v>
+        <v>1.179154796385026e-06</v>
       </c>
       <c r="H20">
-        <v>0.03096813594696772</v>
+        <v>0.005270105857850661</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.007587244372836689</v>
+        <v>0.002932044825294987</v>
       </c>
       <c r="C21">
-        <v>0.007365866047354242</v>
+        <v>0.006108554297336503</v>
       </c>
       <c r="D21">
-        <v>7.669137825564529e-05</v>
+        <v>3.590228877750601e-05</v>
       </c>
       <c r="E21">
-        <v>0.004406156974187888</v>
+        <v>0.002087416766983356</v>
       </c>
       <c r="F21">
-        <v>0.002328795842310006</v>
+        <v>0.001137168680213976</v>
       </c>
       <c r="G21">
-        <v>9.172682406337516e-06</v>
+        <v>3.483108617642198e-06</v>
       </c>
       <c r="H21">
-        <v>0.02736727432240429</v>
+        <v>0.01170670260314709</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.00463836721954733</v>
+        <v>0.002084630140735287</v>
       </c>
       <c r="C22">
-        <v>0.006203436611169474</v>
+        <v>0.00197157613466312</v>
       </c>
       <c r="D22">
-        <v>4.679580397324079e-05</v>
+        <v>2.79803935657269e-05</v>
       </c>
       <c r="E22">
-        <v>0.003921839921158024</v>
+        <v>0.002025151235439194</v>
       </c>
       <c r="F22">
-        <v>0.001756244082815986</v>
+        <v>0.001095897543062656</v>
       </c>
       <c r="G22">
-        <v>6.230365250636878e-06</v>
+        <v>2.269175794595225e-06</v>
       </c>
       <c r="H22">
-        <v>0.02262898203295472</v>
+        <v>0.01175107298346765</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.005675651281721524</v>
+        <v>0.002408266405987109</v>
       </c>
       <c r="C23">
-        <v>0.007784016695786388</v>
+        <v>0.005521354528581585</v>
       </c>
       <c r="D23">
-        <v>6.626762805184776e-05</v>
+        <v>3.435012565962278e-05</v>
       </c>
       <c r="E23">
-        <v>0.004697133078339617</v>
+        <v>0.002324288267352078</v>
       </c>
       <c r="F23">
-        <v>0.001708593823730366</v>
+        <v>0.001020972526986751</v>
       </c>
       <c r="G23">
-        <v>8.391870790767015e-06</v>
+        <v>2.694190484709528e-06</v>
       </c>
       <c r="H23">
-        <v>0.02229229004874468</v>
+        <v>0.01177669269632117</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.005710737858632208</v>
+        <v>0.0006243989525425813</v>
       </c>
       <c r="C24">
-        <v>0.006856611730046479</v>
+        <v>0.0005501646405224656</v>
       </c>
       <c r="D24">
-        <v>6.274557192884216e-05</v>
+        <v>6.608837056958803e-06</v>
       </c>
       <c r="E24">
-        <v>0.004838250063297019</v>
+        <v>0.000540102939319131</v>
       </c>
       <c r="F24">
-        <v>0.002024507684646401</v>
+        <v>0.0002458245851255317</v>
       </c>
       <c r="G24">
-        <v>6.927863527615255e-06</v>
+        <v>7.69448394801789e-07</v>
       </c>
       <c r="H24">
-        <v>0.02575321647204518</v>
+        <v>0.002864074371708479</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.007211370574629572</v>
+        <v>8.193640990813136e-05</v>
       </c>
       <c r="C25">
-        <v>0.009699640188443272</v>
+        <v>7.001592623702828e-05</v>
       </c>
       <c r="D25">
-        <v>5.917017535239182e-05</v>
+        <v>1.070097807683754e-06</v>
       </c>
       <c r="E25">
-        <v>0.00486458479725548</v>
+        <v>0.0001085157555559632</v>
       </c>
       <c r="F25">
-        <v>0.002024359975873207</v>
+        <v>2.990981871149532e-05</v>
       </c>
       <c r="G25">
-        <v>5.832705694306411e-06</v>
+        <v>9.024659017340072e-08</v>
       </c>
       <c r="H25">
-        <v>0.02449240960788612</v>
+        <v>0.0003695274349466845</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.006702646381007583</v>
+        <v>0.003816292788768302</v>
       </c>
       <c r="C26">
-        <v>0.007718593845877433</v>
+        <v>0.005088667681783774</v>
       </c>
       <c r="D26">
-        <v>7.136196518857123e-05</v>
+        <v>3.331119526904194e-05</v>
       </c>
       <c r="E26">
-        <v>0.004234902122296921</v>
+        <v>0.003969220619331087</v>
       </c>
       <c r="F26">
-        <v>0.00210015196506022</v>
+        <v>0.001239737545588779</v>
       </c>
       <c r="G26">
-        <v>8.717914735125072e-06</v>
+        <v>4.088699952051463e-06</v>
       </c>
       <c r="H26">
-        <v>0.02535558487223654</v>
+        <v>0.01503842991754098</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.007132229221381277</v>
+        <v>0.0001424984476109517</v>
       </c>
       <c r="C27">
-        <v>0.008263825097703383</v>
+        <v>0.0002342784319954747</v>
       </c>
       <c r="D27">
-        <v>7.35608223111122e-05</v>
+        <v>1.782859041949233e-06</v>
       </c>
       <c r="E27">
-        <v>0.004773111678650376</v>
+        <v>0.0001104435516801745</v>
       </c>
       <c r="F27">
-        <v>0.002109276472506956</v>
+        <v>5.583531683190112e-05</v>
       </c>
       <c r="G27">
-        <v>6.997108469399589e-06</v>
+        <v>1.619078875504074e-07</v>
       </c>
       <c r="H27">
-        <v>0.02664342836708849</v>
+        <v>0.0006145142631155329</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.007818354702005623</v>
+        <v>0.0001400344252008883</v>
       </c>
       <c r="C28">
-        <v>0.006019045863714735</v>
+        <v>0.0001253667661505805</v>
       </c>
       <c r="D28">
-        <v>6.780788333909661e-05</v>
+        <v>1.777377660683646e-06</v>
       </c>
       <c r="E28">
-        <v>0.004736257828742983</v>
+        <v>0.0001264925025801244</v>
       </c>
       <c r="F28">
-        <v>0.002469918615094787</v>
+        <v>6.05756472665892e-05</v>
       </c>
       <c r="G28">
-        <v>8.708128054740325e-06</v>
+        <v>1.844764227640169e-07</v>
       </c>
       <c r="H28">
-        <v>0.03011450295586119</v>
+        <v>0.0005980643220626138</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.008540524073020658</v>
+        <v>0.0001144649449231158</v>
       </c>
       <c r="C29">
-        <v>0.005932424378131629</v>
+        <v>0.000102804888472689</v>
       </c>
       <c r="D29">
-        <v>9.16949428570814e-05</v>
+        <v>1.090305038542281e-06</v>
       </c>
       <c r="E29">
-        <v>0.005084360688700401</v>
+        <v>7.719095731650631e-05</v>
       </c>
       <c r="F29">
-        <v>0.002550203741912805</v>
+        <v>3.274091592768863e-05</v>
       </c>
       <c r="G29">
-        <v>1.012865629231101e-05</v>
+        <v>1.167412172413211e-07</v>
       </c>
       <c r="H29">
-        <v>0.02740266417255804</v>
+        <v>0.0003642322817376749</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.005582147348589937</v>
+        <v>0.001356477792777782</v>
       </c>
       <c r="C30">
-        <v>0.007582345284373589</v>
+        <v>0.00163079862410215</v>
       </c>
       <c r="D30">
-        <v>5.609349456563507e-05</v>
+        <v>1.421149255403835e-05</v>
       </c>
       <c r="E30">
-        <v>0.004418548853798576</v>
+        <v>0.001214236282629311</v>
       </c>
       <c r="F30">
-        <v>0.001612237371025524</v>
+        <v>0.0005112715580280158</v>
       </c>
       <c r="G30">
-        <v>8.511771702631026e-06</v>
+        <v>1.484242094394614e-06</v>
       </c>
       <c r="H30">
-        <v>0.01905578024085525</v>
+        <v>0.00584610230598537</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.006088846062385423</v>
+        <v>7.679977717940652e-05</v>
       </c>
       <c r="C31">
-        <v>0.01042730604404252</v>
+        <v>0.0001775368568539285</v>
       </c>
       <c r="D31">
-        <v>8.704579535112565e-05</v>
+        <v>8.391595748786805e-07</v>
       </c>
       <c r="E31">
-        <v>0.004602384471059408</v>
+        <v>7.50162431004803e-05</v>
       </c>
       <c r="F31">
-        <v>0.001852350772390822</v>
+        <v>3.540894446977779e-05</v>
       </c>
       <c r="G31">
-        <v>5.282411414521658e-06</v>
+        <v>1.121763306262417e-07</v>
       </c>
       <c r="H31">
-        <v>0.02180977789318463</v>
+        <v>0.0003876730953055518</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.006854662693519174</v>
+        <v>0.001738971136552298</v>
       </c>
       <c r="C32">
-        <v>0.01008296048182656</v>
+        <v>0.002328496841586271</v>
       </c>
       <c r="D32">
-        <v>6.807903181242522e-05</v>
+        <v>2.380604397489824e-05</v>
       </c>
       <c r="E32">
-        <v>0.00454088770797695</v>
+        <v>0.002167835189311643</v>
       </c>
       <c r="F32">
-        <v>0.00199265856346316</v>
+        <v>0.0007264861512468606</v>
       </c>
       <c r="G32">
-        <v>8.53138262106213e-06</v>
+        <v>1.738160316722605e-06</v>
       </c>
       <c r="H32">
-        <v>0.02201655858410494</v>
+        <v>0.007618287158196332</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.007804517282909199</v>
+        <v>0.0001033935791599401</v>
       </c>
       <c r="C33">
-        <v>0.006739796234542354</v>
+        <v>0.0001577688261595293</v>
       </c>
       <c r="D33">
-        <v>7.307565029487406e-05</v>
+        <v>1.478117262986247e-06</v>
       </c>
       <c r="E33">
-        <v>0.005409362343207881</v>
+        <v>7.943049572339391e-05</v>
       </c>
       <c r="F33">
-        <v>0.002652560067369338</v>
+        <v>3.315997805494121e-05</v>
       </c>
       <c r="G33">
-        <v>9.609603002306764e-06</v>
+        <v>9.783999778133383e-08</v>
       </c>
       <c r="H33">
-        <v>0.03018840671352159</v>
+        <v>0.0003466167532962885</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.007008476741145996</v>
+        <v>0.0003168121300167071</v>
       </c>
       <c r="C34">
-        <v>0.009454321953336569</v>
+        <v>0.0003111491695231238</v>
       </c>
       <c r="D34">
-        <v>7.563600220551969e-05</v>
+        <v>3.178919677588397e-06</v>
       </c>
       <c r="E34">
-        <v>0.005318624990219781</v>
+        <v>0.0003036354910787678</v>
       </c>
       <c r="F34">
-        <v>0.002438581299002334</v>
+        <v>9.285308594926559e-05</v>
       </c>
       <c r="G34">
-        <v>7.443843033852928e-06</v>
+        <v>2.570593869209507e-07</v>
       </c>
       <c r="H34">
-        <v>0.03070609738271018</v>
+        <v>0.001034806338609268</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.008360161545236926</v>
+        <v>0.001218915637486661</v>
       </c>
       <c r="C35">
-        <v>0.008932530087883465</v>
+        <v>0.004484315967731602</v>
       </c>
       <c r="D35">
-        <v>8.033025843488952e-05</v>
+        <v>1.18642836029212e-05</v>
       </c>
       <c r="E35">
-        <v>0.006251307259000501</v>
+        <v>0.0008586893854280247</v>
       </c>
       <c r="F35">
-        <v>0.002890479760299966</v>
+        <v>0.0005352952629762434</v>
       </c>
       <c r="G35">
-        <v>1.150621484359973e-05</v>
+        <v>1.277843388784261e-06</v>
       </c>
       <c r="H35">
-        <v>0.04233175821744406</v>
+        <v>0.006089368929540552</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.006239634006501737</v>
+        <v>0.001602137689243176</v>
       </c>
       <c r="C36">
-        <v>0.006529698716475556</v>
+        <v>0.002102897419016395</v>
       </c>
       <c r="D36">
-        <v>5.923585266472061e-05</v>
+        <v>2.081705961290958e-05</v>
       </c>
       <c r="E36">
-        <v>0.004591777026368436</v>
+        <v>0.001451227061452261</v>
       </c>
       <c r="F36">
-        <v>0.002169544615206972</v>
+        <v>0.0006283171070443236</v>
       </c>
       <c r="G36">
-        <v>8.462317651655737e-06</v>
+        <v>1.35871241133765e-06</v>
       </c>
       <c r="H36">
-        <v>0.02759867145717257</v>
+        <v>0.007193151166142994</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.00601767311995892</v>
+        <v>8.687894588609421e-05</v>
       </c>
       <c r="C37">
-        <v>0.0133044458561128</v>
+        <v>0.0001400955929892443</v>
       </c>
       <c r="D37">
-        <v>6.611637852217751e-05</v>
+        <v>8.489921928813472e-07</v>
       </c>
       <c r="E37">
-        <v>0.005312982583210757</v>
+        <v>8.297503306986472e-05</v>
       </c>
       <c r="F37">
-        <v>0.002205455839768683</v>
+        <v>3.429146303038076e-05</v>
       </c>
       <c r="G37">
-        <v>7.408923249526637e-06</v>
+        <v>1.239716817484846e-07</v>
       </c>
       <c r="H37">
-        <v>0.0238723199278575</v>
+        <v>0.0004271976810877603</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.006644231046908046</v>
+        <v>0.002323682647156595</v>
       </c>
       <c r="C38">
-        <v>0.01040888886323104</v>
+        <v>0.003277505635127564</v>
       </c>
       <c r="D38">
-        <v>8.916572593899123e-05</v>
+        <v>2.537189395832245e-05</v>
       </c>
       <c r="E38">
-        <v>0.005748673705891575</v>
+        <v>0.00194561708316228</v>
       </c>
       <c r="F38">
-        <v>0.002526559123192499</v>
+        <v>0.0006923941652515786</v>
       </c>
       <c r="G38">
-        <v>9.441091656186167e-06</v>
+        <v>2.147257514588317e-06</v>
       </c>
       <c r="H38">
-        <v>0.02653351777802966</v>
+        <v>0.009689020235946238</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.006604460277582825</v>
+        <v>0.001751917233535045</v>
       </c>
       <c r="C39">
-        <v>0.007569041559593638</v>
+        <v>0.00182274429720855</v>
       </c>
       <c r="D39">
-        <v>6.14239950673333e-05</v>
+        <v>1.978270496488136e-05</v>
       </c>
       <c r="E39">
-        <v>0.00531314976564643</v>
+        <v>0.001553051770151938</v>
       </c>
       <c r="F39">
-        <v>0.002349914692068318</v>
+        <v>0.0006314470749284838</v>
       </c>
       <c r="G39">
-        <v>7.018188077789597e-06</v>
+        <v>1.705271228470068e-06</v>
       </c>
       <c r="H39">
-        <v>0.02934141550644884</v>
+        <v>0.006394689781888082</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.005642565820444744</v>
+        <v>0.0005612215552190756</v>
       </c>
       <c r="C40">
-        <v>0.005229699593628723</v>
+        <v>0.001357266446630583</v>
       </c>
       <c r="D40">
-        <v>6.355344212527334e-05</v>
+        <v>6.761163639652749e-06</v>
       </c>
       <c r="E40">
-        <v>0.004464484212494867</v>
+        <v>0.0005264535491028501</v>
       </c>
       <c r="F40">
-        <v>0.001883473937906958</v>
+        <v>0.0002083581740669042</v>
       </c>
       <c r="G40">
-        <v>1.127876984484079e-05</v>
+        <v>5.876787422373579e-07</v>
       </c>
       <c r="H40">
-        <v>0.02261295295212883</v>
+        <v>0.002328715558339151</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.006306196398039534</v>
+        <v>0.001812265360673575</v>
       </c>
       <c r="C41">
-        <v>0.007608198330078919</v>
+        <v>0.002651442146492124</v>
       </c>
       <c r="D41">
-        <v>6.257014393948562e-05</v>
+        <v>2.925403614458336e-05</v>
       </c>
       <c r="E41">
-        <v>0.004802153904024313</v>
+        <v>0.001540438745225842</v>
       </c>
       <c r="F41">
-        <v>0.002077754216928218</v>
+        <v>0.000458214307675498</v>
       </c>
       <c r="G41">
-        <v>9.583945142791621e-06</v>
+        <v>2.136770054682985e-06</v>
       </c>
       <c r="H41">
-        <v>0.02717765161858002</v>
+        <v>0.005746451439930622</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.006799221450083468</v>
+        <v>0.001576682525032815</v>
       </c>
       <c r="C42">
-        <v>0.008296117812260861</v>
+        <v>0.001720097239516993</v>
       </c>
       <c r="D42">
-        <v>8.144930835699845e-05</v>
+        <v>2.035100147990693e-05</v>
       </c>
       <c r="E42">
-        <v>0.00498053541267524</v>
+        <v>0.001128503629361892</v>
       </c>
       <c r="F42">
-        <v>0.00204545917348323</v>
+        <v>0.0004963299537177101</v>
       </c>
       <c r="G42">
-        <v>8.469750584075309e-06</v>
+        <v>2.027242463970707e-06</v>
       </c>
       <c r="H42">
-        <v>0.02617154660951897</v>
+        <v>0.005034156476153692</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.006551552032371314</v>
+        <v>0.003678009050393385</v>
       </c>
       <c r="C43">
-        <v>0.007499733556325535</v>
+        <v>0.007241636724874823</v>
       </c>
       <c r="D43">
-        <v>5.997576741542164e-05</v>
+        <v>5.469083327519464e-05</v>
       </c>
       <c r="E43">
-        <v>0.004941022053467704</v>
+        <v>0.004206949485753105</v>
       </c>
       <c r="F43">
-        <v>0.00248981844988273</v>
+        <v>0.001265885311362981</v>
       </c>
       <c r="G43">
-        <v>8.684872813527711e-06</v>
+        <v>3.968070843584908e-06</v>
       </c>
       <c r="H43">
-        <v>0.03374890683538213</v>
+        <v>0.0142472414352608</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.009355272612635874</v>
+        <v>0.002547671960486835</v>
       </c>
       <c r="C44">
-        <v>0.004803197252185492</v>
+        <v>0.003262646123016176</v>
       </c>
       <c r="D44">
-        <v>9.636321018633287e-05</v>
+        <v>3.108646582454292e-05</v>
       </c>
       <c r="E44">
-        <v>0.004871788321415495</v>
+        <v>0.002728516669215951</v>
       </c>
       <c r="F44">
-        <v>0.002390407567429473</v>
+        <v>0.0008343913587848193</v>
       </c>
       <c r="G44">
-        <v>9.257492714652333e-06</v>
+        <v>3.366388619981873e-06</v>
       </c>
       <c r="H44">
-        <v>0.02726209519695807</v>
+        <v>0.01035405118439733</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.005917487044191432</v>
+        <v>0.003256659362206134</v>
       </c>
       <c r="C45">
-        <v>0.009694216042156584</v>
+        <v>0.006729647985023792</v>
       </c>
       <c r="D45">
-        <v>7.592053864463042e-05</v>
+        <v>3.692431320581181e-05</v>
       </c>
       <c r="E45">
-        <v>0.005027725771748414</v>
+        <v>0.002612468861314636</v>
       </c>
       <c r="F45">
-        <v>0.001989468381775244</v>
+        <v>0.001078659490524757</v>
       </c>
       <c r="G45">
-        <v>8.9643623314471e-06</v>
+        <v>2.521318883317308e-06</v>
       </c>
       <c r="H45">
-        <v>0.02352437389313673</v>
+        <v>0.01110869058181066</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.006442183129242285</v>
+        <v>0.0006013523858718262</v>
       </c>
       <c r="C46">
-        <v>0.005825200622063013</v>
+        <v>0.0009993107314304206</v>
       </c>
       <c r="D46">
-        <v>5.927288754525464e-05</v>
+        <v>8.013982796146613e-06</v>
       </c>
       <c r="E46">
-        <v>0.004042783001114801</v>
+        <v>0.0006067275877380245</v>
       </c>
       <c r="F46">
-        <v>0.001743275911396548</v>
+        <v>0.0002558046293784875</v>
       </c>
       <c r="G46">
-        <v>6.467639435752453e-06</v>
+        <v>5.144285264936281e-07</v>
       </c>
       <c r="H46">
-        <v>0.02363085229478969</v>
+        <v>0.002485639507713423</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.006158394216948518</v>
+        <v>0.0001303654379379392</v>
       </c>
       <c r="C47">
-        <v>0.006303496474868431</v>
+        <v>0.0001659941329781139</v>
       </c>
       <c r="D47">
-        <v>5.781437705644936e-05</v>
+        <v>1.474960720213507e-06</v>
       </c>
       <c r="E47">
-        <v>0.004404920157400168</v>
+        <v>0.0001330210003095644</v>
       </c>
       <c r="F47">
-        <v>0.002125086160279184</v>
+        <v>4.331587975335556e-05</v>
       </c>
       <c r="G47">
-        <v>7.840766928432624e-06</v>
+        <v>1.434264516244656e-07</v>
       </c>
       <c r="H47">
-        <v>0.02782016284262522</v>
+        <v>0.0004918747394426851</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.005804202618887229</v>
+        <v>0.003689741371577853</v>
       </c>
       <c r="C48">
-        <v>0.006510424548682515</v>
+        <v>0.005392587658334939</v>
       </c>
       <c r="D48">
-        <v>7.667537452548435e-05</v>
+        <v>4.679683392692245e-05</v>
       </c>
       <c r="E48">
-        <v>0.004778230509085893</v>
+        <v>0.003196130827880593</v>
       </c>
       <c r="F48">
-        <v>0.002096218793651273</v>
+        <v>0.001204584968002115</v>
       </c>
       <c r="G48">
-        <v>8.735299027378664e-06</v>
+        <v>5.29493305863789e-06</v>
       </c>
       <c r="H48">
-        <v>0.02283445954259835</v>
+        <v>0.01369483781370313</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.005946217802301086</v>
+        <v>0.000155642089181571</v>
       </c>
       <c r="C49">
-        <v>0.01029884764143123</v>
+        <v>9.044461929481892e-05</v>
       </c>
       <c r="D49">
-        <v>7.780916989031862e-05</v>
+        <v>1.326347189000605e-06</v>
       </c>
       <c r="E49">
-        <v>0.004422608585156077</v>
+        <v>8.785423692323224e-05</v>
       </c>
       <c r="F49">
-        <v>0.001688280450455508</v>
+        <v>5.514814096460761e-05</v>
       </c>
       <c r="G49">
-        <v>5.546682267823191e-06</v>
+        <v>9.305799251368804e-08</v>
       </c>
       <c r="H49">
-        <v>0.01990683872173359</v>
+        <v>0.0006030561068499345</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.006742373306703296</v>
+        <v>0.001077642962965708</v>
       </c>
       <c r="C50">
-        <v>0.008118257868109751</v>
+        <v>0.001389685871242819</v>
       </c>
       <c r="D50">
-        <v>9.058323939387671e-05</v>
+        <v>9.124977368696847e-06</v>
       </c>
       <c r="E50">
-        <v>0.005257359703363755</v>
+        <v>0.0007918744538366594</v>
       </c>
       <c r="F50">
-        <v>0.002354497861200189</v>
+        <v>0.0004388942522862373</v>
       </c>
       <c r="G50">
-        <v>7.201369500754747e-06</v>
+        <v>1.170800831631149e-06</v>
       </c>
       <c r="H50">
-        <v>0.02930171526660581</v>
+        <v>0.005028241711876941</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.006105713566114594</v>
+        <v>0.001103032723264002</v>
       </c>
       <c r="C51">
-        <v>0.005632627725200498</v>
+        <v>0.0008471937983019101</v>
       </c>
       <c r="D51">
-        <v>6.604819948461064e-05</v>
+        <v>1.313442036662436e-05</v>
       </c>
       <c r="E51">
-        <v>0.004886184985970801</v>
+        <v>0.001313227994948922</v>
       </c>
       <c r="F51">
-        <v>0.001995634967458868</v>
+        <v>0.0004516885229274049</v>
       </c>
       <c r="G51">
-        <v>7.003731872745817e-06</v>
+        <v>1.170327992987598e-06</v>
       </c>
       <c r="H51">
-        <v>0.02344464355095538</v>
+        <v>0.005170926276520277</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.00604789015780182</v>
+        <v>0.0008204129555398972</v>
       </c>
       <c r="C52">
-        <v>0.005554414185656764</v>
+        <v>0.0008666348721482422</v>
       </c>
       <c r="D52">
-        <v>6.848976025462613e-05</v>
+        <v>7.287251353266405e-06</v>
       </c>
       <c r="E52">
-        <v>0.004671014064279904</v>
+        <v>0.0006749304427085892</v>
       </c>
       <c r="F52">
-        <v>0.002140252119586533</v>
+        <v>0.0003036666757005891</v>
       </c>
       <c r="G52">
-        <v>7.898293066446732e-06</v>
+        <v>7.522941569014589e-07</v>
       </c>
       <c r="H52">
-        <v>0.02463889037614478</v>
+        <v>0.003532386676218657</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.006583947300780419</v>
+        <v>0.0001773725225885974</v>
       </c>
       <c r="C53">
-        <v>0.006647250596998762</v>
+        <v>0.0002637566990290923</v>
       </c>
       <c r="D53">
-        <v>6.504114734246903e-05</v>
+        <v>1.925416483849383e-06</v>
       </c>
       <c r="E53">
-        <v>0.004419758324193769</v>
+        <v>0.0001211970247762753</v>
       </c>
       <c r="F53">
-        <v>0.001921628362803404</v>
+        <v>5.27488396890904e-05</v>
       </c>
       <c r="G53">
-        <v>7.708849612996958e-06</v>
+        <v>1.49264135922253e-07</v>
       </c>
       <c r="H53">
-        <v>0.02445133055825633</v>
+        <v>0.0006306096533371676</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.00591825003586877</v>
+        <v>0.003045340755446106</v>
       </c>
       <c r="C54">
-        <v>0.006383065691460182</v>
+        <v>0.003628949424780661</v>
       </c>
       <c r="D54">
-        <v>5.374493140334404e-05</v>
+        <v>3.411254568065987e-05</v>
       </c>
       <c r="E54">
-        <v>0.004713497217135879</v>
+        <v>0.002692377757047831</v>
       </c>
       <c r="F54">
-        <v>0.001840612085310108</v>
+        <v>0.001084688364981585</v>
       </c>
       <c r="G54">
-        <v>7.828846085294067e-06</v>
+        <v>3.304922848716911e-06</v>
       </c>
       <c r="H54">
-        <v>0.02405283518591922</v>
+        <v>0.01302863227127741</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.004810406559267027</v>
+        <v>0.001962827743289345</v>
       </c>
       <c r="C55">
-        <v>0.008030089662750461</v>
+        <v>0.001768913764501048</v>
       </c>
       <c r="D55">
-        <v>6.516327945898121e-05</v>
+        <v>2.345558066885052e-05</v>
       </c>
       <c r="E55">
-        <v>0.005462325539970412</v>
+        <v>0.001204775361765277</v>
       </c>
       <c r="F55">
-        <v>0.00158311460502479</v>
+        <v>0.0008750932927099448</v>
       </c>
       <c r="G55">
-        <v>7.010301632695358e-06</v>
+        <v>2.388848979623011e-06</v>
       </c>
       <c r="H55">
-        <v>0.01775371285245743</v>
+        <v>0.009111516633892789</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.006705944406374476</v>
+        <v>0.002872587405193589</v>
       </c>
       <c r="C56">
-        <v>0.008700645071455329</v>
+        <v>0.006754292868683289</v>
       </c>
       <c r="D56">
-        <v>6.880503280547329e-05</v>
+        <v>4.520679343377188e-05</v>
       </c>
       <c r="E56">
-        <v>0.005603672529303836</v>
+        <v>0.00322244626858847</v>
       </c>
       <c r="F56">
-        <v>0.002523840029439013</v>
+        <v>0.00115106818265256</v>
       </c>
       <c r="G56">
-        <v>9.847033901712606e-06</v>
+        <v>4.637450357679291e-06</v>
       </c>
       <c r="H56">
-        <v>0.03325667236986745</v>
+        <v>0.01290319237384972</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.006954038765795248</v>
+        <v>0.0030906153858896</v>
       </c>
       <c r="C57">
-        <v>0.007506113556902731</v>
+        <v>0.002979415743577594</v>
       </c>
       <c r="D57">
-        <v>6.236684800800491e-05</v>
+        <v>4.121197697631682e-05</v>
       </c>
       <c r="E57">
-        <v>0.004997284781458353</v>
+        <v>0.003151007521574147</v>
       </c>
       <c r="F57">
-        <v>0.001934395150474213</v>
+        <v>0.001103996909074505</v>
       </c>
       <c r="G57">
-        <v>9.103463924024958e-06</v>
+        <v>2.863540384859119e-06</v>
       </c>
       <c r="H57">
-        <v>0.0239931267537572</v>
+        <v>0.01193424027850553</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.008571799516783231</v>
+        <v>0.0001729355255965328</v>
       </c>
       <c r="C58">
-        <v>0.006552015612796132</v>
+        <v>0.0001891498598230463</v>
       </c>
       <c r="D58">
-        <v>8.65370012659481e-05</v>
+        <v>1.247759548447263e-06</v>
       </c>
       <c r="E58">
-        <v>0.005592731529211045</v>
+        <v>0.0001166765965606162</v>
       </c>
       <c r="F58">
-        <v>0.002228749502107711</v>
+        <v>4.676888839214326e-05</v>
       </c>
       <c r="G58">
-        <v>9.042981122550146e-06</v>
+        <v>1.480737130126833e-07</v>
       </c>
       <c r="H58">
-        <v>0.02420879543420118</v>
+        <v>0.0005199673424437551</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.007271704980328629</v>
+        <v>0.00150941818652119</v>
       </c>
       <c r="C59">
-        <v>0.00860771584105402</v>
+        <v>0.004302181659069765</v>
       </c>
       <c r="D59">
-        <v>9.67273114704381e-05</v>
+        <v>1.847970281214389e-05</v>
       </c>
       <c r="E59">
-        <v>0.004575549246549772</v>
+        <v>0.001561568413068156</v>
       </c>
       <c r="F59">
-        <v>0.002148588257175266</v>
+        <v>0.0006506432057651714</v>
       </c>
       <c r="G59">
-        <v>7.375275685939758e-06</v>
+        <v>2.022500136733009e-06</v>
       </c>
       <c r="H59">
-        <v>0.02947530814709065</v>
+        <v>0.007585918788234423</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.006273368634034808</v>
+        <v>0.0004649143394739937</v>
       </c>
       <c r="C60">
-        <v>0.01178209104523524</v>
+        <v>0.000675106752672213</v>
       </c>
       <c r="D60">
-        <v>9.119566230800537e-05</v>
+        <v>7.554541150240703e-06</v>
       </c>
       <c r="E60">
-        <v>0.005398846833966866</v>
+        <v>0.0004147905714359579</v>
       </c>
       <c r="F60">
-        <v>0.002702060116548762</v>
+        <v>0.000224968810557223</v>
       </c>
       <c r="G60">
-        <v>6.848914727527058e-06</v>
+        <v>5.612655414336531e-07</v>
       </c>
       <c r="H60">
-        <v>0.02848746081282279</v>
+        <v>0.002535173627819003</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.006202864659784802</v>
+        <v>0.004884949415770348</v>
       </c>
       <c r="C61">
-        <v>0.007404936535409693</v>
+        <v>0.005847960698107718</v>
       </c>
       <c r="D61">
-        <v>7.690499985681363e-05</v>
+        <v>6.844573372140656e-05</v>
       </c>
       <c r="E61">
-        <v>0.004256900635808919</v>
+        <v>0.005132418667114148</v>
       </c>
       <c r="F61">
-        <v>0.002067465251825759</v>
+        <v>0.001501288176879283</v>
       </c>
       <c r="G61">
-        <v>7.059036215551814e-06</v>
+        <v>5.262476766871993e-06</v>
       </c>
       <c r="H61">
-        <v>0.02669679436310804</v>
+        <v>0.01726818748168497</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.005966486698823137</v>
+        <v>0.0009977215692483202</v>
       </c>
       <c r="C62">
-        <v>0.007369367461741147</v>
+        <v>0.0009360334325084443</v>
       </c>
       <c r="D62">
-        <v>6.112524807362791e-05</v>
+        <v>1.027442811140611e-05</v>
       </c>
       <c r="E62">
-        <v>0.00440836423657991</v>
+        <v>0.00086867305327337</v>
       </c>
       <c r="F62">
-        <v>0.001902443519834104</v>
+        <v>0.0003699990447976869</v>
       </c>
       <c r="G62">
-        <v>8.11063476720946e-06</v>
+        <v>8.613470960555912e-07</v>
       </c>
       <c r="H62">
-        <v>0.02188198592371355</v>
+        <v>0.004545075200771201</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.007275114386252723</v>
+        <v>0.002064368694482446</v>
       </c>
       <c r="C63">
-        <v>0.007610299671234102</v>
+        <v>0.002784365972859067</v>
       </c>
       <c r="D63">
-        <v>8.536322774288065e-05</v>
+        <v>3.241879772508561e-05</v>
       </c>
       <c r="E63">
-        <v>0.005086347814281644</v>
+        <v>0.002073857123222732</v>
       </c>
       <c r="F63">
-        <v>0.00229784800941635</v>
+        <v>0.0006071605087943734</v>
       </c>
       <c r="G63">
-        <v>9.270341095919787e-06</v>
+        <v>2.242472951148201e-06</v>
       </c>
       <c r="H63">
-        <v>0.02537886312459131</v>
+        <v>0.007955196787013093</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.005869348563761546</v>
+        <v>0.0008033004118712346</v>
       </c>
       <c r="C64">
-        <v>0.009826497862181713</v>
+        <v>0.001396342761587119</v>
       </c>
       <c r="D64">
-        <v>8.061414874640416e-05</v>
+        <v>1.303627747400408e-05</v>
       </c>
       <c r="E64">
-        <v>0.005365789528669965</v>
+        <v>0.000939950093384477</v>
       </c>
       <c r="F64">
-        <v>0.002079750018334092</v>
+        <v>0.0003581763005124799</v>
       </c>
       <c r="G64">
-        <v>8.514564793061585e-06</v>
+        <v>1.306990867642936e-06</v>
       </c>
       <c r="H64">
-        <v>0.02448242268078013</v>
+        <v>0.003672811417933238</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.007141910890253865</v>
+        <v>0.00322429553906804</v>
       </c>
       <c r="C65">
-        <v>0.006737304139678875</v>
+        <v>0.004190867008716499</v>
       </c>
       <c r="D65">
-        <v>7.574764552075396e-05</v>
+        <v>3.099162465346888e-05</v>
       </c>
       <c r="E65">
-        <v>0.004608896478098787</v>
+        <v>0.001827746494061691</v>
       </c>
       <c r="F65">
-        <v>0.002207026520190218</v>
+        <v>0.001551032519053711</v>
       </c>
       <c r="G65">
-        <v>7.83649972668977e-06</v>
+        <v>2.647041287938048e-06</v>
       </c>
       <c r="H65">
-        <v>0.02732527960458589</v>
+        <v>0.01648315632036676</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.005690035955771929</v>
+        <v>0.0002103841432954632</v>
       </c>
       <c r="C66">
-        <v>0.004984929099841866</v>
+        <v>0.0001918992787660329</v>
       </c>
       <c r="D66">
-        <v>6.564826636831423e-05</v>
+        <v>2.617679765900167e-06</v>
       </c>
       <c r="E66">
-        <v>0.004703116261352041</v>
+        <v>0.0001826109238603554</v>
       </c>
       <c r="F66">
-        <v>0.00175097418943043</v>
+        <v>7.197210217416881e-05</v>
       </c>
       <c r="G66">
-        <v>8.082097676373803e-06</v>
+        <v>1.842207551276411e-07</v>
       </c>
       <c r="H66">
-        <v>0.02466196300947488</v>
+        <v>0.0009038091812286673</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.009029628960328367</v>
+        <v>0.0001761297032699024</v>
       </c>
       <c r="C67">
-        <v>0.008850457393794463</v>
+        <v>0.0002438758057750873</v>
       </c>
       <c r="D67">
-        <v>8.35745679604973e-05</v>
+        <v>1.848183089462358e-06</v>
       </c>
       <c r="E67">
-        <v>0.004996826514444992</v>
+        <v>0.0001573668542401288</v>
       </c>
       <c r="F67">
-        <v>0.002528976016420809</v>
+        <v>8.128203471028346e-05</v>
       </c>
       <c r="G67">
-        <v>7.914148213228587e-06</v>
+        <v>2.647056575378351e-07</v>
       </c>
       <c r="H67">
-        <v>0.03389169851214969</v>
+        <v>0.0008196880231664719</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.007321423157191532</v>
+        <v>0.001609589993141387</v>
       </c>
       <c r="C68">
-        <v>0.01921970692671543</v>
+        <v>0.002095834088309004</v>
       </c>
       <c r="D68">
-        <v>8.615900969344861e-05</v>
+        <v>1.786024069021815e-05</v>
       </c>
       <c r="E68">
-        <v>0.007293868722213566</v>
+        <v>0.001376760552968093</v>
       </c>
       <c r="F68">
-        <v>0.002391731100831368</v>
+        <v>0.0005993741167970495</v>
       </c>
       <c r="G68">
-        <v>1.092434486411346e-05</v>
+        <v>1.32205335552018e-06</v>
       </c>
       <c r="H68">
-        <v>0.02423599721168278</v>
+        <v>0.006331869462584146</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.00473898481043588</v>
+        <v>0.0002201120144878388</v>
       </c>
       <c r="C69">
-        <v>0.006481493435541538</v>
+        <v>0.0002415864634934225</v>
       </c>
       <c r="D69">
-        <v>5.798282322055254e-05</v>
+        <v>2.119526182285494e-06</v>
       </c>
       <c r="E69">
-        <v>0.004215862422979907</v>
+        <v>0.0001941127227361867</v>
       </c>
       <c r="F69">
-        <v>0.001876246438578653</v>
+        <v>7.598874546374705e-05</v>
       </c>
       <c r="G69">
-        <v>7.972003061298857e-06</v>
+        <v>2.210908612712719e-07</v>
       </c>
       <c r="H69">
-        <v>0.0225133445337119</v>
+        <v>0.000819252928667793</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.006614124067979188</v>
+        <v>0.0005635582824037397</v>
       </c>
       <c r="C70">
-        <v>0.007384913803153464</v>
+        <v>0.00113831202589845</v>
       </c>
       <c r="D70">
-        <v>6.235429479184533e-05</v>
+        <v>8.053748929151787e-06</v>
       </c>
       <c r="E70">
-        <v>0.005211229464696049</v>
+        <v>0.0006388268480026726</v>
       </c>
       <c r="F70">
-        <v>0.001884638007028223</v>
+        <v>0.0002427114461703541</v>
       </c>
       <c r="G70">
-        <v>7.507045703169308e-06</v>
+        <v>7.43016011331145e-07</v>
       </c>
       <c r="H70">
-        <v>0.02238511809071226</v>
+        <v>0.002657481727544634</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.007251522656404062</v>
+        <v>0.003598510259446989</v>
       </c>
       <c r="C71">
-        <v>0.006883341124262613</v>
+        <v>0.003244585828624359</v>
       </c>
       <c r="D71">
-        <v>5.146852281053249e-05</v>
+        <v>3.067576647743514e-05</v>
       </c>
       <c r="E71">
-        <v>0.004719703602814312</v>
+        <v>0.002448549723613328</v>
       </c>
       <c r="F71">
-        <v>0.002059838346092028</v>
+        <v>0.001234520576239543</v>
       </c>
       <c r="G71">
-        <v>7.904251212163392e-06</v>
+        <v>4.059699729383174e-06</v>
       </c>
       <c r="H71">
-        <v>0.02641403206601563</v>
+        <v>0.01451992019609127</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.007002627872461698</v>
+        <v>0.001030529757292391</v>
       </c>
       <c r="C72">
-        <v>0.005700927650695738</v>
+        <v>0.001110684613964373</v>
       </c>
       <c r="D72">
-        <v>6.571754307659835e-05</v>
+        <v>1.396419115092722e-05</v>
       </c>
       <c r="E72">
-        <v>0.004400058967213771</v>
+        <v>0.0009077983479605286</v>
       </c>
       <c r="F72">
-        <v>0.002347494917548433</v>
+        <v>0.0004300309857399899</v>
       </c>
       <c r="G72">
-        <v>8.951979936258786e-06</v>
+        <v>8.713981703340497e-07</v>
       </c>
       <c r="H72">
-        <v>0.02692991798579795</v>
+        <v>0.004991632636219945</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.005996287437352484</v>
+        <v>0.001924470703951735</v>
       </c>
       <c r="C73">
-        <v>0.006954637109531462</v>
+        <v>0.002777761467547739</v>
       </c>
       <c r="D73">
-        <v>7.946265810742589e-05</v>
+        <v>2.269503482505078e-05</v>
       </c>
       <c r="E73">
-        <v>0.004829449637008239</v>
+        <v>0.001775669996354333</v>
       </c>
       <c r="F73">
-        <v>0.001724410431103255</v>
+        <v>0.0007203803183547172</v>
       </c>
       <c r="G73">
-        <v>7.685002122660026e-06</v>
+        <v>1.685022594687131e-06</v>
       </c>
       <c r="H73">
-        <v>0.01938194737305243</v>
+        <v>0.007885793033559499</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.006332154734886252</v>
+        <v>0.001946400987844089</v>
       </c>
       <c r="C74">
-        <v>0.006700738182984361</v>
+        <v>0.001777404030174143</v>
       </c>
       <c r="D74">
-        <v>7.878398661833192e-05</v>
+        <v>2.820878527921641e-05</v>
       </c>
       <c r="E74">
-        <v>0.005285465275505173</v>
+        <v>0.001630328207708589</v>
       </c>
       <c r="F74">
-        <v>0.002176042404100139</v>
+        <v>0.0007281150058064651</v>
       </c>
       <c r="G74">
-        <v>1.142129586715222e-05</v>
+        <v>1.620530018421758e-06</v>
       </c>
       <c r="H74">
-        <v>0.02621584518227776</v>
+        <v>0.00847670349804642</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.006634456977397417</v>
+        <v>0.001307115140506437</v>
       </c>
       <c r="C75">
-        <v>0.008434213899881483</v>
+        <v>0.001289649575068668</v>
       </c>
       <c r="D75">
-        <v>4.795601619062297e-05</v>
+        <v>1.54826791697284e-05</v>
       </c>
       <c r="E75">
-        <v>0.004001971991145692</v>
+        <v>0.001301147449773581</v>
       </c>
       <c r="F75">
-        <v>0.002099393064503138</v>
+        <v>0.0004285084063659893</v>
       </c>
       <c r="G75">
-        <v>7.640936261386558e-06</v>
+        <v>1.175643250126652e-06</v>
       </c>
       <c r="H75">
-        <v>0.02720987082797683</v>
+        <v>0.00492842650526296</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0074869706239981</v>
+        <v>0.002002492084037937</v>
       </c>
       <c r="C76">
-        <v>0.005717463647224807</v>
+        <v>0.005049324514589552</v>
       </c>
       <c r="D76">
-        <v>6.240923529045883e-05</v>
+        <v>2.966307120411102e-05</v>
       </c>
       <c r="E76">
-        <v>0.004504069680146799</v>
+        <v>0.001815992356257128</v>
       </c>
       <c r="F76">
-        <v>0.002065403132180913</v>
+        <v>0.0008439477190485041</v>
       </c>
       <c r="G76">
-        <v>7.819969271344087e-06</v>
+        <v>1.993169459865974e-06</v>
       </c>
       <c r="H76">
-        <v>0.02562605856103672</v>
+        <v>0.009453706347367819</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.006022705260454093</v>
+        <v>0.002304400495099197</v>
       </c>
       <c r="C77">
-        <v>0.006303425587009909</v>
+        <v>0.002557063819123753</v>
       </c>
       <c r="D77">
-        <v>6.221632307921154e-05</v>
+        <v>3.440826564217489e-05</v>
       </c>
       <c r="E77">
-        <v>0.004941236624290309</v>
+        <v>0.002610770642805205</v>
       </c>
       <c r="F77">
-        <v>0.002251635067583071</v>
+        <v>0.0009550658772961481</v>
       </c>
       <c r="G77">
-        <v>7.354171373504901e-06</v>
+        <v>3.344113571247283e-06</v>
       </c>
       <c r="H77">
-        <v>0.0279283758120693</v>
+        <v>0.008809596078148354</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.00708281694297766</v>
+        <v>0.002485397161765232</v>
       </c>
       <c r="C78">
-        <v>0.008109857486210025</v>
+        <v>0.00941505585068016</v>
       </c>
       <c r="D78">
-        <v>9.930720436150202e-05</v>
+        <v>4.464376846409965e-05</v>
       </c>
       <c r="E78">
-        <v>0.004495391392782108</v>
+        <v>0.003220707464842737</v>
       </c>
       <c r="F78">
-        <v>0.002051851135405337</v>
+        <v>0.001310668168967658</v>
       </c>
       <c r="G78">
-        <v>7.817891236154989e-06</v>
+        <v>3.277589816808366e-06</v>
       </c>
       <c r="H78">
-        <v>0.02266369309764779</v>
+        <v>0.01350246552663716</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.006231982123029698</v>
+        <v>0.002869280407935468</v>
       </c>
       <c r="C79">
-        <v>0.007265496291865413</v>
+        <v>0.00331040079800116</v>
       </c>
       <c r="D79">
-        <v>7.148655558322206e-05</v>
+        <v>3.1731768894672e-05</v>
       </c>
       <c r="E79">
-        <v>0.004365141883023073</v>
+        <v>0.002604212753007737</v>
       </c>
       <c r="F79">
-        <v>0.00195472873677416</v>
+        <v>0.0008813322974934499</v>
       </c>
       <c r="G79">
-        <v>8.502135388545153e-06</v>
+        <v>2.483215743776321e-06</v>
       </c>
       <c r="H79">
-        <v>0.0225606207485347</v>
+        <v>0.009205781583855141</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.005964116421426923</v>
+        <v>0.003008718018354051</v>
       </c>
       <c r="C80">
-        <v>0.006044904558148731</v>
+        <v>0.002829702164691061</v>
       </c>
       <c r="D80">
-        <v>7.687864321004086e-05</v>
+        <v>2.782068162604947e-05</v>
       </c>
       <c r="E80">
-        <v>0.005000447573480867</v>
+        <v>0.002447299633318317</v>
       </c>
       <c r="F80">
-        <v>0.001871341502337028</v>
+        <v>0.001015396747153349</v>
       </c>
       <c r="G80">
-        <v>6.349080052588975e-06</v>
+        <v>2.783013515746975e-06</v>
       </c>
       <c r="H80">
-        <v>0.0234179531667455</v>
+        <v>0.0126079061495063</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.006480213296030326</v>
+        <v>0.002938679387710375</v>
       </c>
       <c r="C81">
-        <v>0.005874055045925614</v>
+        <v>0.002867298944419595</v>
       </c>
       <c r="D81">
-        <v>7.309745311517678e-05</v>
+        <v>3.157794873421516e-05</v>
       </c>
       <c r="E81">
-        <v>0.004531589579016664</v>
+        <v>0.002661505571230948</v>
       </c>
       <c r="F81">
-        <v>0.002377675636913337</v>
+        <v>0.0009063844055240504</v>
       </c>
       <c r="G81">
-        <v>9.231467801175916e-06</v>
+        <v>2.652367417080529e-06</v>
       </c>
       <c r="H81">
-        <v>0.02572458757544925</v>
+        <v>0.01165075970383726</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.007437124865690604</v>
+        <v>0.002318138483689779</v>
       </c>
       <c r="C82">
-        <v>0.006015834970836664</v>
+        <v>0.002507433109061318</v>
       </c>
       <c r="D82">
-        <v>7.205742659671844e-05</v>
+        <v>2.575100381543027e-05</v>
       </c>
       <c r="E82">
-        <v>0.005299635424846371</v>
+        <v>0.002252945614384368</v>
       </c>
       <c r="F82">
-        <v>0.00220127814118337</v>
+        <v>0.0009621360598328194</v>
       </c>
       <c r="G82">
-        <v>7.70893403707576e-06</v>
+        <v>3.045632033332997e-06</v>
       </c>
       <c r="H82">
-        <v>0.02569184795886192</v>
+        <v>0.0110746301998358</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.008089620702085494</v>
+        <v>0.00144881473824016</v>
       </c>
       <c r="C83">
-        <v>0.005722845593317503</v>
+        <v>0.0036979269588921</v>
       </c>
       <c r="D83">
-        <v>9.084979600331384e-05</v>
+        <v>1.950273475751109e-05</v>
       </c>
       <c r="E83">
-        <v>0.004316421955506864</v>
+        <v>0.001349757819600152</v>
       </c>
       <c r="F83">
-        <v>0.002264717870121682</v>
+        <v>0.0004535904555796019</v>
       </c>
       <c r="G83">
-        <v>8.224436229790651e-06</v>
+        <v>1.53310408584063e-06</v>
       </c>
       <c r="H83">
-        <v>0.02630795753350471</v>
+        <v>0.005676147852087162</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.006677805841833338</v>
+        <v>0.003193108690932893</v>
       </c>
       <c r="C84">
-        <v>0.007523319007156022</v>
+        <v>0.003626537568035066</v>
       </c>
       <c r="D84">
-        <v>7.460348475017415e-05</v>
+        <v>3.530626668994595e-05</v>
       </c>
       <c r="E84">
-        <v>0.005069243023852126</v>
+        <v>0.002895067377829637</v>
       </c>
       <c r="F84">
-        <v>0.002501330597552718</v>
+        <v>0.001137061329780731</v>
       </c>
       <c r="G84">
-        <v>7.732402544078471e-06</v>
+        <v>4.175236895001428e-06</v>
       </c>
       <c r="H84">
-        <v>0.03268353017718943</v>
+        <v>0.01226572700104969</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.006976669441821986</v>
+        <v>0.003099107371339672</v>
       </c>
       <c r="C85">
-        <v>0.008317145535271976</v>
+        <v>0.004782459570474907</v>
       </c>
       <c r="D85">
-        <v>8.05171198528318e-05</v>
+        <v>4.365333887588961e-05</v>
       </c>
       <c r="E85">
-        <v>0.004325421016923714</v>
+        <v>0.003593078989581616</v>
       </c>
       <c r="F85">
-        <v>0.001929308710124488</v>
+        <v>0.001180221946815428</v>
       </c>
       <c r="G85">
-        <v>7.036483206964446e-06</v>
+        <v>4.017652929191484e-06</v>
       </c>
       <c r="H85">
-        <v>0.02530557853860875</v>
+        <v>0.01180643703328808</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.006396094843157376</v>
+        <v>0.001947800610950422</v>
       </c>
       <c r="C86">
-        <v>0.01121901887645177</v>
+        <v>0.003545294072743709</v>
       </c>
       <c r="D86">
-        <v>6.436349855493935e-05</v>
+        <v>2.813209894042767e-05</v>
       </c>
       <c r="E86">
-        <v>0.005397347094306898</v>
+        <v>0.001791388438975511</v>
       </c>
       <c r="F86">
-        <v>0.001795422972537825</v>
+        <v>0.0006453407825652048</v>
       </c>
       <c r="G86">
-        <v>8.44950090264365e-06</v>
+        <v>1.942237906841554e-06</v>
       </c>
       <c r="H86">
-        <v>0.02175313727054365</v>
+        <v>0.006863256408615349</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.007118252467442407</v>
+        <v>0.002242971207001712</v>
       </c>
       <c r="C87">
-        <v>0.006274403082328335</v>
+        <v>0.002504015293847898</v>
       </c>
       <c r="D87">
-        <v>7.778725534286989e-05</v>
+        <v>2.382721968925106e-05</v>
       </c>
       <c r="E87">
-        <v>0.005572922968416925</v>
+        <v>0.001980305896590541</v>
       </c>
       <c r="F87">
-        <v>0.001968665913655493</v>
+        <v>0.0008373975585825198</v>
       </c>
       <c r="G87">
-        <v>8.12984057307138e-06</v>
+        <v>2.925902419732604e-06</v>
       </c>
       <c r="H87">
-        <v>0.02584620425960336</v>
+        <v>0.009181952664112624</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.006839883368925176</v>
+        <v>0.001206295916893768</v>
       </c>
       <c r="C88">
-        <v>0.007045897941828213</v>
+        <v>0.001287030231350887</v>
       </c>
       <c r="D88">
-        <v>7.145313448117225e-05</v>
+        <v>1.242117256112765e-05</v>
       </c>
       <c r="E88">
-        <v>0.004723702791385181</v>
+        <v>0.001249112734340822</v>
       </c>
       <c r="F88">
-        <v>0.002031182184121816</v>
+        <v>0.0005083935667420072</v>
       </c>
       <c r="G88">
-        <v>9.19404966862422e-06</v>
+        <v>1.216269291503878e-06</v>
       </c>
       <c r="H88">
-        <v>0.02197657856030338</v>
+        <v>0.005205961023374757</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.006203077529456548</v>
+        <v>0.0003046361404407545</v>
       </c>
       <c r="C89">
-        <v>0.005584044199298564</v>
+        <v>0.0002936761778821607</v>
       </c>
       <c r="D89">
-        <v>4.906527672440703e-05</v>
+        <v>4.460756523821078e-06</v>
       </c>
       <c r="E89">
-        <v>0.00379310392446576</v>
+        <v>0.0003227373336968403</v>
       </c>
       <c r="F89">
-        <v>0.001861181997886704</v>
+        <v>8.688144833767781e-05</v>
       </c>
       <c r="G89">
-        <v>5.897560971917935e-06</v>
+        <v>2.718200703639941e-07</v>
       </c>
       <c r="H89">
-        <v>0.02357624347376967</v>
+        <v>0.001007146137707896</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.006056244141413322</v>
+        <v>0.002908799811732051</v>
       </c>
       <c r="C90">
-        <v>0.008384260184256214</v>
+        <v>0.002961786421200768</v>
       </c>
       <c r="D90">
-        <v>8.608247239862088e-05</v>
+        <v>3.240561024190727e-05</v>
       </c>
       <c r="E90">
-        <v>0.006061334954018185</v>
+        <v>0.002867070345660824</v>
       </c>
       <c r="F90">
-        <v>0.003015084984960668</v>
+        <v>0.001200125844628555</v>
       </c>
       <c r="G90">
-        <v>8.712676031189886e-06</v>
+        <v>4.063192423186361e-06</v>
       </c>
       <c r="H90">
-        <v>0.03411282486307805</v>
+        <v>0.01282622736054525</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.005975748802192942</v>
+        <v>0.0002929840894011191</v>
       </c>
       <c r="C91">
-        <v>0.00597721006410941</v>
+        <v>0.0004121423105225073</v>
       </c>
       <c r="D91">
-        <v>6.489574767126399e-05</v>
+        <v>3.875050371034945e-06</v>
       </c>
       <c r="E91">
-        <v>0.004552216007476101</v>
+        <v>0.0003436226484538771</v>
       </c>
       <c r="F91">
-        <v>0.00182956381592236</v>
+        <v>0.0001132504798019302</v>
       </c>
       <c r="G91">
-        <v>7.264730701155567e-06</v>
+        <v>3.826016295010716e-07</v>
       </c>
       <c r="H91">
-        <v>0.02286052797249621</v>
+        <v>0.00129340595659055</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.008031020450485616</v>
+        <v>0.002119772408389428</v>
       </c>
       <c r="C92">
-        <v>0.007952170027441958</v>
+        <v>0.003127319935602923</v>
       </c>
       <c r="D92">
-        <v>6.815576360652644e-05</v>
+        <v>2.843679711473964e-05</v>
       </c>
       <c r="E92">
-        <v>0.005456977621538777</v>
+        <v>0.002677299408018549</v>
       </c>
       <c r="F92">
-        <v>0.002682513205789993</v>
+        <v>0.0007311176189528698</v>
       </c>
       <c r="G92">
-        <v>1.006556749632971e-05</v>
+        <v>2.737951946333416e-06</v>
       </c>
       <c r="H92">
-        <v>0.02688319494291238</v>
+        <v>0.008670047353030836</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.005523548052474389</v>
+        <v>0.0002273284406516303</v>
       </c>
       <c r="C93">
-        <v>0.009386468051475454</v>
+        <v>0.000254020377254217</v>
       </c>
       <c r="D93">
-        <v>7.220654948862267e-05</v>
+        <v>3.471815267765879e-06</v>
       </c>
       <c r="E93">
-        <v>0.004798018816737102</v>
+        <v>0.0002007276337102841</v>
       </c>
       <c r="F93">
-        <v>0.00238632778794044</v>
+        <v>8.37642200175815e-05</v>
       </c>
       <c r="G93">
-        <v>6.441303176244736e-06</v>
+        <v>3.051462858870327e-07</v>
       </c>
       <c r="H93">
-        <v>0.02723220374144196</v>
+        <v>0.0008181799408562944</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.007968021331054868</v>
+        <v>0.003650643863286165</v>
       </c>
       <c r="C94">
-        <v>0.007410745692123099</v>
+        <v>0.004280815779576454</v>
       </c>
       <c r="D94">
-        <v>6.642494409053699e-05</v>
+        <v>5.876249445650785e-05</v>
       </c>
       <c r="E94">
-        <v>0.005518654615301276</v>
+        <v>0.003479107672213286</v>
       </c>
       <c r="F94">
-        <v>0.002210717726186923</v>
+        <v>0.001528605604951155</v>
       </c>
       <c r="G94">
-        <v>9.773564266381459e-06</v>
+        <v>3.576407052478917e-06</v>
       </c>
       <c r="H94">
-        <v>0.03521505375232825</v>
+        <v>0.01491759154276589</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.00717010209952293</v>
+        <v>0.0001469207952882146</v>
       </c>
       <c r="C95">
-        <v>0.006711950268808661</v>
+        <v>0.000197297494099443</v>
       </c>
       <c r="D95">
-        <v>6.689871167417382e-05</v>
+        <v>1.475667235636929e-06</v>
       </c>
       <c r="E95">
-        <v>0.0043299411917057</v>
+        <v>0.0001516714396145977</v>
       </c>
       <c r="F95">
-        <v>0.001829504599371742</v>
+        <v>5.184830773184037e-05</v>
       </c>
       <c r="G95">
-        <v>7.748200409350511e-06</v>
+        <v>1.987128783901896e-07</v>
       </c>
       <c r="H95">
-        <v>0.02458058926254646</v>
+        <v>0.0005175822868796222</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.007240890299628861</v>
+        <v>0.001134511331030495</v>
       </c>
       <c r="C96">
-        <v>0.006963829700785059</v>
+        <v>0.001765752198826916</v>
       </c>
       <c r="D96">
-        <v>8.765252671935943e-05</v>
+        <v>1.268706476859085e-05</v>
       </c>
       <c r="E96">
-        <v>0.004705438595723374</v>
+        <v>0.0009419000737619752</v>
       </c>
       <c r="F96">
-        <v>0.002108343475465832</v>
+        <v>0.0004443747683483885</v>
       </c>
       <c r="G96">
-        <v>7.705987082876997e-06</v>
+        <v>1.042668948300845e-06</v>
       </c>
       <c r="H96">
-        <v>0.0266392577107878</v>
+        <v>0.005067525610595547</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.005949901557121732</v>
+        <v>0.001366201807837599</v>
       </c>
       <c r="C97">
-        <v>0.008053814140478599</v>
+        <v>0.001660749714167909</v>
       </c>
       <c r="D97">
-        <v>5.944772553364796e-05</v>
+        <v>1.667558561715114e-05</v>
       </c>
       <c r="E97">
-        <v>0.004743484232831539</v>
+        <v>0.001019262369491428</v>
       </c>
       <c r="F97">
-        <v>0.002086233747685634</v>
+        <v>0.0004322028792083406</v>
       </c>
       <c r="G97">
-        <v>7.631990588583495e-06</v>
+        <v>1.029003543728284e-06</v>
       </c>
       <c r="H97">
-        <v>0.02782804642711437</v>
+        <v>0.004953600264636837</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.00716656065499556</v>
+        <v>0.002857470255398458</v>
       </c>
       <c r="C98">
-        <v>0.008390096049024211</v>
+        <v>0.006692809236752128</v>
       </c>
       <c r="D98">
-        <v>6.665131953694634e-05</v>
+        <v>3.364968350030348e-05</v>
       </c>
       <c r="E98">
-        <v>0.005130064365041667</v>
+        <v>0.002455638418256696</v>
       </c>
       <c r="F98">
-        <v>0.002604294266243904</v>
+        <v>0.001146233220666493</v>
       </c>
       <c r="G98">
-        <v>8.442758818208868e-06</v>
+        <v>2.78230283002977e-06</v>
       </c>
       <c r="H98">
-        <v>0.03446954506520249</v>
+        <v>0.01277410724718691</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.009001260889272193</v>
+        <v>0.0007200128964228315</v>
       </c>
       <c r="C99">
-        <v>0.007924899531422247</v>
+        <v>0.0009415554726116825</v>
       </c>
       <c r="D99">
-        <v>8.062622249006239e-05</v>
+        <v>7.400858983484613e-06</v>
       </c>
       <c r="E99">
-        <v>0.005332398039816103</v>
+        <v>0.0007895962260560581</v>
       </c>
       <c r="F99">
-        <v>0.002515974554254839</v>
+        <v>0.000300462626115762</v>
       </c>
       <c r="G99">
-        <v>1.236887656591981e-05</v>
+        <v>7.764391988334171e-07</v>
       </c>
       <c r="H99">
-        <v>0.03289055416444617</v>
+        <v>0.003498512844446231</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.006854968595880103</v>
+        <v>0.0007245266104249578</v>
       </c>
       <c r="C100">
-        <v>0.007568825041763912</v>
+        <v>0.0008990352696812845</v>
       </c>
       <c r="D100">
-        <v>7.311999450441009e-05</v>
+        <v>1.079661469068133e-05</v>
       </c>
       <c r="E100">
-        <v>0.005432224953225021</v>
+        <v>0.0009925150772642328</v>
       </c>
       <c r="F100">
-        <v>0.002270729710954166</v>
+        <v>0.000264034650178523</v>
       </c>
       <c r="G100">
-        <v>9.402071926646528e-06</v>
+        <v>8.257232816913346e-07</v>
       </c>
       <c r="H100">
-        <v>0.02359495047818863</v>
+        <v>0.002523707763604679</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.006397838518454172</v>
+        <v>0.002286499729287606</v>
       </c>
       <c r="C101">
-        <v>0.006157547555468923</v>
+        <v>0.005357991499944542</v>
       </c>
       <c r="D101">
-        <v>6.481119769681753e-05</v>
+        <v>2.547408171716376e-05</v>
       </c>
       <c r="E101">
-        <v>0.004695795071922213</v>
+        <v>0.002573502425272106</v>
       </c>
       <c r="F101">
-        <v>0.001930716882527357</v>
+        <v>0.0007331955598469738</v>
       </c>
       <c r="G101">
-        <v>7.820330209323929e-06</v>
+        <v>2.045313647085258e-06</v>
       </c>
       <c r="H101">
-        <v>0.02543810990508319</v>
+        <v>0.008607347562228111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.006221042140972305</v>
+        <v>0.002996581385378076</v>
       </c>
       <c r="C102">
-        <v>0.008352185728113543</v>
+        <v>0.003551813329150999</v>
       </c>
       <c r="D102">
-        <v>8.029275756974676e-05</v>
+        <v>2.593743434368222e-05</v>
       </c>
       <c r="E102">
-        <v>0.0043241653254159</v>
+        <v>0.001969139211175113</v>
       </c>
       <c r="F102">
-        <v>0.00195340081718564</v>
+        <v>0.001303011932868531</v>
       </c>
       <c r="G102">
-        <v>6.902533595213902e-06</v>
+        <v>2.706398647574998e-06</v>
       </c>
       <c r="H102">
-        <v>0.02366474607567897</v>
+        <v>0.01404239089819417</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.006041720559126943</v>
+        <v>0.003467418121105926</v>
       </c>
       <c r="C103">
-        <v>0.006753332835724665</v>
+        <v>0.005445524029900999</v>
       </c>
       <c r="D103">
-        <v>5.958022523617663e-05</v>
+        <v>4.553701541825519e-05</v>
       </c>
       <c r="E103">
-        <v>0.004259948724346297</v>
+        <v>0.003351544717707525</v>
       </c>
       <c r="F103">
-        <v>0.001843091086793847</v>
+        <v>0.001213866482616194</v>
       </c>
       <c r="G103">
-        <v>6.764404270832163e-06</v>
+        <v>3.209194061259377e-06</v>
       </c>
       <c r="H103">
-        <v>0.0234499642728189</v>
+        <v>0.01235020384091337</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.008576461060746811</v>
+        <v>0.003392878714163817</v>
       </c>
       <c r="C104">
-        <v>0.01076081908322274</v>
+        <v>0.006060224070399567</v>
       </c>
       <c r="D104">
-        <v>9.215798894078707e-05</v>
+        <v>5.827705315129245e-05</v>
       </c>
       <c r="E104">
-        <v>0.005754402771153702</v>
+        <v>0.002999386195118226</v>
       </c>
       <c r="F104">
-        <v>0.002242289530351461</v>
+        <v>0.0009673065711209035</v>
       </c>
       <c r="G104">
-        <v>1.312900921515404e-05</v>
+        <v>3.787116030842689e-06</v>
       </c>
       <c r="H104">
-        <v>0.02664396220565667</v>
+        <v>0.01174367271961768</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.00673525326578642</v>
+        <v>0.002866394435934162</v>
       </c>
       <c r="C105">
-        <v>0.00742078289571332</v>
+        <v>0.004265787288403542</v>
       </c>
       <c r="D105">
-        <v>6.166828470016922e-05</v>
+        <v>3.632257079478873e-05</v>
       </c>
       <c r="E105">
-        <v>0.004789107756991661</v>
+        <v>0.002313168255396343</v>
       </c>
       <c r="F105">
-        <v>0.0023789913783248</v>
+        <v>0.00115354153810513</v>
       </c>
       <c r="G105">
-        <v>8.098730395428186e-06</v>
+        <v>2.895612669911747e-06</v>
       </c>
       <c r="H105">
-        <v>0.03046413954567925</v>
+        <v>0.01214129382651536</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.007144180496101006</v>
+        <v>0.001115537855136524</v>
       </c>
       <c r="C106">
-        <v>0.01041992295251657</v>
+        <v>0.002211522063711483</v>
       </c>
       <c r="D106">
-        <v>6.833860285208479e-05</v>
+        <v>9.420764720059781e-06</v>
       </c>
       <c r="E106">
-        <v>0.005780093558757938</v>
+        <v>0.001030305419735854</v>
       </c>
       <c r="F106">
-        <v>0.002214471355793689</v>
+        <v>0.0003901225101068436</v>
       </c>
       <c r="G106">
-        <v>8.811945072893832e-06</v>
+        <v>8.444619535580534e-07</v>
       </c>
       <c r="H106">
-        <v>0.02796647371689768</v>
+        <v>0.004594183916119834</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.006974912653168455</v>
+        <v>0.001163970098644917</v>
       </c>
       <c r="C107">
-        <v>0.01002087471635702</v>
+        <v>0.001206517236708225</v>
       </c>
       <c r="D107">
-        <v>6.603088395723189e-05</v>
+        <v>1.506021245179557e-05</v>
       </c>
       <c r="E107">
-        <v>0.006735585385770024</v>
+        <v>0.0008993306881230212</v>
       </c>
       <c r="F107">
-        <v>0.00218419290524955</v>
+        <v>0.0005048413483956293</v>
       </c>
       <c r="G107">
-        <v>8.501555087218453e-06</v>
+        <v>1.032012680862645e-06</v>
       </c>
       <c r="H107">
-        <v>0.02936953247979983</v>
+        <v>0.005568381410147295</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.005559940246115859</v>
+        <v>0.002487539297062938</v>
       </c>
       <c r="C108">
-        <v>0.007787429167776388</v>
+        <v>0.004204572764033807</v>
       </c>
       <c r="D108">
-        <v>7.227364644969175e-05</v>
+        <v>2.995278958432411e-05</v>
       </c>
       <c r="E108">
-        <v>0.004491744430961766</v>
+        <v>0.002118855978649936</v>
       </c>
       <c r="F108">
-        <v>0.002165976693996784</v>
+        <v>0.0007636234108249883</v>
       </c>
       <c r="G108">
-        <v>5.678859811398557e-06</v>
+        <v>2.220257695496922e-06</v>
       </c>
       <c r="H108">
-        <v>0.02565913325904961</v>
+        <v>0.009169903356096918</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.006432588281520259</v>
+        <v>0.0006142528722599948</v>
       </c>
       <c r="C109">
-        <v>0.006927597110019784</v>
+        <v>0.001003749714712162</v>
       </c>
       <c r="D109">
-        <v>9.432681552084423e-05</v>
+        <v>9.628428696382738e-06</v>
       </c>
       <c r="E109">
-        <v>0.005537836795785262</v>
+        <v>0.0004805573741904377</v>
       </c>
       <c r="F109">
-        <v>0.00213364854265638</v>
+        <v>0.0001807472550302531</v>
       </c>
       <c r="G109">
-        <v>8.841839001319537e-06</v>
+        <v>5.565471717491784e-07</v>
       </c>
       <c r="H109">
-        <v>0.02372881341305223</v>
+        <v>0.002162089185403078</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.005907445177274232</v>
+        <v>0.0009517872285148215</v>
       </c>
       <c r="C110">
-        <v>0.008103579088448356</v>
+        <v>0.001753066276513211</v>
       </c>
       <c r="D110">
-        <v>6.692346289025298e-05</v>
+        <v>1.296779022127445e-05</v>
       </c>
       <c r="E110">
-        <v>0.004633008731377983</v>
+        <v>0.001012276339572337</v>
       </c>
       <c r="F110">
-        <v>0.001830169526343676</v>
+        <v>0.0004277449217386567</v>
       </c>
       <c r="G110">
-        <v>5.860425454459257e-06</v>
+        <v>1.518302531250071e-06</v>
       </c>
       <c r="H110">
-        <v>0.02317693479225028</v>
+        <v>0.004713973677912761</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.005802399596515876</v>
+        <v>0.0001392048702849317</v>
       </c>
       <c r="C111">
-        <v>0.007442890972429977</v>
+        <v>0.0001716633582244827</v>
       </c>
       <c r="D111">
-        <v>6.65059316987043e-05</v>
+        <v>2.357098222986855e-06</v>
       </c>
       <c r="E111">
-        <v>0.004046763906432195</v>
+        <v>0.0001741942422604581</v>
       </c>
       <c r="F111">
-        <v>0.001546207067009236</v>
+        <v>6.546770496103211e-05</v>
       </c>
       <c r="G111">
-        <v>7.276142012146668e-06</v>
+        <v>2.082805854349403e-07</v>
       </c>
       <c r="H111">
-        <v>0.01906579081252974</v>
+        <v>0.0006720841366013309</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.005080818873075721</v>
+        <v>0.0001111022064382525</v>
       </c>
       <c r="C112">
-        <v>0.00559233299085024</v>
+        <v>0.0001288533462575427</v>
       </c>
       <c r="D112">
-        <v>6.146403012506433e-05</v>
+        <v>1.450174370368111e-06</v>
       </c>
       <c r="E112">
-        <v>0.005358597431289499</v>
+        <v>0.0001118795861593126</v>
       </c>
       <c r="F112">
-        <v>0.001564409411162381</v>
+        <v>4.058020145032177e-05</v>
       </c>
       <c r="G112">
-        <v>6.146939225394485e-06</v>
+        <v>1.345134840976863e-07</v>
       </c>
       <c r="H112">
-        <v>0.01925111657578789</v>
+        <v>0.0004619834006297985</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.008131278638088405</v>
+        <v>0.002468004477996548</v>
       </c>
       <c r="C113">
-        <v>0.01004535989558875</v>
+        <v>0.005563677672392496</v>
       </c>
       <c r="D113">
-        <v>0.0001054478812721026</v>
+        <v>2.604662812872047e-05</v>
       </c>
       <c r="E113">
-        <v>0.004792810130096646</v>
+        <v>0.002402240625008022</v>
       </c>
       <c r="F113">
-        <v>0.002718197035085702</v>
+        <v>0.0008346309645308844</v>
       </c>
       <c r="G113">
-        <v>8.280888195148203e-06</v>
+        <v>2.678104532683461e-06</v>
       </c>
       <c r="H113">
-        <v>0.03333871166286814</v>
+        <v>0.01056499197365104</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.006584319764368366</v>
+        <v>0.001097235416937656</v>
       </c>
       <c r="C114">
-        <v>0.00896516181583016</v>
+        <v>0.001214835976251419</v>
       </c>
       <c r="D114">
-        <v>5.813031213523624e-05</v>
+        <v>1.91569774903935e-05</v>
       </c>
       <c r="E114">
-        <v>0.005500835215357013</v>
+        <v>0.001015849951185758</v>
       </c>
       <c r="F114">
-        <v>0.002198478422808414</v>
+        <v>0.0004388207914582837</v>
       </c>
       <c r="G114">
-        <v>9.802975161262543e-06</v>
+        <v>1.216445837934258e-06</v>
       </c>
       <c r="H114">
-        <v>0.02557163993390282</v>
+        <v>0.004355537903441333</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.00731011153602379</v>
+        <v>0.002657308351785408</v>
       </c>
       <c r="C115">
-        <v>0.009991374384127028</v>
+        <v>0.004704779178965198</v>
       </c>
       <c r="D115">
-        <v>6.847552465368304e-05</v>
+        <v>2.396705654402815e-05</v>
       </c>
       <c r="E115">
-        <v>0.005110670477500067</v>
+        <v>0.002299011016655416</v>
       </c>
       <c r="F115">
-        <v>0.002113421786822313</v>
+        <v>0.0007269158505031</v>
       </c>
       <c r="G115">
-        <v>7.660226303057593e-06</v>
+        <v>2.840472171467166e-06</v>
       </c>
       <c r="H115">
-        <v>0.0251447165431674</v>
+        <v>0.008678378716829778</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.006161204313297585</v>
+        <v>0.002582522768565142</v>
       </c>
       <c r="C116">
-        <v>0.008809835282283832</v>
+        <v>0.004158328477633436</v>
       </c>
       <c r="D116">
-        <v>6.377842597867341e-05</v>
+        <v>3.708421058130206e-05</v>
       </c>
       <c r="E116">
-        <v>0.004364216095944402</v>
+        <v>0.002735153344058462</v>
       </c>
       <c r="F116">
-        <v>0.001886025763906741</v>
+        <v>0.0008511198112821809</v>
       </c>
       <c r="G116">
-        <v>6.004086881985278e-06</v>
+        <v>2.709288974579554e-06</v>
       </c>
       <c r="H116">
-        <v>0.02291531723953036</v>
+        <v>0.009414743794383819</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.006790081468906918</v>
+        <v>0.000311909710588704</v>
       </c>
       <c r="C117">
-        <v>0.007513547210507808</v>
+        <v>0.0004925076790413301</v>
       </c>
       <c r="D117">
-        <v>6.628240213509969e-05</v>
+        <v>3.899764087829686e-06</v>
       </c>
       <c r="E117">
-        <v>0.004687901871258535</v>
+        <v>0.0003341043813123341</v>
       </c>
       <c r="F117">
-        <v>0.002340346962446083</v>
+        <v>0.0001238765545893263</v>
       </c>
       <c r="G117">
-        <v>7.315898756570364e-06</v>
+        <v>3.60564525635076e-07</v>
       </c>
       <c r="H117">
-        <v>0.02829286644259212</v>
+        <v>0.001304754279735209</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.005673653084515234</v>
+        <v>0.000295589376525681</v>
       </c>
       <c r="C118">
-        <v>0.007349514425079692</v>
+        <v>0.0005166388384408878</v>
       </c>
       <c r="D118">
-        <v>6.52520782770814e-05</v>
+        <v>2.612286208647468e-06</v>
       </c>
       <c r="E118">
-        <v>0.004528189994484073</v>
+        <v>0.0003266617975438154</v>
       </c>
       <c r="F118">
-        <v>0.001888176264173465</v>
+        <v>7.982772739680832e-05</v>
       </c>
       <c r="G118">
-        <v>7.517298177214979e-06</v>
+        <v>3.5705490045615e-07</v>
       </c>
       <c r="H118">
-        <v>0.02117000562539412</v>
+        <v>0.001011029044992263</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.007338022787058679</v>
+        <v>0.001357321785743456</v>
       </c>
       <c r="C119">
-        <v>0.00960996197683734</v>
+        <v>0.001196833904356998</v>
       </c>
       <c r="D119">
-        <v>9.940722008404351e-05</v>
+        <v>1.385800969240071e-05</v>
       </c>
       <c r="E119">
-        <v>0.00575336302903594</v>
+        <v>0.001030877263142052</v>
       </c>
       <c r="F119">
-        <v>0.002854689028254139</v>
+        <v>0.0003583221026737162</v>
       </c>
       <c r="G119">
-        <v>8.96744889635347e-06</v>
+        <v>1.203662005841372e-06</v>
       </c>
       <c r="H119">
-        <v>0.03112175419317429</v>
+        <v>0.00407916339683788</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.008469939277400773</v>
+        <v>0.0001103085072386471</v>
       </c>
       <c r="C120">
-        <v>0.01182131077585604</v>
+        <v>0.0001197556448869734</v>
       </c>
       <c r="D120">
-        <v>7.519584977232794e-05</v>
+        <v>1.783827576856534e-06</v>
       </c>
       <c r="E120">
-        <v>0.006198029556993588</v>
+        <v>0.0001249106990900518</v>
       </c>
       <c r="F120">
-        <v>0.002876543389693792</v>
+        <v>4.283668368128246e-05</v>
       </c>
       <c r="G120">
-        <v>8.936338534357691e-06</v>
+        <v>2.14712438607898e-07</v>
       </c>
       <c r="H120">
-        <v>0.03393238221175236</v>
+        <v>0.0004547725549571871</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.006492493417920338</v>
+        <v>9.336739125615493e-05</v>
       </c>
       <c r="C121">
-        <v>0.01125648337809152</v>
+        <v>0.0001427150390591523</v>
       </c>
       <c r="D121">
-        <v>7.344575961393881e-05</v>
+        <v>1.640088912687927e-06</v>
       </c>
       <c r="E121">
-        <v>0.005410330315583323</v>
+        <v>0.0001179337079840891</v>
       </c>
       <c r="F121">
-        <v>0.002237407077491477</v>
+        <v>3.194302401466517e-05</v>
       </c>
       <c r="G121">
-        <v>7.604031666145932e-06</v>
+        <v>2.646533505049278e-07</v>
       </c>
       <c r="H121">
-        <v>0.02696960838170407</v>
+        <v>0.0003606065861659882</v>
       </c>
     </row>
   </sheetData>
